--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -4458,7 +4458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN216"/>
+  <dimension ref="A1:R216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="47" t="str">
-        <f>CONCATENATE("c",D19,E19,F19)</f>
+        <f t="shared" ref="H19:H24" si="2">CONCATENATE("c",D19,E19,F19)</f>
         <v xml:space="preserve">cIx </v>
       </c>
       <c r="I19" s="47"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="47" t="str">
-        <f>CONCATENATE("c",D20,E20,F20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cIx </v>
       </c>
       <c r="I20" s="47"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="47" t="str">
-        <f>CONCATENATE("c",D21,E21,F21)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cIx </v>
       </c>
       <c r="I21" s="47"/>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="47" t="str">
-        <f>CONCATENATE("c",D22,E22,F22)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cIx </v>
       </c>
       <c r="I22" s="47"/>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="47" t="str">
-        <f>CONCATENATE("c",D23,E23,F23)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cI4 </v>
       </c>
       <c r="I23" s="47"/>
@@ -5455,7 +5455,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="47" t="str">
-        <f>CONCATENATE("c",D24,E24,F24)</f>
+        <f t="shared" si="2"/>
         <v>cI5</v>
       </c>
       <c r="I24" s="47"/>
@@ -5720,7 +5720,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="47" t="str">
-        <f>CONCATENATE("c",D31,E31,F31)</f>
+        <f t="shared" ref="H31:H44" si="3">CONCATENATE("c",D31,E31,F31)</f>
         <v>cIx</v>
       </c>
       <c r="I31" s="47"/>
@@ -5762,7 +5762,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="47" t="str">
-        <f>CONCATENATE("c",D32,E32,F32)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I32" s="47"/>
@@ -5804,7 +5804,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="47" t="str">
-        <f>CONCATENATE("c",D33,E33,F33)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I33" s="47"/>
@@ -5846,7 +5846,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="47" t="str">
-        <f>CONCATENATE("c",D34,E34,F34)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I34" s="47"/>
@@ -5888,7 +5888,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="47" t="str">
-        <f>CONCATENATE("c",D35,E35,F35)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I35" s="47"/>
@@ -5930,7 +5930,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="47" t="str">
-        <f>CONCATENATE("c",D36,E36,F36)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I36" s="47"/>
@@ -5968,7 +5968,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="47" t="str">
-        <f>CONCATENATE("c",D37,E37,F37)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I37" s="47"/>
@@ -6006,7 +6006,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="47" t="str">
-        <f>CONCATENATE("c",D38,E38,F38)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I38" s="47"/>
@@ -6048,7 +6048,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="47" t="str">
-        <f>CONCATENATE("c",D39,E39,F39)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I39" s="47"/>
@@ -6090,7 +6090,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="47" t="str">
-        <f>CONCATENATE("c",D40,E40,F40)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I40" s="47"/>
@@ -6128,7 +6128,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="47" t="str">
-        <f>CONCATENATE("c",D41,E41,F41)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I41" s="47"/>
@@ -6170,7 +6170,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="47" t="str">
-        <f>CONCATENATE("c",D42,E42,F42)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I42" s="47"/>
@@ -6208,7 +6208,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="47" t="str">
-        <f>CONCATENATE("c",D43,E43,F43)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I43" s="47"/>
@@ -6250,7 +6250,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="47" t="str">
-        <f>CONCATENATE("c",D44,E44,F44)</f>
+        <f t="shared" si="3"/>
         <v>cIx</v>
       </c>
       <c r="I44" s="47"/>
@@ -6528,7 +6528,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47" t="str">
-        <f t="shared" ref="I51:I55" si="2">CONCATENATE(D51,E51,F51)</f>
+        <f t="shared" ref="I51:I55" si="4">CONCATENATE(D51,E51,F51)</f>
         <v>I7</v>
       </c>
       <c r="J51" s="1"/>
@@ -6575,7 +6575,7 @@
         <v>cI7a</v>
       </c>
       <c r="I52" s="47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>I7a</v>
       </c>
       <c r="J52" s="1"/>
@@ -6622,7 +6622,7 @@
         <v>cI7b</v>
       </c>
       <c r="I53" s="47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>I7b</v>
       </c>
       <c r="J53" s="1"/>
@@ -6669,7 +6669,7 @@
         <v>cI7c</v>
       </c>
       <c r="I54" s="47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>I7c</v>
       </c>
       <c r="J54" s="1"/>
@@ -6713,7 +6713,7 @@
         <v>956</v>
       </c>
       <c r="I55" s="47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>I8</v>
       </c>
       <c r="J55" s="1"/>
@@ -6754,7 +6754,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="47" t="str">
-        <f>CONCATENATE("c",D56,E56,F56)</f>
+        <f t="shared" ref="H56:H61" si="5">CONCATENATE("c",D56,E56,F56)</f>
         <v>cI8</v>
       </c>
       <c r="I56" s="47"/>
@@ -6796,7 +6796,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="47" t="str">
-        <f>CONCATENATE("c",D57,E57,F57)</f>
+        <f t="shared" si="5"/>
         <v>cI8</v>
       </c>
       <c r="I57" s="47"/>
@@ -6838,7 +6838,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="47" t="str">
-        <f>CONCATENATE("c",D58,E58,F58)</f>
+        <f t="shared" si="5"/>
         <v>cI8</v>
       </c>
       <c r="I58" s="47"/>
@@ -6880,7 +6880,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="47" t="str">
-        <f>CONCATENATE("c",D59,E59,F59)</f>
+        <f t="shared" si="5"/>
         <v>cI8</v>
       </c>
       <c r="I59" s="47"/>
@@ -6922,7 +6922,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="47" t="str">
-        <f>CONCATENATE("c",D60,E60,F60)</f>
+        <f t="shared" si="5"/>
         <v>cI8</v>
       </c>
       <c r="I60" s="47"/>
@@ -6964,7 +6964,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="47" t="str">
-        <f>CONCATENATE("c",D61,E61,F61)</f>
+        <f t="shared" si="5"/>
         <v>cI8</v>
       </c>
       <c r="I61" s="47"/>
@@ -7009,7 +7009,7 @@
         <v>956</v>
       </c>
       <c r="I62" s="47" t="str">
-        <f t="shared" ref="I62" si="3">CONCATENATE(D62,E62,F62)</f>
+        <f t="shared" ref="I62" si="6">CONCATENATE(D62,E62,F62)</f>
         <v>I9</v>
       </c>
       <c r="J62" s="1"/>

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="1146">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3505,9 +3505,6 @@
   </si>
   <si>
     <t>Other Infectious Diseases</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <r>
@@ -4464,7 +4461,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D204" sqref="D204"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6574,9 +6571,8 @@
         <f>CONCATENATE("c",D52,E52,F52)</f>
         <v>cI7a</v>
       </c>
-      <c r="I52" s="47" t="str">
-        <f t="shared" si="4"/>
-        <v>I7a</v>
+      <c r="I52" s="47" t="s">
+        <v>956</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -6614,16 +6610,15 @@
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="47" t="str">
         <f>CONCATENATE("c",D53,E53,F53)</f>
-        <v>cI7b</v>
-      </c>
-      <c r="I53" s="47" t="str">
-        <f t="shared" si="4"/>
-        <v>I7b</v>
+        <v>cI7a</v>
+      </c>
+      <c r="I53" s="47" t="s">
+        <v>956</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -6661,16 +6656,15 @@
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="47" t="str">
         <f>CONCATENATE("c",D54,E54,F54)</f>
-        <v>cI7c</v>
-      </c>
-      <c r="I54" s="47" t="str">
-        <f t="shared" si="4"/>
-        <v>I7c</v>
+        <v>cI7a</v>
+      </c>
+      <c r="I54" s="47" t="s">
+        <v>956</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -7468,7 +7462,7 @@
         <v>383</v>
       </c>
       <c r="N73" s="55" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O73" s="54" t="s">
         <v>558</v>
@@ -7488,7 +7482,7 @@
       </c>
       <c r="C74" s="61"/>
       <c r="D74" s="62" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E74" s="62"/>
       <c r="F74" s="62"/>
@@ -7508,10 +7502,10 @@
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>1136</v>
@@ -7538,7 +7532,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -7969,7 +7963,9 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>1134</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="H88" s="47"/>
       <c r="I88" s="47"/>
@@ -8004,7 +8000,9 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>1134</v>
+      </c>
       <c r="G89" s="1"/>
       <c r="H89" s="47"/>
       <c r="I89" s="47"/>
@@ -8774,7 +8772,7 @@
         <v>66</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -8813,7 +8811,7 @@
         <v>67</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>1136</v>
@@ -8825,10 +8823,10 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M111" s="36" t="s">
         <v>1140</v>
-      </c>
-      <c r="M111" s="36" t="s">
-        <v>1141</v>
       </c>
       <c r="N111" s="30" t="s">
         <v>687</v>
@@ -9000,7 +8998,7 @@
         <v>724</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E116" s="1">
         <v>2</v>
@@ -10507,7 +10505,7 @@
         <v>101</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -10544,7 +10542,7 @@
         <v>102</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -10581,7 +10579,7 @@
         <v>103</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -10653,7 +10651,7 @@
         <v>105</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -10690,7 +10688,7 @@
         <v>106</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -10727,7 +10725,7 @@
         <v>107</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -10764,7 +10762,7 @@
         <v>737</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -10801,7 +10799,7 @@
         <v>738</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -10838,7 +10836,7 @@
         <v>670</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -10875,7 +10873,7 @@
         <v>739</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -10912,7 +10910,7 @@
         <v>740</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -10949,7 +10947,7 @@
         <v>741</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -11021,7 +11019,7 @@
         <v>109</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -11163,7 +11161,7 @@
         <v>745</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -11196,7 +11194,7 @@
         <v>110</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -11233,7 +11231,7 @@
         <v>746</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -11270,7 +11268,7 @@
         <v>112</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -11307,7 +11305,7 @@
         <v>113</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -11344,7 +11342,7 @@
         <v>114</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -11416,7 +11414,7 @@
         <v>116</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -11453,7 +11451,7 @@
         <v>117</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -11486,7 +11484,7 @@
         <v>118</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -11519,7 +11517,7 @@
         <v>119</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -11552,7 +11550,7 @@
         <v>120</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -11589,7 +11587,7 @@
         <v>121</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -11836,7 +11834,7 @@
         <v>128</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -11993,7 +11991,7 @@
         <v>132</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -12009,7 +12007,7 @@
         <v>1120</v>
       </c>
       <c r="N203" s="34" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="O203" s="30" t="s">
         <v>655</v>

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1172">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3741,6 +3741,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>10. uteri cancer</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -4067,7 +4073,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4288,6 +4294,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -4621,13 +4630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U219"/>
+  <dimension ref="A1:U220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F224" sqref="F224"/>
+      <selection pane="bottomRight" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8513,7 +8522,7 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="45" t="str">
-        <f t="shared" ref="H88:H102" si="5">CONCATENATE("c",D88,E88,F88)</f>
+        <f t="shared" ref="H88:H103" si="5">CONCATENATE("c",D88,E88,F88)</f>
         <v xml:space="preserve">cB08 </v>
       </c>
       <c r="I88" s="45"/>
@@ -8609,7 +8618,7 @@
         <v>cB09</v>
       </c>
       <c r="I90" s="45" t="str">
-        <f t="shared" ref="I90:I103" si="6">CONCATENATE(D90,E90,F90)</f>
+        <f t="shared" ref="I90:I104" si="6">CONCATENATE(D90,E90,F90)</f>
         <v>B09</v>
       </c>
       <c r="J90" s="1"/>
@@ -8638,11 +8647,9 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>85</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>61</v>
+      <c r="A91" s="2"/>
+      <c r="B91" s="79" t="s">
+        <v>1170</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1153</v>
@@ -8652,427 +8659,411 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="45" t="str">
-        <f t="shared" si="5"/>
-        <v>cB10</v>
-      </c>
+      <c r="H91" s="45"/>
       <c r="I91" s="45" t="str">
         <f t="shared" si="6"/>
         <v>B10</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="M91" s="34" t="s">
-        <v>434</v>
-      </c>
+      <c r="L91" s="28"/>
+      <c r="M91" s="34"/>
       <c r="N91" s="34"/>
       <c r="O91" s="34"/>
       <c r="P91" s="34"/>
-      <c r="Q91" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="R91" s="28" t="s">
-        <v>1079</v>
-      </c>
-      <c r="S91" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="T91" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="16"/>
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="E92" s="74">
-        <v>10</v>
+      <c r="E92" s="74" t="s">
+        <v>1171</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("c",D91,E91,F92)</f>
         <v>cB10</v>
       </c>
-      <c r="I92" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>B10</v>
+      <c r="I92" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M92" s="34" t="s">
-        <v>778</v>
+        <v>434</v>
       </c>
       <c r="N92" s="34"/>
       <c r="O92" s="34"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R92" s="28" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T92" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="E93" s="74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="45" t="str">
         <f t="shared" si="5"/>
-        <v>cB11</v>
-      </c>
-      <c r="I93" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>B11</v>
+        <v>cB10</v>
+      </c>
+      <c r="I93" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>436</v>
+        <v>778</v>
       </c>
       <c r="N93" s="34"/>
       <c r="O93" s="34"/>
       <c r="P93" s="34"/>
       <c r="Q93" s="28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R93" s="28" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="S93" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T93" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="E94" s="74" t="s">
-        <v>1168</v>
+      <c r="E94" s="74">
+        <v>11</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="45" t="str">
         <f t="shared" si="5"/>
-        <v>cB12</v>
+        <v>cB11</v>
       </c>
       <c r="I94" s="45" t="str">
         <f t="shared" si="6"/>
-        <v>B12</v>
+        <v>B11</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M94" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N94" s="34"/>
       <c r="O94" s="34"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R94" s="28" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="S94" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T94" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>706</v>
+        <v>64</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="E95" s="74" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="45" t="str">
         <f t="shared" si="5"/>
-        <v>cBxx</v>
-      </c>
-      <c r="I95" s="45" t="s">
-        <v>956</v>
+        <v>cB12</v>
+      </c>
+      <c r="I95" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>B12</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="28" t="s">
-        <v>779</v>
+        <v>437</v>
       </c>
       <c r="M95" s="34" t="s">
-        <v>779</v>
+        <v>437</v>
       </c>
       <c r="N95" s="34"/>
       <c r="O95" s="34"/>
       <c r="P95" s="34"/>
       <c r="Q95" s="28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="R95" s="28" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="S95" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T95" s="16" t="s">
-        <v>706</v>
+        <v>64</v>
       </c>
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="E96" s="74">
-        <v>13</v>
+      <c r="E96" s="74" t="s">
+        <v>1158</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="45" t="str">
         <f t="shared" si="5"/>
-        <v>cB13</v>
-      </c>
-      <c r="I96" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>B13</v>
+        <v>cBxx</v>
+      </c>
+      <c r="I96" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="28" t="s">
-        <v>974</v>
+        <v>779</v>
       </c>
       <c r="M96" s="34" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="N96" s="34"/>
       <c r="O96" s="34"/>
       <c r="P96" s="34"/>
       <c r="Q96" s="28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R96" s="28" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="S96" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T96" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="E97" s="74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="45" t="str">
         <f t="shared" si="5"/>
-        <v>cB14</v>
+        <v>cB13</v>
       </c>
       <c r="I97" s="45" t="str">
         <f t="shared" si="6"/>
-        <v>B14</v>
+        <v>B13</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="28" t="s">
-        <v>438</v>
+        <v>974</v>
       </c>
       <c r="M97" s="34" t="s">
-        <v>438</v>
+        <v>780</v>
       </c>
       <c r="N97" s="34"/>
       <c r="O97" s="34"/>
       <c r="P97" s="34"/>
       <c r="Q97" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R97" s="28" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="S97" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T97" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="E98" s="74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="45" t="str">
         <f t="shared" si="5"/>
-        <v>cB15</v>
+        <v>cB14</v>
       </c>
       <c r="I98" s="45" t="str">
         <f t="shared" si="6"/>
-        <v>B15</v>
+        <v>B14</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="28" t="s">
-        <v>975</v>
+        <v>438</v>
       </c>
       <c r="M98" s="34" t="s">
-        <v>781</v>
+        <v>438</v>
       </c>
       <c r="N98" s="34"/>
       <c r="O98" s="34"/>
       <c r="P98" s="34"/>
       <c r="Q98" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R98" s="28" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="S98" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T98" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="E99" s="74" t="s">
-        <v>1158</v>
+      <c r="E99" s="74">
+        <v>15</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="45" t="str">
         <f t="shared" si="5"/>
-        <v>cBxx</v>
-      </c>
-      <c r="I99" s="45" t="s">
-        <v>956</v>
+        <v>cB15</v>
+      </c>
+      <c r="I99" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>B15</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M99" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N99" s="34"/>
       <c r="O99" s="34"/>
       <c r="P99" s="34"/>
       <c r="Q99" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R99" s="28" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="S99" s="9" t="s">
-        <v>901</v>
+        <v>233</v>
       </c>
       <c r="T99" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>1153</v>
@@ -9092,34 +9083,34 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="28" t="s">
-        <v>783</v>
+        <v>976</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N100" s="34"/>
       <c r="O100" s="34"/>
       <c r="P100" s="34"/>
       <c r="Q100" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R100" s="28" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="S100" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T100" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1153</v>
@@ -9139,34 +9130,34 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M101" s="34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N101" s="34"/>
       <c r="O101" s="34"/>
       <c r="P101" s="34"/>
       <c r="Q101" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R101" s="28" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="S101" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="T101" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U101" s="2"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1153</v>
@@ -9186,79 +9177,81 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="28" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N102" s="34"/>
       <c r="O102" s="34"/>
       <c r="P102" s="34"/>
       <c r="Q102" s="28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R102" s="28" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="S102" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="T102" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="E103" s="74">
-        <v>16</v>
+      <c r="E103" s="74" t="s">
+        <v>1158</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45" t="str">
-        <f t="shared" si="6"/>
-        <v>B16</v>
+      <c r="H103" s="45" t="str">
+        <f t="shared" si="5"/>
+        <v>cBxx</v>
+      </c>
+      <c r="I103" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="28" t="s">
-        <v>439</v>
+        <v>785</v>
       </c>
       <c r="M103" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N103" s="34"/>
       <c r="O103" s="34"/>
       <c r="P103" s="34"/>
       <c r="Q103" s="28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R103" s="28" t="s">
-        <v>1037</v>
+        <v>1074</v>
       </c>
       <c r="S103" s="9" t="s">
-        <v>234</v>
+        <v>904</v>
       </c>
       <c r="T103" s="16" t="s">
-        <v>908</v>
+        <v>713</v>
       </c>
       <c r="U103" s="2"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>98</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>715</v>
+        <v>97</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>714</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>1153</v>
@@ -9266,48 +9259,44 @@
       <c r="E104" s="74">
         <v>16</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>1131</v>
-      </c>
+      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="45" t="str">
-        <f t="shared" ref="H104:H110" si="7">CONCATENATE("c",D104,E104,F104)</f>
-        <v>cB16a</v>
-      </c>
-      <c r="I104" s="45"/>
-      <c r="J104" s="1" t="s">
-        <v>1141</v>
-      </c>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>B16</v>
+      </c>
+      <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="28" t="s">
-        <v>787</v>
+        <v>439</v>
       </c>
       <c r="M104" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N104" s="34"/>
       <c r="O104" s="34"/>
       <c r="P104" s="34"/>
       <c r="Q104" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="R104" s="31">
-        <v>201</v>
+        <v>585</v>
+      </c>
+      <c r="R104" s="28" t="s">
+        <v>1037</v>
       </c>
       <c r="S104" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="T104" s="9" t="s">
-        <v>715</v>
+        <v>234</v>
+      </c>
+      <c r="T104" s="16" t="s">
+        <v>908</v>
       </c>
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>1153</v>
@@ -9316,48 +9305,47 @@
         <v>16</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="45" t="str">
-        <f t="shared" si="7"/>
-        <v>cB16b</v>
-      </c>
-      <c r="I105" s="45" t="str">
-        <f>CONCATENATE(D105,E105,F105)</f>
-        <v>B16b</v>
-      </c>
-      <c r="J105" s="1"/>
+        <f t="shared" ref="H105:H111" si="7">CONCATENATE("c",D105,E105,F105)</f>
+        <v>cB16a</v>
+      </c>
+      <c r="I105" s="45"/>
+      <c r="J105" s="1" t="s">
+        <v>1141</v>
+      </c>
       <c r="K105" s="1"/>
       <c r="L105" s="28" t="s">
-        <v>977</v>
+        <v>787</v>
       </c>
       <c r="M105" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N105" s="34"/>
       <c r="O105" s="34"/>
       <c r="P105" s="34"/>
       <c r="Q105" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="R105" s="28" t="s">
-        <v>1036</v>
+        <v>586</v>
+      </c>
+      <c r="R105" s="31">
+        <v>201</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="T105" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>1153</v>
@@ -9366,143 +9354,149 @@
         <v>16</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="45" t="str">
         <f t="shared" si="7"/>
-        <v>cB16c</v>
+        <v>cB16b</v>
       </c>
       <c r="I106" s="45" t="str">
         <f>CONCATENATE(D106,E106,F106)</f>
-        <v>B16c</v>
+        <v>B16b</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M106" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N106" s="34"/>
       <c r="O106" s="34"/>
       <c r="P106" s="34"/>
       <c r="Q106" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="R106" s="31">
-        <v>203</v>
+        <v>587</v>
+      </c>
+      <c r="R106" s="28" t="s">
+        <v>1036</v>
       </c>
       <c r="S106" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="T106" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U106" s="2"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>101</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>718</v>
+        <v>100</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>717</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="E107" s="74">
-        <v>17</v>
-      </c>
-      <c r="F107" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>1139</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="45" t="str">
         <f t="shared" si="7"/>
-        <v>cB17</v>
+        <v>cB16c</v>
       </c>
       <c r="I107" s="45" t="str">
         <f>CONCATENATE(D107,E107,F107)</f>
-        <v>B17</v>
+        <v>B16c</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="28" t="s">
-        <v>440</v>
+        <v>978</v>
       </c>
       <c r="M107" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N107" s="34"/>
       <c r="O107" s="34"/>
       <c r="P107" s="34"/>
       <c r="Q107" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="R107" s="28" t="s">
-        <v>1035</v>
+        <v>588</v>
+      </c>
+      <c r="R107" s="31">
+        <v>203</v>
       </c>
       <c r="S107" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="T107" s="16" t="s">
-        <v>718</v>
+        <v>907</v>
+      </c>
+      <c r="T107" s="9" t="s">
+        <v>717</v>
       </c>
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="E108" s="74" t="s">
-        <v>1158</v>
+      <c r="E108" s="74">
+        <v>17</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="45" t="str">
         <f t="shared" si="7"/>
-        <v>cBxx</v>
+        <v>cB17</v>
       </c>
       <c r="I108" s="45" t="str">
         <f>CONCATENATE(D108,E108,F108)</f>
-        <v>Bxx</v>
+        <v>B17</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="28" t="s">
-        <v>979</v>
+        <v>440</v>
       </c>
       <c r="M108" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N108" s="34"/>
       <c r="O108" s="34"/>
       <c r="P108" s="34"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28"/>
+      <c r="Q108" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="R108" s="28" t="s">
+        <v>1035</v>
+      </c>
       <c r="S108" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T108" s="16" t="s">
-        <v>909</v>
+        <v>718</v>
       </c>
       <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>103</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>719</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E109" s="74" t="s">
         <v>1158</v>
@@ -9511,137 +9505,134 @@
       <c r="G109" s="1"/>
       <c r="H109" s="45" t="str">
         <f t="shared" si="7"/>
-        <v>cDxx</v>
-      </c>
-      <c r="I109" s="45" t="s">
-        <v>956</v>
+        <v>cBxx</v>
+      </c>
+      <c r="I109" s="45" t="str">
+        <f>CONCATENATE(D109,E109,F109)</f>
+        <v>Bxx</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="28" t="s">
-        <v>441</v>
+        <v>979</v>
       </c>
       <c r="M109" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N109" s="34"/>
       <c r="O109" s="34"/>
       <c r="P109" s="34"/>
-      <c r="Q109" s="28" t="s">
-        <v>591</v>
-      </c>
-      <c r="R109" s="32" t="s">
-        <v>590</v>
-      </c>
+      <c r="Q109" s="28"/>
+      <c r="R109" s="28"/>
       <c r="S109" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T109" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="U109" s="2"/>
+    </row>
+    <row r="110" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>103</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="U109" s="2"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>104</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E110" s="74" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="45" t="str">
         <f t="shared" si="7"/>
-        <v>cD01</v>
-      </c>
-      <c r="I110" s="45" t="str">
-        <f>CONCATENATE(D110,E110,F110)</f>
-        <v>D01</v>
+        <v>cDxx</v>
+      </c>
+      <c r="I110" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="28" t="s">
-        <v>980</v>
+        <v>441</v>
       </c>
       <c r="M110" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N110" s="34"/>
       <c r="O110" s="34"/>
       <c r="P110" s="34"/>
       <c r="Q110" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="R110" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
+      </c>
+      <c r="R110" s="32" t="s">
+        <v>590</v>
       </c>
       <c r="S110" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T110" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E111" s="74" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="45" t="s">
-        <v>956</v>
+      <c r="H111" s="45" t="str">
+        <f t="shared" si="7"/>
+        <v>cD01</v>
       </c>
       <c r="I111" s="45" t="str">
         <f>CONCATENATE(D111,E111,F111)</f>
-        <v>D02</v>
+        <v>D01</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="28" t="s">
-        <v>1136</v>
+        <v>980</v>
       </c>
       <c r="M111" s="34" t="s">
-        <v>1137</v>
+        <v>793</v>
       </c>
       <c r="N111" s="34"/>
       <c r="O111" s="34"/>
       <c r="P111" s="34"/>
       <c r="Q111" s="28" t="s">
-        <v>687</v>
+        <v>593</v>
       </c>
       <c r="R111" s="40" t="s">
-        <v>688</v>
+        <v>592</v>
       </c>
       <c r="S111" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T111" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U111" s="2"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>106</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>720</v>
+        <v>105</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>1156</v>
@@ -9649,48 +9640,46 @@
       <c r="E112" s="74" t="s">
         <v>1160</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="45" t="s">
         <v>956</v>
       </c>
-      <c r="G112" s="1"/>
-      <c r="H112" s="45" t="str">
-        <f>CONCATENATE("c",D112,E112,F112)</f>
-        <v xml:space="preserve">cD02 </v>
-      </c>
-      <c r="I112" s="45" t="s">
-        <v>956</v>
+      <c r="I112" s="45" t="str">
+        <f>CONCATENATE(D112,E112,F112)</f>
+        <v>D02</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="28" t="s">
-        <v>794</v>
+        <v>1136</v>
       </c>
       <c r="M112" s="34" t="s">
-        <v>794</v>
+        <v>1137</v>
       </c>
       <c r="N112" s="34"/>
       <c r="O112" s="34"/>
       <c r="P112" s="34"/>
       <c r="Q112" s="28" t="s">
-        <v>594</v>
-      </c>
-      <c r="R112" s="31">
-        <v>2824</v>
+        <v>687</v>
+      </c>
+      <c r="R112" s="40" t="s">
+        <v>688</v>
       </c>
       <c r="S112" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="T112" s="9" t="s">
-        <v>720</v>
+        <v>239</v>
+      </c>
+      <c r="T112" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>1156</v>
@@ -9712,34 +9701,34 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="28" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M113" s="34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N113" s="34"/>
       <c r="O113" s="34"/>
       <c r="P113" s="34"/>
       <c r="Q113" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R113" s="31">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="S113" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T113" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>1156</v>
@@ -9761,34 +9750,34 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="28" t="s">
-        <v>981</v>
+        <v>795</v>
       </c>
       <c r="M114" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N114" s="34"/>
       <c r="O114" s="34"/>
       <c r="P114" s="34"/>
       <c r="Q114" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="R114" s="28" t="s">
-        <v>1110</v>
+        <v>595</v>
+      </c>
+      <c r="R114" s="31">
+        <v>2826</v>
       </c>
       <c r="S114" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T114" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="U114" s="2"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>108</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>722</v>
-      </c>
-      <c r="U114" s="2"/>
-    </row>
-    <row r="115" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>109</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>723</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>1156</v>
@@ -9810,85 +9799,89 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="28" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M115" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N115" s="34"/>
       <c r="O115" s="34"/>
       <c r="P115" s="34"/>
       <c r="Q115" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="R115" s="40" t="s">
-        <v>1111</v>
+        <v>596</v>
+      </c>
+      <c r="R115" s="28" t="s">
+        <v>1110</v>
       </c>
       <c r="S115" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T115" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="U115" s="2"/>
+    </row>
+    <row r="116" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>109</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="U115" s="2"/>
-    </row>
-    <row r="116" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>110</v>
-      </c>
-      <c r="B116" s="70" t="s">
-        <v>724</v>
-      </c>
       <c r="D116" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E116" s="74" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E116" s="74" t="s">
+      <c r="G116" s="1"/>
+      <c r="H116" s="45" t="str">
+        <f>CONCATENATE("c",D116,E116,F116)</f>
+        <v xml:space="preserve">cD02 </v>
+      </c>
+      <c r="I116" s="45" t="s">
         <v>956</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="45" t="s">
-        <v>956</v>
-      </c>
-      <c r="I116" s="45" t="str">
-        <f>CONCATENATE(D116,E116,F116)</f>
-        <v xml:space="preserve">  </v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="28" t="s">
-        <v>983</v>
-      </c>
-      <c r="M116" s="33" t="s">
-        <v>798</v>
-      </c>
-      <c r="N116" s="33"/>
-      <c r="O116" s="33"/>
-      <c r="P116" s="33"/>
+        <v>982</v>
+      </c>
+      <c r="M116" s="34" t="s">
+        <v>797</v>
+      </c>
+      <c r="N116" s="34"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="34"/>
       <c r="Q116" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="R116" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="S116" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="T116" s="16" t="s">
-        <v>68</v>
+        <v>597</v>
+      </c>
+      <c r="R116" s="40" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S116" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="T116" s="9" t="s">
+        <v>723</v>
       </c>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="69" t="s">
-        <v>1142</v>
+    <row r="117" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>110</v>
+      </c>
+      <c r="B117" s="70" t="s">
+        <v>724</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1156</v>
+        <v>956</v>
       </c>
       <c r="E117" s="74" t="s">
-        <v>1161</v>
+        <v>956</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -9897,38 +9890,52 @@
       </c>
       <c r="I117" s="45" t="str">
         <f>CONCATENATE(D117,E117,F117)</f>
-        <v>D03</v>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="33"/>
+      <c r="L117" s="28" t="s">
+        <v>983</v>
+      </c>
+      <c r="M117" s="33" t="s">
+        <v>798</v>
+      </c>
       <c r="N117" s="33"/>
       <c r="O117" s="33"/>
       <c r="P117" s="33"/>
-      <c r="Q117" s="28"/>
-      <c r="R117" s="28"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="16"/>
+      <c r="Q117" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="R117" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="T117" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="U117" s="2"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="69" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E118" s="74" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="45"/>
+      <c r="H118" s="45" t="s">
+        <v>956</v>
+      </c>
       <c r="I118" s="45" t="str">
         <f>CONCATENATE(D118,E118,F118)</f>
-        <v>D04</v>
+        <v>D03</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -9945,15 +9952,22 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="B119" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="74"/>
+      <c r="B119" s="69" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E119" s="74" t="s">
+        <v>1162</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
+      <c r="I119" s="45" t="str">
+        <f>CONCATENATE(D119,E119,F119)</f>
+        <v>D04</v>
+      </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="28"/>
@@ -9968,90 +9982,71 @@
       <c r="U119" s="2"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>111</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>725</v>
+      <c r="A120" s="2"/>
+      <c r="B120" s="4" t="s">
+        <v>1140</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="74"/>
-      <c r="F120" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="45"/>
       <c r="I120" s="45"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="28" t="s">
-        <v>984</v>
-      </c>
-      <c r="M120" s="34" t="s">
-        <v>799</v>
-      </c>
-      <c r="N120" s="34"/>
-      <c r="O120" s="34"/>
-      <c r="P120" s="34"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="33"/>
+      <c r="O120" s="33"/>
+      <c r="P120" s="33"/>
       <c r="Q120" s="28"/>
       <c r="R120" s="28"/>
-      <c r="S120" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="T120" s="16" t="s">
-        <v>244</v>
-      </c>
+      <c r="S120" s="2"/>
+      <c r="T120" s="16"/>
       <c r="U120" s="2"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>112</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E121" s="74" t="s">
-        <v>1161</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="74"/>
       <c r="F121" s="1" t="s">
         <v>956</v>
       </c>
       <c r="G121" s="1"/>
-      <c r="H121" s="45" t="str">
-        <f>CONCATENATE("c",D121,E121,F121)</f>
-        <v xml:space="preserve">cD03 </v>
-      </c>
+      <c r="H121" s="45"/>
       <c r="I121" s="45"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="28" t="s">
-        <v>985</v>
-      </c>
-      <c r="M121" s="35" t="s">
-        <v>800</v>
-      </c>
-      <c r="N121" s="35"/>
-      <c r="O121" s="35"/>
-      <c r="P121" s="35"/>
+        <v>984</v>
+      </c>
+      <c r="M121" s="34" t="s">
+        <v>799</v>
+      </c>
+      <c r="N121" s="34"/>
+      <c r="O121" s="34"/>
+      <c r="P121" s="34"/>
       <c r="Q121" s="28"/>
       <c r="R121" s="28"/>
       <c r="S121" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T121" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U121" s="2"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1156</v>
@@ -10071,30 +10066,30 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="28" t="s">
-        <v>986</v>
-      </c>
-      <c r="M122" s="33" t="s">
-        <v>801</v>
-      </c>
-      <c r="N122" s="33"/>
-      <c r="O122" s="33"/>
-      <c r="P122" s="33"/>
+        <v>985</v>
+      </c>
+      <c r="M122" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="N122" s="35"/>
+      <c r="O122" s="35"/>
+      <c r="P122" s="35"/>
       <c r="Q122" s="28"/>
       <c r="R122" s="28"/>
       <c r="S122" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T122" s="16" t="s">
-        <v>911</v>
+        <v>245</v>
       </c>
       <c r="U122" s="2"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>114</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>728</v>
+        <v>113</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>727</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1156</v>
@@ -10114,30 +10109,30 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="M123" s="34" t="s">
-        <v>802</v>
-      </c>
-      <c r="N123" s="34"/>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
+        <v>986</v>
+      </c>
+      <c r="M123" s="33" t="s">
+        <v>801</v>
+      </c>
+      <c r="N123" s="33"/>
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
       <c r="Q123" s="28"/>
       <c r="R123" s="28"/>
-      <c r="S123" s="9" t="s">
-        <v>912</v>
-      </c>
-      <c r="T123" s="17" t="s">
-        <v>728</v>
+      <c r="S123" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T123" s="16" t="s">
+        <v>911</v>
       </c>
       <c r="U123" s="2"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>69</v>
+        <v>728</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1156</v>
@@ -10157,172 +10152,165 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M124" s="34" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
       <c r="N124" s="34"/>
       <c r="O124" s="34"/>
       <c r="P124" s="34"/>
-      <c r="Q124" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="R124" s="31">
-        <v>295</v>
-      </c>
+      <c r="Q124" s="28"/>
+      <c r="R124" s="28"/>
       <c r="S124" s="9" t="s">
-        <v>247</v>
+        <v>912</v>
       </c>
       <c r="T124" s="17" t="s">
-        <v>69</v>
+        <v>728</v>
       </c>
       <c r="U124" s="2"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E125" s="74" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1131</v>
+        <v>956</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="45" t="str">
         <f>CONCATENATE("c",D125,E125,F125)</f>
-        <v>cD04a</v>
-      </c>
-      <c r="I125" s="45" t="str">
-        <f>CONCATENATE(D125,E125,F125)</f>
-        <v>D04a</v>
-      </c>
+        <v xml:space="preserve">cD03 </v>
+      </c>
+      <c r="I125" s="45"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M125" s="34" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="N125" s="34"/>
       <c r="O125" s="34"/>
       <c r="P125" s="34"/>
       <c r="Q125" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="R125" s="28" t="s">
-        <v>1101</v>
+        <v>600</v>
+      </c>
+      <c r="R125" s="31">
+        <v>295</v>
       </c>
       <c r="S125" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U125" s="2"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="D126" s="66" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E126" s="74" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>1131</v>
+      </c>
       <c r="G126" s="1"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="45"/>
+      <c r="H126" s="45" t="str">
+        <f>CONCATENATE("c",D126,E126,F126)</f>
+        <v>cD04a</v>
+      </c>
+      <c r="I126" s="45" t="str">
+        <f>CONCATENATE(D126,E126,F126)</f>
+        <v>D04a</v>
+      </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="28" t="s">
-        <v>987</v>
+        <v>444</v>
       </c>
       <c r="M126" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N126" s="34"/>
       <c r="O126" s="34"/>
       <c r="P126" s="34"/>
       <c r="Q126" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R126" s="28" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="S126" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T126" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U126" s="2"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>118</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E127" s="74" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>1132</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="45" t="str">
-        <f t="shared" ref="H127:H134" si="8">CONCATENATE("c",D127,E127,F127)</f>
-        <v>cD04b</v>
-      </c>
-      <c r="I127" s="45" t="str">
-        <f>CONCATENATE(D127,E127,F127)</f>
-        <v>D04b</v>
-      </c>
+      <c r="H127" s="45"/>
+      <c r="I127" s="45"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="28" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M127" s="34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N127" s="34"/>
       <c r="O127" s="34"/>
       <c r="P127" s="34"/>
       <c r="Q127" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R127" s="28" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="S127" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="T127" s="9" t="s">
-        <v>671</v>
+        <v>249</v>
+      </c>
+      <c r="T127" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="U127" s="2"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>1156</v>
@@ -10330,49 +10318,49 @@
       <c r="E128" s="74" t="s">
         <v>1162</v>
       </c>
-      <c r="F128" s="67" t="s">
-        <v>1139</v>
+      <c r="F128" s="1" t="s">
+        <v>1132</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="45" t="str">
-        <f t="shared" si="8"/>
-        <v>cD04c</v>
+        <f t="shared" ref="H128:H135" si="8">CONCATENATE("c",D128,E128,F128)</f>
+        <v>cD04b</v>
       </c>
       <c r="I128" s="45" t="str">
         <f>CONCATENATE(D128,E128,F128)</f>
-        <v>D04c</v>
+        <v>D04b</v>
       </c>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="28" t="s">
-        <v>806</v>
+        <v>988</v>
       </c>
       <c r="M128" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N128" s="34"/>
       <c r="O128" s="34"/>
       <c r="P128" s="34"/>
       <c r="Q128" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R128" s="28" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="S128" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T128" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="U128" s="2"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>1156</v>
@@ -10381,48 +10369,48 @@
         <v>1162</v>
       </c>
       <c r="F129" s="67" t="s">
-        <v>1169</v>
+        <v>1139</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="45" t="str">
         <f t="shared" si="8"/>
-        <v>cD04d</v>
+        <v>cD04c</v>
       </c>
       <c r="I129" s="45" t="str">
         <f>CONCATENATE(D129,E129,F129)</f>
-        <v>D04d</v>
+        <v>D04c</v>
       </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M129" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N129" s="34"/>
       <c r="O129" s="34"/>
       <c r="P129" s="34"/>
       <c r="Q129" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R129" s="28" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T129" s="9" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
       <c r="U129" s="2"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>1156</v>
@@ -10430,42 +10418,49 @@
       <c r="E130" s="74" t="s">
         <v>1162</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>956</v>
+      <c r="F130" s="67" t="s">
+        <v>1169</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="45" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">cD04 </v>
-      </c>
-      <c r="I130" s="45"/>
+        <v>cD04d</v>
+      </c>
+      <c r="I130" s="45" t="str">
+        <f>CONCATENATE(D130,E130,F130)</f>
+        <v>D04d</v>
+      </c>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="28" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M130" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N130" s="34"/>
       <c r="O130" s="34"/>
       <c r="P130" s="34"/>
-      <c r="Q130" s="28"/>
-      <c r="R130" s="28"/>
+      <c r="Q130" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="R130" s="28" t="s">
+        <v>1102</v>
+      </c>
       <c r="S130" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T130" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U130" s="2"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>1156</v>
@@ -10485,40 +10480,36 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="28" t="s">
-        <v>989</v>
+        <v>808</v>
       </c>
       <c r="M131" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N131" s="34"/>
       <c r="O131" s="34"/>
       <c r="P131" s="34"/>
-      <c r="Q131" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="R131" s="28" t="s">
-        <v>1105</v>
-      </c>
+      <c r="Q131" s="28"/>
+      <c r="R131" s="28"/>
       <c r="S131" s="9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="T131" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U131" s="2"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>123</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>72</v>
+        <v>122</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>731</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E132" s="74" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>956</v>
@@ -10526,36 +10517,40 @@
       <c r="G132" s="1"/>
       <c r="H132" s="45" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">cD03 </v>
+        <v xml:space="preserve">cD04 </v>
       </c>
       <c r="I132" s="45"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="28" t="s">
-        <v>445</v>
+        <v>989</v>
       </c>
       <c r="M132" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N132" s="34"/>
       <c r="O132" s="34"/>
       <c r="P132" s="34"/>
-      <c r="Q132" s="28"/>
-      <c r="R132" s="28"/>
+      <c r="Q132" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="R132" s="28" t="s">
+        <v>1105</v>
+      </c>
       <c r="S132" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="T132" s="17" t="s">
-        <v>72</v>
+        <v>917</v>
+      </c>
+      <c r="T132" s="9" t="s">
+        <v>731</v>
       </c>
       <c r="U132" s="2"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>1156</v>
@@ -10575,34 +10570,30 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M133" s="34" t="s">
-        <v>446</v>
+        <v>810</v>
       </c>
       <c r="N133" s="34"/>
       <c r="O133" s="34"/>
       <c r="P133" s="34"/>
-      <c r="Q133" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="R133" s="28" t="s">
-        <v>1056</v>
-      </c>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="28"/>
       <c r="S133" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T133" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U133" s="2"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>732</v>
+        <v>73</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>1156</v>
@@ -10622,44 +10613,57 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="28" t="s">
-        <v>811</v>
+        <v>446</v>
       </c>
       <c r="M134" s="34" t="s">
-        <v>811</v>
+        <v>446</v>
       </c>
       <c r="N134" s="34"/>
       <c r="O134" s="34"/>
       <c r="P134" s="34"/>
-      <c r="Q134" s="28"/>
-      <c r="R134" s="28"/>
+      <c r="Q134" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="R134" s="28" t="s">
+        <v>1056</v>
+      </c>
       <c r="S134" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="T134" s="9" t="s">
-        <v>922</v>
+        <v>251</v>
+      </c>
+      <c r="T134" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="U134" s="2"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="1"/>
+        <v>732</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E135" s="74" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>956</v>
+      </c>
       <c r="G135" s="1"/>
-      <c r="H135" s="45"/>
+      <c r="H135" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">cD03 </v>
+      </c>
       <c r="I135" s="45"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="28" t="s">
-        <v>990</v>
+        <v>811</v>
       </c>
       <c r="M135" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N135" s="34"/>
       <c r="O135" s="34"/>
@@ -10667,42 +10671,33 @@
       <c r="Q135" s="28"/>
       <c r="R135" s="28"/>
       <c r="S135" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="T135" s="9" t="s">
-        <v>74</v>
+        <v>922</v>
       </c>
       <c r="U135" s="2"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>127</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E136" s="74" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>956</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="45" t="str">
-        <f>CONCATENATE("c",D136,E136,F136)</f>
-        <v xml:space="preserve">cD03 </v>
-      </c>
+      <c r="H136" s="45"/>
       <c r="I136" s="45"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="28" t="s">
-        <v>813</v>
+        <v>990</v>
       </c>
       <c r="M136" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N136" s="34"/>
       <c r="O136" s="34"/>
@@ -10710,19 +10705,19 @@
       <c r="Q136" s="28"/>
       <c r="R136" s="28"/>
       <c r="S136" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="T136" s="9" t="s">
-        <v>733</v>
+        <v>74</v>
       </c>
       <c r="U136" s="2"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>1156</v>
@@ -10742,10 +10737,10 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="28" t="s">
-        <v>991</v>
+        <v>813</v>
       </c>
       <c r="M137" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N137" s="34"/>
       <c r="O137" s="34"/>
@@ -10753,19 +10748,19 @@
       <c r="Q137" s="28"/>
       <c r="R137" s="28"/>
       <c r="S137" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="T137" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U137" s="2"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>129</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>734</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1156</v>
@@ -10785,10 +10780,10 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="28" t="s">
-        <v>447</v>
+        <v>991</v>
       </c>
       <c r="M138" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N138" s="34"/>
       <c r="O138" s="34"/>
@@ -10796,19 +10791,19 @@
       <c r="Q138" s="28"/>
       <c r="R138" s="28"/>
       <c r="S138" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="T138" s="17" t="s">
-        <v>75</v>
+        <v>921</v>
+      </c>
+      <c r="T138" s="9" t="s">
+        <v>734</v>
       </c>
       <c r="U138" s="2"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>130</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>1156</v>
@@ -10824,16 +10819,14 @@
         <f>CONCATENATE("c",D139,E139,F139)</f>
         <v xml:space="preserve">cD03 </v>
       </c>
-      <c r="I139" s="45" t="s">
-        <v>956</v>
-      </c>
+      <c r="I139" s="45"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="28" t="s">
-        <v>992</v>
+        <v>447</v>
       </c>
       <c r="M139" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N139" s="34"/>
       <c r="O139" s="34"/>
@@ -10841,111 +10834,108 @@
       <c r="Q139" s="28"/>
       <c r="R139" s="28"/>
       <c r="S139" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="T139" s="16" t="s">
-        <v>76</v>
+        <v>252</v>
+      </c>
+      <c r="T139" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="U139" s="2"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>131</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E140" s="74" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E140" s="74" t="s">
+      <c r="G140" s="1"/>
+      <c r="H140" s="45" t="str">
+        <f>CONCATENATE("c",D140,E140,F140)</f>
+        <v xml:space="preserve">cD03 </v>
+      </c>
+      <c r="I140" s="45" t="s">
         <v>956</v>
       </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="M140" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="N140" s="33"/>
-      <c r="O140" s="33"/>
-      <c r="P140" s="33"/>
-      <c r="Q140" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="R140" s="28" t="s">
-        <v>686</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>254</v>
+        <v>992</v>
+      </c>
+      <c r="M140" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="N140" s="34"/>
+      <c r="O140" s="34"/>
+      <c r="P140" s="34"/>
+      <c r="Q140" s="28"/>
+      <c r="R140" s="28"/>
+      <c r="S140" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="T140" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U140" s="2" t="s">
-        <v>608</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="U140" s="2"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>132</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>735</v>
+        <v>131</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1156</v>
+        <v>956</v>
       </c>
       <c r="E141" s="74" t="s">
-        <v>1162</v>
+        <v>956</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="45" t="str">
-        <f t="shared" ref="H141:H147" si="9">CONCATENATE("c",D141,E141,F141)</f>
-        <v>cD04</v>
-      </c>
-      <c r="I141" s="45" t="str">
-        <f>CONCATENATE(D141,E141,F141)</f>
-        <v>D04</v>
-      </c>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="M141" s="34" t="s">
-        <v>818</v>
-      </c>
-      <c r="N141" s="34"/>
-      <c r="O141" s="34"/>
-      <c r="P141" s="34"/>
+        <v>448</v>
+      </c>
+      <c r="M141" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
+      <c r="P141" s="33"/>
       <c r="Q141" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R141" s="28" t="s">
-        <v>1100</v>
-      </c>
-      <c r="S141" s="9" t="s">
-        <v>255</v>
+        <v>686</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="T141" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="U141" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>133</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>1156</v>
@@ -10956,193 +10946,200 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H142:H148" si="9">CONCATENATE("c",D142,E142,F142)</f>
         <v>cD05</v>
       </c>
-      <c r="I142" s="45"/>
+      <c r="I142" s="45" t="str">
+        <f>CONCATENATE(D142,E142,F142)</f>
+        <v>D05</v>
+      </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M142" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N142" s="34"/>
       <c r="O142" s="34"/>
       <c r="P142" s="34"/>
       <c r="Q142" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="R142" s="31">
-        <v>332</v>
+        <v>610</v>
+      </c>
+      <c r="R142" s="28" t="s">
+        <v>1100</v>
       </c>
       <c r="S142" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="T142" s="17" t="s">
-        <v>79</v>
+        <v>255</v>
+      </c>
+      <c r="T142" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="U142" s="2"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E143" s="74" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="45" t="str">
         <f t="shared" si="9"/>
-        <v>cD05</v>
+        <v>cD06</v>
       </c>
       <c r="I143" s="45"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M143" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N143" s="34"/>
       <c r="O143" s="34"/>
       <c r="P143" s="34"/>
       <c r="Q143" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R143" s="31">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="S143" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T143" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U143" s="2"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E144" s="74" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="45" t="str">
         <f t="shared" si="9"/>
-        <v>cD05</v>
+        <v>cD06</v>
       </c>
       <c r="I144" s="45"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M144" s="34" t="s">
-        <v>452</v>
+        <v>820</v>
       </c>
       <c r="N144" s="34"/>
       <c r="O144" s="34"/>
       <c r="P144" s="34"/>
       <c r="Q144" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R144" s="31">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="S144" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T144" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U144" s="2"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E145" s="74" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="45" t="str">
         <f t="shared" si="9"/>
-        <v>cD05</v>
+        <v>cD06</v>
       </c>
       <c r="I145" s="45"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M145" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N145" s="34"/>
       <c r="O145" s="34"/>
       <c r="P145" s="34"/>
-      <c r="Q145" s="28"/>
-      <c r="R145" s="28"/>
+      <c r="Q145" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="R145" s="31">
+        <v>340</v>
+      </c>
       <c r="S145" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T145" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U145" s="2"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E146" s="74" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="45" t="str">
         <f t="shared" si="9"/>
-        <v>cD05</v>
+        <v>cD06</v>
       </c>
       <c r="I146" s="45"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M146" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N146" s="34"/>
       <c r="O146" s="34"/>
@@ -11150,148 +11147,148 @@
       <c r="Q146" s="28"/>
       <c r="R146" s="28"/>
       <c r="S146" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T146" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U146" s="2"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E147" s="74" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="45" t="str">
         <f t="shared" si="9"/>
-        <v>cD05</v>
-      </c>
-      <c r="I147" s="45" t="str">
-        <f>CONCATENATE(D147,E147,F147)</f>
-        <v>D05</v>
-      </c>
+        <v>cD06</v>
+      </c>
+      <c r="I147" s="45"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M147" s="34" t="s">
-        <v>821</v>
+        <v>454</v>
       </c>
       <c r="N147" s="34"/>
       <c r="O147" s="34"/>
       <c r="P147" s="34"/>
-      <c r="Q147" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="R147" s="28" t="s">
-        <v>1108</v>
-      </c>
+      <c r="Q147" s="28"/>
+      <c r="R147" s="28"/>
       <c r="S147" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T147" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U147" s="2"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>139</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>85</v>
+        <v>138</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>956</v>
+        <v>1156</v>
       </c>
       <c r="E148" s="74" t="s">
-        <v>956</v>
+        <v>1164</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
+      <c r="H148" s="45" t="str">
+        <f t="shared" si="9"/>
+        <v>cD06</v>
+      </c>
+      <c r="I148" s="45" t="str">
+        <f>CONCATENATE(D148,E148,F148)</f>
+        <v>D06</v>
+      </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="M148" s="33" t="s">
-        <v>822</v>
-      </c>
-      <c r="N148" s="33"/>
-      <c r="O148" s="33"/>
-      <c r="P148" s="33"/>
-      <c r="Q148" s="28"/>
-      <c r="R148" s="40"/>
-      <c r="S148" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="T148" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U148" s="2" t="s">
-        <v>615</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M148" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="N148" s="34"/>
+      <c r="O148" s="34"/>
+      <c r="P148" s="34"/>
+      <c r="Q148" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="R148" s="28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S148" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="T148" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U148" s="2"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>140</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1156</v>
+        <v>956</v>
       </c>
       <c r="E149" s="74" t="s">
-        <v>1158</v>
+        <v>956</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="45" t="str">
-        <f t="shared" ref="H149:H155" si="10">CONCATENATE("c",D149,E149,F149)</f>
-        <v>cDxx</v>
-      </c>
+      <c r="H149" s="45"/>
       <c r="I149" s="45"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="M149" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="N149" s="34"/>
-      <c r="O149" s="34"/>
-      <c r="P149" s="34"/>
+        <v>456</v>
+      </c>
+      <c r="M149" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="N149" s="33"/>
+      <c r="O149" s="33"/>
+      <c r="P149" s="33"/>
       <c r="Q149" s="28"/>
-      <c r="R149" s="28"/>
-      <c r="S149" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="T149" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="U149" s="2"/>
+      <c r="R149" s="40"/>
+      <c r="S149" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T149" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>1156</v>
@@ -11302,17 +11299,17 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H150:H156" si="10">CONCATENATE("c",D150,E150,F150)</f>
         <v>cDxx</v>
       </c>
       <c r="I150" s="45"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M150" s="34" t="s">
-        <v>823</v>
+        <v>457</v>
       </c>
       <c r="N150" s="34"/>
       <c r="O150" s="34"/>
@@ -11320,19 +11317,19 @@
       <c r="Q150" s="28"/>
       <c r="R150" s="28"/>
       <c r="S150" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T150" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U150" s="2"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>736</v>
+        <v>87</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>1156</v>
@@ -11350,10 +11347,10 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M151" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N151" s="34"/>
       <c r="O151" s="34"/>
@@ -11361,19 +11358,19 @@
       <c r="Q151" s="28"/>
       <c r="R151" s="28"/>
       <c r="S151" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T151" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U151" s="2"/>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>89</v>
+        <v>736</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>1156</v>
@@ -11391,10 +11388,10 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M152" s="34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N152" s="34"/>
       <c r="O152" s="34"/>
@@ -11402,19 +11399,19 @@
       <c r="Q152" s="28"/>
       <c r="R152" s="28"/>
       <c r="S152" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T152" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U152" s="2"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>1156</v>
@@ -11432,10 +11429,10 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M153" s="34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N153" s="34"/>
       <c r="O153" s="34"/>
@@ -11443,19 +11440,19 @@
       <c r="Q153" s="28"/>
       <c r="R153" s="28"/>
       <c r="S153" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T153" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U153" s="2"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>1156</v>
@@ -11473,10 +11470,10 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M154" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N154" s="34"/>
       <c r="O154" s="34"/>
@@ -11484,19 +11481,19 @@
       <c r="Q154" s="28"/>
       <c r="R154" s="28"/>
       <c r="S154" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T154" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U154" s="2"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>1156</v>
@@ -11514,10 +11511,10 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M155" s="34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="N155" s="34"/>
       <c r="O155" s="34"/>
@@ -11525,488 +11522,482 @@
       <c r="Q155" s="28"/>
       <c r="R155" s="28"/>
       <c r="S155" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T155" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U155" s="2"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>146</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="U155" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>147</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D156" s="72" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E156" s="74"/>
+      <c r="D156" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E156" s="74" t="s">
+        <v>1158</v>
+      </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="45"/>
-      <c r="I156" s="45" t="str">
-        <f>CONCATENATE(D156,E156,F156)</f>
-        <v>C</v>
-      </c>
+      <c r="H156" s="45" t="str">
+        <f t="shared" si="10"/>
+        <v>cDxx</v>
+      </c>
+      <c r="I156" s="45"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="M156" s="33" t="s">
-        <v>829</v>
-      </c>
-      <c r="N156" s="33"/>
-      <c r="O156" s="33"/>
-      <c r="P156" s="33"/>
-      <c r="Q156" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="R156" s="28" t="s">
-        <v>684</v>
-      </c>
-      <c r="S156" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T156" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="M156" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="N156" s="34"/>
+      <c r="O156" s="34"/>
+      <c r="P156" s="34"/>
+      <c r="Q156" s="28"/>
+      <c r="R156" s="28"/>
+      <c r="S156" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="T156" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="U156" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>147</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U156" s="2"/>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>148</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="72" t="s">
         <v>1155</v>
       </c>
-      <c r="E157" s="74" t="s">
-        <v>1158</v>
-      </c>
+      <c r="E157" s="74"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="45" t="str">
-        <f t="shared" ref="H157:H162" si="11">CONCATENATE("c",D157,E157,F157)</f>
-        <v>cCxx</v>
-      </c>
-      <c r="I157" s="45"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="45" t="str">
+        <f>CONCATENATE(D157,E157,F157)</f>
+        <v>C</v>
+      </c>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="M157" s="34" t="s">
-        <v>830</v>
-      </c>
-      <c r="N157" s="34"/>
-      <c r="O157" s="34"/>
-      <c r="P157" s="34"/>
+        <v>464</v>
+      </c>
+      <c r="M157" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
       <c r="Q157" s="28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R157" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="S157" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="T157" s="17" t="s">
-        <v>94</v>
+        <v>684</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T157" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="U157" s="2"/>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="E158" s="74" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="45" t="str">
-        <f t="shared" si="11"/>
-        <v>cC01</v>
-      </c>
-      <c r="I158" s="45" t="str">
-        <f>CONCATENATE(D158,E158,F158)</f>
-        <v>C01</v>
-      </c>
+        <f t="shared" ref="H158:H163" si="11">CONCATENATE("c",D158,E158,F158)</f>
+        <v>cCxx</v>
+      </c>
+      <c r="I158" s="45"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M158" s="34" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N158" s="34"/>
       <c r="O158" s="34"/>
       <c r="P158" s="34"/>
       <c r="Q158" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="R158" s="31">
-        <v>402</v>
+        <v>618</v>
+      </c>
+      <c r="R158" s="28" t="s">
+        <v>1057</v>
       </c>
       <c r="S158" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T158" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U158" s="2"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="E159" s="74" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="45" t="str">
         <f t="shared" si="11"/>
-        <v>cC02</v>
+        <v>cC01</v>
       </c>
       <c r="I159" s="45" t="str">
         <f>CONCATENATE(D159,E159,F159)</f>
-        <v>C02</v>
+        <v>C01</v>
       </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M159" s="34" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N159" s="34"/>
       <c r="O159" s="34"/>
       <c r="P159" s="34"/>
       <c r="Q159" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="R159" s="28" t="s">
-        <v>1034</v>
+        <v>619</v>
+      </c>
+      <c r="R159" s="31">
+        <v>402</v>
       </c>
       <c r="S159" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T159" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U159" s="2"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="E160" s="74" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="45" t="str">
         <f t="shared" si="11"/>
-        <v>cC03</v>
+        <v>cC02</v>
       </c>
       <c r="I160" s="45" t="str">
         <f>CONCATENATE(D160,E160,F160)</f>
-        <v>C03</v>
+        <v>C02</v>
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M160" s="34" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N160" s="34"/>
       <c r="O160" s="34"/>
       <c r="P160" s="34"/>
       <c r="Q160" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R160" s="28" t="s">
-        <v>1061</v>
+        <v>1034</v>
       </c>
       <c r="S160" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T160" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U160" s="2"/>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="E161" s="74" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="45" t="str">
         <f t="shared" si="11"/>
-        <v>cC04</v>
+        <v>cC03</v>
       </c>
       <c r="I161" s="45" t="str">
         <f>CONCATENATE(D161,E161,F161)</f>
-        <v>C04</v>
+        <v>C03</v>
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M161" s="34" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="N161" s="34"/>
       <c r="O161" s="34"/>
       <c r="P161" s="34"/>
       <c r="Q161" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R161" s="28" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="S161" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T161" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U161" s="2"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>153</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>99</v>
+        <v>152</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="E162" s="74" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="45" t="str">
         <f t="shared" si="11"/>
-        <v>cCxx</v>
+        <v>cC04</v>
       </c>
       <c r="I162" s="45" t="str">
         <f>CONCATENATE(D162,E162,F162)</f>
-        <v>Cxx</v>
+        <v>C04</v>
       </c>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M162" s="34" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N162" s="34"/>
       <c r="O162" s="34"/>
       <c r="P162" s="34"/>
       <c r="Q162" s="28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R162" s="28" t="s">
-        <v>1107</v>
+        <v>1062</v>
       </c>
       <c r="S162" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="T162" s="15" t="s">
-        <v>99</v>
+        <v>275</v>
+      </c>
+      <c r="T162" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="U162" s="2"/>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>154</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>100</v>
+        <v>153</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>956</v>
+        <v>1155</v>
       </c>
       <c r="E163" s="74" t="s">
-        <v>956</v>
+        <v>1158</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="45"/>
-      <c r="I163" s="45"/>
+      <c r="H163" s="45" t="str">
+        <f t="shared" si="11"/>
+        <v>cCxx</v>
+      </c>
+      <c r="I163" s="45" t="str">
+        <f>CONCATENATE(D163,E163,F163)</f>
+        <v>Cxx</v>
+      </c>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="M163" s="33" t="s">
-        <v>836</v>
-      </c>
-      <c r="N163" s="33"/>
-      <c r="O163" s="33"/>
-      <c r="P163" s="33"/>
+        <v>470</v>
+      </c>
+      <c r="M163" s="34" t="s">
+        <v>835</v>
+      </c>
+      <c r="N163" s="34"/>
+      <c r="O163" s="34"/>
+      <c r="P163" s="34"/>
       <c r="Q163" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R163" s="28" t="s">
-        <v>683</v>
-      </c>
-      <c r="S163" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="T163" s="16" t="s">
-        <v>100</v>
+        <v>1107</v>
+      </c>
+      <c r="S163" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="T163" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="U163" s="2"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>155</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>101</v>
+        <v>154</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1156</v>
+        <v>956</v>
       </c>
       <c r="E164" s="74" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F164" s="1" t="s">
         <v>956</v>
       </c>
+      <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="45" t="str">
-        <f>CONCATENATE("c",D164,E164,F164)</f>
-        <v xml:space="preserve">cD06 </v>
-      </c>
-      <c r="I164" s="45" t="str">
-        <f>CONCATENATE(D164,E164,F164)</f>
-        <v xml:space="preserve">D06 </v>
-      </c>
+      <c r="H164" s="45"/>
+      <c r="I164" s="45"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="M164" s="34" t="s">
-        <v>837</v>
-      </c>
-      <c r="N164" s="34"/>
-      <c r="O164" s="34"/>
-      <c r="P164" s="34"/>
+        <v>471</v>
+      </c>
+      <c r="M164" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="N164" s="33"/>
+      <c r="O164" s="33"/>
+      <c r="P164" s="33"/>
       <c r="Q164" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R164" s="28" t="s">
-        <v>1033</v>
-      </c>
-      <c r="S164" s="9" t="s">
-        <v>278</v>
+        <v>683</v>
+      </c>
+      <c r="S164" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="T164" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U164" s="2"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E165" s="74" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F165" s="1"/>
+        <v>1164</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>956</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="45" t="str">
         <f>CONCATENATE("c",D165,E165,F165)</f>
-        <v>cD07</v>
-      </c>
-      <c r="I165" s="45" t="s">
-        <v>956</v>
+        <v xml:space="preserve">cD06 </v>
+      </c>
+      <c r="I165" s="45" t="str">
+        <f>CONCATENATE(D165,E165,F165)</f>
+        <v xml:space="preserve">D06 </v>
       </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M165" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N165" s="34"/>
       <c r="O165" s="34"/>
       <c r="P165" s="34"/>
       <c r="Q165" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="R165" s="31">
-        <v>493</v>
+        <v>625</v>
+      </c>
+      <c r="R165" s="28" t="s">
+        <v>1033</v>
       </c>
       <c r="S165" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T165" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U165" s="2"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1147</v>
+        <v>102</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>1156</v>
@@ -12020,88 +12011,88 @@
         <f>CONCATENATE("c",D166,E166,F166)</f>
         <v>cD07</v>
       </c>
-      <c r="I166" s="45" t="str">
-        <f>CONCATENATE(D166,E166,F166)</f>
-        <v>D07</v>
+      <c r="I166" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M166" s="34" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N166" s="34"/>
       <c r="O166" s="34"/>
       <c r="P166" s="34"/>
       <c r="Q166" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="R166" s="28" t="s">
-        <v>1060</v>
+        <v>626</v>
+      </c>
+      <c r="R166" s="31">
+        <v>493</v>
       </c>
       <c r="S166" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T166" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U166" s="2"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>158</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>104</v>
+        <v>157</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1147</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E167" s="74" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="45" t="s">
-        <v>956</v>
+      <c r="H167" s="45" t="str">
+        <f>CONCATENATE("c",D167,E167,F167)</f>
+        <v>cD07</v>
       </c>
       <c r="I167" s="45" t="str">
         <f>CONCATENATE(D167,E167,F167)</f>
-        <v>D08</v>
+        <v>D07</v>
       </c>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="M167" s="33" t="s">
-        <v>840</v>
-      </c>
-      <c r="N167" s="33"/>
-      <c r="O167" s="33"/>
-      <c r="P167" s="33"/>
+        <v>474</v>
+      </c>
+      <c r="M167" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="N167" s="34"/>
+      <c r="O167" s="34"/>
+      <c r="P167" s="34"/>
       <c r="Q167" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R167" s="28" t="s">
-        <v>685</v>
-      </c>
-      <c r="S167" s="2" t="s">
-        <v>281</v>
+        <v>1060</v>
+      </c>
+      <c r="S167" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="T167" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U167" s="2"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>159</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>105</v>
+        <v>158</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>1156</v>
@@ -12109,48 +12100,48 @@
       <c r="E168" s="74" t="s">
         <v>1166</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="45" t="s">
         <v>956</v>
       </c>
-      <c r="G168" s="1"/>
-      <c r="H168" s="45" t="str">
-        <f t="shared" ref="H168:H176" si="12">CONCATENATE("c",D168,E168,F168)</f>
-        <v xml:space="preserve">cD08 </v>
-      </c>
-      <c r="I168" s="45"/>
+      <c r="I168" s="45" t="str">
+        <f>CONCATENATE(D168,E168,F168)</f>
+        <v>D08</v>
+      </c>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="M168" s="34" t="s">
-        <v>841</v>
-      </c>
-      <c r="N168" s="34"/>
-      <c r="O168" s="34"/>
-      <c r="P168" s="34"/>
+        <v>475</v>
+      </c>
+      <c r="M168" s="33" t="s">
+        <v>840</v>
+      </c>
+      <c r="N168" s="33"/>
+      <c r="O168" s="33"/>
+      <c r="P168" s="33"/>
       <c r="Q168" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R168" s="28" t="s">
-        <v>1032</v>
-      </c>
-      <c r="S168" s="9" t="s">
-        <v>282</v>
+        <v>685</v>
+      </c>
+      <c r="S168" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="T168" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U168" s="2"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>160</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D169" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E169" s="74" t="s">
@@ -12161,43 +12152,43 @@
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H169:H177" si="12">CONCATENATE("c",D169,E169,F169)</f>
         <v xml:space="preserve">cD08 </v>
       </c>
       <c r="I169" s="45"/>
       <c r="J169" s="1"/>
-      <c r="K169" s="26"/>
+      <c r="K169" s="1"/>
       <c r="L169" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M169" s="34" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N169" s="34"/>
       <c r="O169" s="34"/>
       <c r="P169" s="34"/>
       <c r="Q169" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R169" s="28" t="s">
-        <v>1106</v>
+        <v>1032</v>
       </c>
       <c r="S169" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="T169" s="17" t="s">
-        <v>106</v>
+        <v>282</v>
+      </c>
+      <c r="T169" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U169" s="2"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D170" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D170" s="66" t="s">
         <v>1156</v>
       </c>
       <c r="E170" s="74" t="s">
@@ -12213,36 +12204,36 @@
       </c>
       <c r="I170" s="45"/>
       <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
+      <c r="K170" s="26"/>
       <c r="L170" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M170" s="34" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="N170" s="34"/>
       <c r="O170" s="34"/>
       <c r="P170" s="34"/>
       <c r="Q170" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R170" s="28" t="s">
-        <v>1027</v>
+        <v>1106</v>
       </c>
       <c r="S170" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T170" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U170" s="2"/>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>737</v>
+        <v>107</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>1156</v>
@@ -12262,34 +12253,34 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="28" t="s">
-        <v>844</v>
+        <v>478</v>
       </c>
       <c r="M171" s="34" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N171" s="34"/>
       <c r="O171" s="34"/>
       <c r="P171" s="34"/>
       <c r="Q171" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="R171" s="31">
-        <v>535</v>
+        <v>631</v>
+      </c>
+      <c r="R171" s="28" t="s">
+        <v>1027</v>
       </c>
       <c r="S171" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="T171" s="9" t="s">
-        <v>737</v>
+        <v>284</v>
+      </c>
+      <c r="T171" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="U171" s="2"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>1156</v>
@@ -12309,34 +12300,34 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M172" s="34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N172" s="34"/>
       <c r="O172" s="34"/>
       <c r="P172" s="34"/>
       <c r="Q172" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="R172" s="28" t="s">
-        <v>1028</v>
+        <v>632</v>
+      </c>
+      <c r="R172" s="31">
+        <v>535</v>
       </c>
       <c r="S172" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="T172" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U172" s="2"/>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>670</v>
+        <v>738</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>1156</v>
@@ -12356,34 +12347,34 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="28" t="s">
-        <v>993</v>
+        <v>845</v>
       </c>
       <c r="M173" s="34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N173" s="34"/>
       <c r="O173" s="34"/>
       <c r="P173" s="34"/>
       <c r="Q173" s="28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R173" s="28" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="S173" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T173" s="9" t="s">
-        <v>670</v>
+        <v>738</v>
       </c>
       <c r="U173" s="2"/>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>739</v>
+        <v>670</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>1156</v>
@@ -12403,34 +12394,34 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M174" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N174" s="34"/>
       <c r="O174" s="34"/>
       <c r="P174" s="34"/>
       <c r="Q174" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R174" s="28" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="S174" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="T174" s="9" t="s">
-        <v>739</v>
+        <v>670</v>
       </c>
       <c r="U174" s="2"/>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>1156</v>
@@ -12450,34 +12441,34 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="28" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M175" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N175" s="34"/>
       <c r="O175" s="34"/>
       <c r="P175" s="34"/>
       <c r="Q175" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R175" s="28" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="S175" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="T175" s="9" t="s">
-        <v>928</v>
+        <v>739</v>
       </c>
       <c r="U175" s="2"/>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>1156</v>
@@ -12497,121 +12488,121 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="28" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M176" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N176" s="34"/>
       <c r="O176" s="34"/>
       <c r="P176" s="34"/>
       <c r="Q176" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R176" s="28" t="s">
-        <v>1059</v>
+        <v>1029</v>
       </c>
       <c r="S176" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="T176" s="17" t="s">
-        <v>741</v>
+        <v>927</v>
+      </c>
+      <c r="T176" s="9" t="s">
+        <v>928</v>
       </c>
       <c r="U176" s="2"/>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>168</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>108</v>
+        <v>167</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="D177" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E177" s="74" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E177" s="74"/>
-      <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="45"/>
-      <c r="I177" s="68"/>
+      <c r="H177" s="45" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">cD08 </v>
+      </c>
+      <c r="I177" s="45"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="M177" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="N177" s="36"/>
-      <c r="O177" s="36"/>
-      <c r="P177" s="36"/>
+        <v>996</v>
+      </c>
+      <c r="M177" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="N177" s="34"/>
+      <c r="O177" s="34"/>
+      <c r="P177" s="34"/>
       <c r="Q177" s="28" t="s">
-        <v>681</v>
-      </c>
-      <c r="R177" s="40" t="s">
-        <v>682</v>
-      </c>
-      <c r="S177" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T177" s="16" t="s">
-        <v>108</v>
+        <v>637</v>
+      </c>
+      <c r="R177" s="28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S177" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="T177" s="17" t="s">
+        <v>741</v>
       </c>
       <c r="U177" s="2"/>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>169</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>109</v>
+        <v>168</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E178" s="74" t="s">
-        <v>1167</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="E178" s="74"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="45" t="s">
-        <v>956</v>
-      </c>
-      <c r="I178" s="45" t="str">
-        <f>CONCATENATE(D178,E178,F178)</f>
-        <v>D09</v>
-      </c>
+      <c r="H178" s="45"/>
+      <c r="I178" s="68"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="M178" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="N178" s="37"/>
-      <c r="O178" s="37"/>
-      <c r="P178" s="37"/>
+        <v>958</v>
+      </c>
+      <c r="M178" s="36" t="s">
+        <v>963</v>
+      </c>
+      <c r="N178" s="36"/>
+      <c r="O178" s="36"/>
+      <c r="P178" s="36"/>
       <c r="Q178" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="R178" s="28" t="s">
-        <v>1026</v>
-      </c>
-      <c r="S178" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="T178" s="17" t="s">
-        <v>109</v>
+        <v>681</v>
+      </c>
+      <c r="R178" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T178" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="U178" s="2"/>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>170</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>742</v>
+        <v>169</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>1156</v>
@@ -12619,50 +12610,48 @@
       <c r="E179" s="74" t="s">
         <v>1167</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="45" t="s">
         <v>956</v>
       </c>
-      <c r="G179" s="1"/>
-      <c r="H179" s="45" t="str">
-        <f t="shared" ref="H179:H187" si="13">CONCATENATE("c",D179,E179,F179)</f>
-        <v xml:space="preserve">cD09 </v>
-      </c>
-      <c r="I179" s="45" t="s">
-        <v>956</v>
+      <c r="I179" s="45" t="str">
+        <f>CONCATENATE(D179,E179,F179)</f>
+        <v>D09</v>
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="28" t="s">
-        <v>960</v>
-      </c>
-      <c r="M179" s="34" t="s">
-        <v>851</v>
-      </c>
-      <c r="N179" s="34"/>
-      <c r="O179" s="34"/>
-      <c r="P179" s="34"/>
+        <v>959</v>
+      </c>
+      <c r="M179" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="N179" s="37"/>
+      <c r="O179" s="37"/>
+      <c r="P179" s="37"/>
       <c r="Q179" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="R179" s="31">
-        <v>580</v>
+        <v>638</v>
+      </c>
+      <c r="R179" s="28" t="s">
+        <v>1026</v>
       </c>
       <c r="S179" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="T179" s="9" t="s">
-        <v>742</v>
+        <v>287</v>
+      </c>
+      <c r="T179" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="U179" s="2"/>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="D180" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E180" s="74" t="s">
@@ -12673,7 +12662,7 @@
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H180:H188" si="13">CONCATENATE("c",D180,E180,F180)</f>
         <v xml:space="preserve">cD09 </v>
       </c>
       <c r="I180" s="45" t="s">
@@ -12682,36 +12671,36 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="28" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M180" s="34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="N180" s="34"/>
       <c r="O180" s="34"/>
       <c r="P180" s="34"/>
       <c r="Q180" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R180" s="31">
-        <v>2504</v>
+        <v>580</v>
       </c>
       <c r="S180" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="T180" s="9" t="s">
-        <v>932</v>
+        <v>742</v>
       </c>
       <c r="U180" s="2"/>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="D181" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D181" s="66" t="s">
         <v>1156</v>
       </c>
       <c r="E181" s="74" t="s">
@@ -12731,46 +12720,48 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M181" s="34" t="s">
-        <v>964</v>
+        <v>852</v>
       </c>
       <c r="N181" s="34"/>
       <c r="O181" s="34"/>
       <c r="P181" s="34"/>
       <c r="Q181" s="28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R181" s="31">
-        <v>589</v>
+        <v>2504</v>
       </c>
       <c r="S181" s="9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="T181" s="9" t="s">
-        <v>744</v>
+        <v>932</v>
       </c>
       <c r="U181" s="2"/>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>173</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>745</v>
+        <v>172</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>744</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E182" s="74" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F182" s="1"/>
+        <v>1167</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>956</v>
+      </c>
       <c r="G182" s="1"/>
       <c r="H182" s="45" t="str">
         <f t="shared" si="13"/>
-        <v>cDxx</v>
+        <v xml:space="preserve">cD09 </v>
       </c>
       <c r="I182" s="45" t="s">
         <v>956</v>
@@ -12778,30 +12769,34 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="28" t="s">
-        <v>479</v>
+        <v>962</v>
       </c>
       <c r="M182" s="34" t="s">
-        <v>479</v>
+        <v>964</v>
       </c>
       <c r="N182" s="34"/>
       <c r="O182" s="34"/>
       <c r="P182" s="34"/>
-      <c r="Q182" s="28"/>
-      <c r="R182" s="28"/>
+      <c r="Q182" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="R182" s="31">
+        <v>589</v>
+      </c>
       <c r="S182" s="9" t="s">
-        <v>888</v>
-      </c>
-      <c r="T182" s="17" t="s">
-        <v>745</v>
+        <v>931</v>
+      </c>
+      <c r="T182" s="9" t="s">
+        <v>744</v>
       </c>
       <c r="U182" s="2"/>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>110</v>
+        <v>745</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>1156</v>
@@ -12821,34 +12816,30 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M183" s="34" t="s">
-        <v>853</v>
+        <v>479</v>
       </c>
       <c r="N183" s="34"/>
       <c r="O183" s="34"/>
       <c r="P183" s="34"/>
-      <c r="Q183" s="28" t="s">
-        <v>642</v>
-      </c>
-      <c r="R183" s="28" t="s">
-        <v>1022</v>
-      </c>
+      <c r="Q183" s="28"/>
+      <c r="R183" s="28"/>
       <c r="S183" s="9" t="s">
-        <v>288</v>
+        <v>888</v>
       </c>
       <c r="T183" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="U183" s="2"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>174</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="U183" s="2"/>
-    </row>
-    <row r="184" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>175</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>746</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>1156</v>
@@ -12868,34 +12859,34 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M184" s="34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="N184" s="34"/>
       <c r="O184" s="34"/>
       <c r="P184" s="34"/>
       <c r="Q184" s="28" t="s">
-        <v>1023</v>
+        <v>642</v>
       </c>
       <c r="R184" s="28" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="S184" s="9" t="s">
-        <v>887</v>
+        <v>288</v>
       </c>
       <c r="T184" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U184" s="2"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>112</v>
+        <v>746</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>1156</v>
@@ -12915,34 +12906,34 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M185" s="34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N185" s="34"/>
       <c r="O185" s="34"/>
       <c r="P185" s="34"/>
       <c r="Q185" s="28" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="R185" s="28" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
       <c r="S185" s="9" t="s">
-        <v>289</v>
+        <v>887</v>
       </c>
       <c r="T185" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U185" s="2"/>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>1156</v>
@@ -12962,34 +12953,34 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M186" s="34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N186" s="34"/>
       <c r="O186" s="34"/>
       <c r="P186" s="34"/>
       <c r="Q186" s="28" t="s">
-        <v>643</v>
+        <v>1024</v>
       </c>
       <c r="R186" s="28" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="S186" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T186" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U186" s="2"/>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>178</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>114</v>
+        <v>177</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>1156</v>
@@ -13009,128 +13000,128 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M187" s="34" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N187" s="34"/>
       <c r="O187" s="34"/>
       <c r="P187" s="34"/>
       <c r="Q187" s="28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R187" s="28" t="s">
-        <v>644</v>
+        <v>1021</v>
       </c>
       <c r="S187" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="T187" s="16" t="s">
-        <v>114</v>
+        <v>290</v>
+      </c>
+      <c r="T187" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="U187" s="2"/>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>956</v>
+        <v>1156</v>
       </c>
       <c r="E188" s="74" t="s">
-        <v>956</v>
+        <v>1158</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="45" t="s">
+      <c r="H188" s="45" t="str">
+        <f t="shared" si="13"/>
+        <v>cDxx</v>
+      </c>
+      <c r="I188" s="45" t="s">
         <v>956</v>
-      </c>
-      <c r="I188" s="45" t="str">
-        <f>CONCATENATE(D188,E188,F188)</f>
-        <v xml:space="preserve">  </v>
       </c>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="M188" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="N188" s="33"/>
-      <c r="O188" s="33"/>
-      <c r="P188" s="33"/>
+        <v>484</v>
+      </c>
+      <c r="M188" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="N188" s="34"/>
+      <c r="O188" s="34"/>
+      <c r="P188" s="34"/>
       <c r="Q188" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R188" s="28" t="s">
-        <v>680</v>
-      </c>
-      <c r="S188" s="2" t="s">
-        <v>292</v>
+        <v>644</v>
+      </c>
+      <c r="S188" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="T188" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U188" s="2"/>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>180</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>116</v>
+        <v>179</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1156</v>
+        <v>956</v>
       </c>
       <c r="E189" s="74" t="s">
-        <v>1158</v>
+        <v>956</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="45" t="str">
-        <f>CONCATENATE("c",D189,E189,F189)</f>
-        <v>cDxx</v>
-      </c>
-      <c r="I189" s="45" t="s">
+      <c r="H189" s="45" t="s">
         <v>956</v>
+      </c>
+      <c r="I189" s="45" t="str">
+        <f>CONCATENATE(D189,E189,F189)</f>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="M189" s="34" t="s">
-        <v>859</v>
-      </c>
-      <c r="N189" s="34"/>
-      <c r="O189" s="34"/>
-      <c r="P189" s="34"/>
+        <v>485</v>
+      </c>
+      <c r="M189" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="N189" s="33"/>
+      <c r="O189" s="33"/>
+      <c r="P189" s="33"/>
       <c r="Q189" s="28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R189" s="28" t="s">
-        <v>1019</v>
-      </c>
-      <c r="S189" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="T189" s="17" t="s">
-        <v>116</v>
+        <v>680</v>
+      </c>
+      <c r="S189" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T189" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="U189" s="2"/>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>1156</v>
@@ -13150,30 +13141,34 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M190" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="N190" s="34"/>
       <c r="O190" s="34"/>
       <c r="P190" s="34"/>
-      <c r="Q190" s="28"/>
-      <c r="R190" s="28"/>
+      <c r="Q190" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="R190" s="28" t="s">
+        <v>1019</v>
+      </c>
       <c r="S190" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T190" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U190" s="2"/>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>1156</v>
@@ -13193,10 +13188,10 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M191" s="34" t="s">
-        <v>488</v>
+        <v>860</v>
       </c>
       <c r="N191" s="34"/>
       <c r="O191" s="34"/>
@@ -13204,19 +13199,19 @@
       <c r="Q191" s="28"/>
       <c r="R191" s="28"/>
       <c r="S191" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T191" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U191" s="2"/>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>1156</v>
@@ -13236,10 +13231,10 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M192" s="34" t="s">
-        <v>861</v>
+        <v>488</v>
       </c>
       <c r="N192" s="34"/>
       <c r="O192" s="34"/>
@@ -13247,19 +13242,19 @@
       <c r="Q192" s="28"/>
       <c r="R192" s="28"/>
       <c r="S192" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T192" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U192" s="2"/>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>1156</v>
@@ -13279,81 +13274,77 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M193" s="34" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N193" s="34"/>
       <c r="O193" s="34"/>
       <c r="P193" s="34"/>
-      <c r="Q193" s="28" t="s">
-        <v>648</v>
-      </c>
-      <c r="R193" s="28" t="s">
-        <v>1020</v>
-      </c>
+      <c r="Q193" s="28"/>
+      <c r="R193" s="28"/>
       <c r="S193" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T193" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U193" s="2"/>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>185</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>121</v>
+        <v>184</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E194" s="74">
-        <v>10</v>
+      <c r="E194" s="74" t="s">
+        <v>1158</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="45" t="s">
+      <c r="H194" s="45" t="str">
+        <f>CONCATENATE("c",D194,E194,F194)</f>
+        <v>cDxx</v>
+      </c>
+      <c r="I194" s="45" t="s">
         <v>956</v>
-      </c>
-      <c r="I194" s="45" t="str">
-        <f>CONCATENATE(D194,E194,F194)</f>
-        <v>D10</v>
       </c>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="M194" s="33" t="s">
-        <v>863</v>
-      </c>
-      <c r="N194" s="33"/>
-      <c r="O194" s="33"/>
-      <c r="P194" s="33"/>
+        <v>490</v>
+      </c>
+      <c r="M194" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="N194" s="34"/>
+      <c r="O194" s="34"/>
+      <c r="P194" s="34"/>
       <c r="Q194" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="R194" s="28" t="s">
-        <v>649</v>
-      </c>
-      <c r="S194" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="T194" s="16" t="s">
-        <v>121</v>
+        <v>1020</v>
+      </c>
+      <c r="S194" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="T194" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="U194" s="2"/>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>186</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>122</v>
+        <v>185</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>1156</v>
@@ -13363,44 +13354,44 @@
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="45" t="str">
-        <f t="shared" ref="H195:H200" si="14">CONCATENATE("c",D195,E195,F195)</f>
-        <v>cD10</v>
-      </c>
-      <c r="I195" s="45" t="s">
+      <c r="H195" s="45" t="s">
         <v>956</v>
+      </c>
+      <c r="I195" s="45" t="str">
+        <f>CONCATENATE(D195,E195,F195)</f>
+        <v>D10</v>
       </c>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="M195" s="34" t="s">
-        <v>864</v>
-      </c>
-      <c r="N195" s="34"/>
-      <c r="O195" s="34"/>
-      <c r="P195" s="34"/>
+        <v>491</v>
+      </c>
+      <c r="M195" s="33" t="s">
+        <v>863</v>
+      </c>
+      <c r="N195" s="33"/>
+      <c r="O195" s="33"/>
+      <c r="P195" s="33"/>
       <c r="Q195" s="28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R195" s="28" t="s">
-        <v>1012</v>
-      </c>
-      <c r="S195" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="T195" s="17" t="s">
-        <v>122</v>
+        <v>649</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="T195" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="U195" s="2"/>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>1156</v>
@@ -13411,7 +13402,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H196:H201" si="14">CONCATENATE("c",D196,E196,F196)</f>
         <v>cD10</v>
       </c>
       <c r="I196" s="45" t="s">
@@ -13420,34 +13411,34 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M196" s="34" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N196" s="34"/>
       <c r="O196" s="34"/>
       <c r="P196" s="34"/>
       <c r="Q196" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R196" s="28" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="S196" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T196" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U196" s="2"/>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>1156</v>
@@ -13467,34 +13458,34 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M197" s="34" t="s">
-        <v>494</v>
+        <v>865</v>
       </c>
       <c r="N197" s="34"/>
       <c r="O197" s="34"/>
       <c r="P197" s="34"/>
-      <c r="Q197" s="31">
-        <v>758</v>
-      </c>
-      <c r="R197" s="31">
-        <v>758</v>
+      <c r="Q197" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="R197" s="28" t="s">
+        <v>1017</v>
       </c>
       <c r="S197" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T197" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U197" s="2"/>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>1156</v>
@@ -13514,34 +13505,34 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M198" s="34" t="s">
-        <v>866</v>
+        <v>494</v>
       </c>
       <c r="N198" s="34"/>
       <c r="O198" s="34"/>
       <c r="P198" s="34"/>
-      <c r="Q198" s="28" t="s">
-        <v>653</v>
-      </c>
-      <c r="R198" s="28" t="s">
-        <v>1015</v>
+      <c r="Q198" s="31">
+        <v>758</v>
+      </c>
+      <c r="R198" s="31">
+        <v>758</v>
       </c>
       <c r="S198" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T198" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U198" s="2"/>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>1156</v>
@@ -13561,34 +13552,34 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M199" s="34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N199" s="34"/>
       <c r="O199" s="34"/>
       <c r="P199" s="34"/>
       <c r="Q199" s="28" t="s">
-        <v>1013</v>
+        <v>653</v>
       </c>
       <c r="R199" s="28" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="S199" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T199" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U199" s="2"/>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>1156</v>
@@ -13608,118 +13599,122 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M200" s="34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N200" s="34"/>
       <c r="O200" s="34"/>
       <c r="P200" s="34"/>
       <c r="Q200" s="28" t="s">
-        <v>654</v>
+        <v>1013</v>
       </c>
       <c r="R200" s="28" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="S200" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T200" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U200" s="2"/>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>192</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="E201" s="74"/>
+        <v>1156</v>
+      </c>
+      <c r="E201" s="74">
+        <v>10</v>
+      </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="45" t="s">
+      <c r="H201" s="45" t="str">
+        <f t="shared" si="14"/>
+        <v>cD10</v>
+      </c>
+      <c r="I201" s="45" t="s">
         <v>956</v>
-      </c>
-      <c r="I201" s="45" t="str">
-        <f>CONCATENATE(D201,E201,F201)</f>
-        <v xml:space="preserve"> </v>
       </c>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="M201" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="N201" s="33"/>
-      <c r="O201" s="33"/>
-      <c r="P201" s="33"/>
-      <c r="Q201" s="28"/>
-      <c r="R201" s="28"/>
-      <c r="S201" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="T201" s="16" t="s">
-        <v>128</v>
+        <v>497</v>
+      </c>
+      <c r="M201" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="N201" s="34"/>
+      <c r="O201" s="34"/>
+      <c r="P201" s="34"/>
+      <c r="Q201" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="R201" s="28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S201" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="T201" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="U201" s="2"/>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>193</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>129</v>
+        <v>192</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E202" s="74" t="s">
-        <v>1158</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="E202" s="74"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="45" t="str">
-        <f>CONCATENATE("c",D202,E202,F202)</f>
-        <v>cDxx</v>
-      </c>
-      <c r="I202" s="45" t="s">
+      <c r="H202" s="45" t="s">
         <v>956</v>
+      </c>
+      <c r="I202" s="45" t="str">
+        <f>CONCATENATE(D202,E202,F202)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="28" t="s">
-        <v>870</v>
-      </c>
-      <c r="M202" s="35" t="s">
-        <v>870</v>
-      </c>
-      <c r="N202" s="35"/>
-      <c r="O202" s="35"/>
-      <c r="P202" s="35"/>
+        <v>498</v>
+      </c>
+      <c r="M202" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="N202" s="33"/>
+      <c r="O202" s="33"/>
+      <c r="P202" s="33"/>
       <c r="Q202" s="28"/>
       <c r="R202" s="28"/>
-      <c r="S202" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="T202" s="17" t="s">
-        <v>129</v>
+      <c r="S202" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="T202" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="U202" s="2"/>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>1156</v>
@@ -13739,30 +13734,30 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="M203" s="34" t="s">
-        <v>499</v>
-      </c>
-      <c r="N203" s="34"/>
-      <c r="O203" s="34"/>
-      <c r="P203" s="34"/>
+        <v>870</v>
+      </c>
+      <c r="M203" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="N203" s="35"/>
+      <c r="O203" s="35"/>
+      <c r="P203" s="35"/>
       <c r="Q203" s="28"/>
       <c r="R203" s="28"/>
       <c r="S203" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T203" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U203" s="2"/>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>1156</v>
@@ -13782,10 +13777,10 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M204" s="34" t="s">
-        <v>871</v>
+        <v>499</v>
       </c>
       <c r="N204" s="34"/>
       <c r="O204" s="34"/>
@@ -13793,19 +13788,19 @@
       <c r="Q204" s="28"/>
       <c r="R204" s="28"/>
       <c r="S204" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T204" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U204" s="2"/>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>747</v>
+        <v>131</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>1156</v>
@@ -13825,10 +13820,10 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="28" t="s">
-        <v>997</v>
+        <v>500</v>
       </c>
       <c r="M205" s="34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="N205" s="34"/>
       <c r="O205" s="34"/>
@@ -13836,110 +13831,105 @@
       <c r="Q205" s="28"/>
       <c r="R205" s="28"/>
       <c r="S205" s="9" t="s">
-        <v>886</v>
+        <v>308</v>
       </c>
       <c r="T205" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="U205" s="2"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>196</v>
+      </c>
+      <c r="B206" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="U205" s="2"/>
-    </row>
-    <row r="206" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>197</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D206" s="72" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E206" s="74"/>
+      <c r="D206" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E206" s="74" t="s">
+        <v>1158</v>
+      </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="45"/>
-      <c r="I206" s="45" t="str">
-        <f>CONCATENATE(D206,E206,F206)</f>
-        <v>E</v>
+      <c r="H206" s="45" t="str">
+        <f>CONCATENATE("c",D206,E206,F206)</f>
+        <v>cDxx</v>
+      </c>
+      <c r="I206" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="28" t="s">
-        <v>998</v>
-      </c>
-      <c r="M206" s="36" t="s">
-        <v>1120</v>
-      </c>
-      <c r="N206" s="36"/>
-      <c r="O206" s="36"/>
-      <c r="P206" s="36"/>
-      <c r="Q206" s="32" t="s">
-        <v>1138</v>
-      </c>
-      <c r="R206" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="S206" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="T206" s="16" t="s">
-        <v>132</v>
+        <v>997</v>
+      </c>
+      <c r="M206" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="N206" s="34"/>
+      <c r="O206" s="34"/>
+      <c r="P206" s="34"/>
+      <c r="Q206" s="28"/>
+      <c r="R206" s="28"/>
+      <c r="S206" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="T206" s="17" t="s">
+        <v>747</v>
       </c>
       <c r="U206" s="2"/>
     </row>
     <row r="207" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>198</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D207" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D207" s="72" t="s">
         <v>1157</v>
       </c>
-      <c r="E207" s="74" t="s">
-        <v>1159</v>
-      </c>
+      <c r="E207" s="74"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="45"/>
       <c r="I207" s="45" t="str">
         <f>CONCATENATE(D207,E207,F207)</f>
-        <v>E01</v>
+        <v>E</v>
       </c>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="28" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M207" s="36" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="N207" s="36"/>
       <c r="O207" s="36"/>
       <c r="P207" s="36"/>
-      <c r="Q207" s="28" t="s">
-        <v>656</v>
+      <c r="Q207" s="32" t="s">
+        <v>1138</v>
       </c>
       <c r="R207" s="28" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="S207" s="2" t="s">
-        <v>309</v>
+        <v>933</v>
       </c>
       <c r="T207" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="U207" s="2"/>
+    </row>
+    <row r="208" spans="1:21" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>198</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="U207" s="2"/>
-    </row>
-    <row r="208" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>199</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C208" s="41" t="s">
-        <v>956</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>1157</v>
@@ -13947,49 +13937,47 @@
       <c r="E208" s="74" t="s">
         <v>1159</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>1131</v>
-      </c>
+      <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="45" t="str">
-        <f t="shared" ref="H208:H215" si="15">CONCATENATE("c",D208,E208,F208)</f>
-        <v>cE01a</v>
-      </c>
+      <c r="H208" s="45"/>
       <c r="I208" s="45" t="str">
         <f>CONCATENATE(D208,E208,F208)</f>
-        <v>E01a</v>
+        <v>E01</v>
       </c>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="M208" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="N208" s="34"/>
-      <c r="O208" s="34"/>
-      <c r="P208" s="34"/>
+        <v>999</v>
+      </c>
+      <c r="M208" s="36" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N208" s="36"/>
+      <c r="O208" s="36"/>
+      <c r="P208" s="36"/>
       <c r="Q208" s="28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="R208" s="28" t="s">
-        <v>1009</v>
-      </c>
-      <c r="S208" s="9" t="s">
-        <v>310</v>
+        <v>679</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="T208" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="U208" s="2"/>
+    </row>
+    <row r="209" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>199</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="U208" s="2"/>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>200</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>135</v>
+      <c r="C209" s="41" t="s">
+        <v>956</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>1157</v>
@@ -13998,48 +13986,48 @@
         <v>1159</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="45" t="str">
-        <f t="shared" si="15"/>
-        <v>cE01x</v>
-      </c>
-      <c r="I209" s="45"/>
+        <f t="shared" ref="H209:H216" si="15">CONCATENATE("c",D209,E209,F209)</f>
+        <v>cE01a</v>
+      </c>
+      <c r="I209" s="45" t="str">
+        <f>CONCATENATE(D209,E209,F209)</f>
+        <v>E01a</v>
+      </c>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="28" t="s">
-        <v>1121</v>
+        <v>501</v>
       </c>
       <c r="M209" s="34" t="s">
-        <v>1122</v>
+        <v>873</v>
       </c>
       <c r="N209" s="34"/>
       <c r="O209" s="34"/>
       <c r="P209" s="34"/>
       <c r="Q209" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R209" s="28" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S209" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T209" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U209" s="2"/>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C210" s="41" t="s">
-        <v>956</v>
+        <v>135</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>1157</v>
@@ -14048,48 +14036,48 @@
         <v>1159</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="45" t="str">
         <f t="shared" si="15"/>
-        <v>cE01b</v>
-      </c>
-      <c r="I210" s="45" t="str">
-        <f>CONCATENATE(D210,E210,F210)</f>
-        <v>E01b</v>
-      </c>
+        <v>cE01x</v>
+      </c>
+      <c r="I210" s="45"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="28" t="s">
-        <v>502</v>
+        <v>1121</v>
       </c>
       <c r="M210" s="34" t="s">
-        <v>874</v>
+        <v>1122</v>
       </c>
       <c r="N210" s="34"/>
       <c r="O210" s="34"/>
       <c r="P210" s="34"/>
       <c r="Q210" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R210" s="28" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="S210" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T210" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U210" s="2"/>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C211" s="41" t="s">
+        <v>956</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>1157</v>
@@ -14098,45 +14086,48 @@
         <v>1159</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="45" t="str">
         <f t="shared" si="15"/>
-        <v>cE01x</v>
-      </c>
-      <c r="I211" s="45"/>
+        <v>cE01b</v>
+      </c>
+      <c r="I211" s="45" t="str">
+        <f>CONCATENATE(D211,E211,F211)</f>
+        <v>E01b</v>
+      </c>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M211" s="34" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N211" s="34"/>
       <c r="O211" s="34"/>
       <c r="P211" s="34"/>
       <c r="Q211" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="R211" s="28" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="S211" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T211" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U211" s="2"/>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>748</v>
+        <v>137</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>1157</v>
@@ -14156,34 +14147,34 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M212" s="34" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N212" s="34"/>
       <c r="O212" s="34"/>
       <c r="P212" s="34"/>
       <c r="Q212" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R212" s="28" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="S212" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T212" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U212" s="2"/>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>1157</v>
@@ -14203,34 +14194,34 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="28" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M213" s="37" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N213" s="37"/>
-      <c r="O213" s="37"/>
-      <c r="P213" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="M213" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="N213" s="34"/>
+      <c r="O213" s="34"/>
+      <c r="P213" s="34"/>
       <c r="Q213" s="28" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R213" s="28" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S213" s="9" t="s">
-        <v>889</v>
+        <v>314</v>
       </c>
       <c r="T213" s="16" t="s">
-        <v>749</v>
+        <v>138</v>
       </c>
       <c r="U213" s="2"/>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>1157</v>
@@ -14250,30 +14241,34 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="M214" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="N214" s="34"/>
-      <c r="O214" s="34"/>
-      <c r="P214" s="34"/>
-      <c r="Q214" s="28"/>
-      <c r="R214" s="28"/>
+        <v>1000</v>
+      </c>
+      <c r="M214" s="37" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N214" s="37"/>
+      <c r="O214" s="37"/>
+      <c r="P214" s="37"/>
+      <c r="Q214" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="R214" s="28" t="s">
+        <v>1007</v>
+      </c>
       <c r="S214" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="T214" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U214" s="2"/>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>1157</v>
@@ -14289,89 +14284,84 @@
         <f t="shared" si="15"/>
         <v>cE01x</v>
       </c>
-      <c r="I215" s="45" t="str">
-        <f>CONCATENATE(D215,E215,F215)</f>
-        <v>E01x</v>
-      </c>
+      <c r="I215" s="45"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M215" s="37" t="s">
-        <v>1118</v>
-      </c>
-      <c r="N215" s="37"/>
-      <c r="O215" s="37"/>
-      <c r="P215" s="37"/>
-      <c r="Q215" s="28" t="s">
-        <v>663</v>
-      </c>
-      <c r="R215" s="28" t="s">
-        <v>1008</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M215" s="34" t="s">
+        <v>877</v>
+      </c>
+      <c r="N215" s="34"/>
+      <c r="O215" s="34"/>
+      <c r="P215" s="34"/>
+      <c r="Q215" s="28"/>
+      <c r="R215" s="28"/>
       <c r="S215" s="9" t="s">
-        <v>315</v>
+        <v>890</v>
       </c>
       <c r="T215" s="16" t="s">
-        <v>891</v>
+        <v>750</v>
       </c>
       <c r="U215" s="2"/>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>207</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>139</v>
+        <v>206</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>751</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="E216" s="74" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F216" s="1"/>
+        <v>1159</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>1133</v>
+      </c>
       <c r="G216" s="1"/>
-      <c r="H216" s="45"/>
+      <c r="H216" s="45" t="str">
+        <f t="shared" si="15"/>
+        <v>cE01x</v>
+      </c>
       <c r="I216" s="45" t="str">
         <f>CONCATENATE(D216,E216,F216)</f>
-        <v>E02</v>
+        <v>E01x</v>
       </c>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="M216" s="33" t="s">
-        <v>878</v>
-      </c>
-      <c r="N216" s="33"/>
-      <c r="O216" s="33"/>
-      <c r="P216" s="33"/>
+        <v>1001</v>
+      </c>
+      <c r="M216" s="37" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N216" s="37"/>
+      <c r="O216" s="37"/>
+      <c r="P216" s="37"/>
       <c r="Q216" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R216" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="S216" s="2" t="s">
-        <v>316</v>
+        <v>1008</v>
+      </c>
+      <c r="S216" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="T216" s="16" t="s">
-        <v>139</v>
+        <v>891</v>
       </c>
       <c r="U216" s="2"/>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>208</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C217" s="41" t="s">
-        <v>956</v>
+        <v>207</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>1157</v>
@@ -14379,49 +14369,44 @@
       <c r="E217" s="74" t="s">
         <v>1160</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>1131</v>
-      </c>
+      <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="45" t="str">
-        <f>CONCATENATE("c",D217,E217,F217)</f>
-        <v>cE02a</v>
-      </c>
+      <c r="H217" s="45"/>
       <c r="I217" s="45" t="str">
         <f>CONCATENATE(D217,E217,F217)</f>
-        <v>E02a</v>
+        <v>E02</v>
       </c>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="M217" s="34" t="s">
-        <v>879</v>
-      </c>
-      <c r="N217" s="34"/>
-      <c r="O217" s="34"/>
-      <c r="P217" s="34"/>
+        <v>506</v>
+      </c>
+      <c r="M217" s="33" t="s">
+        <v>878</v>
+      </c>
+      <c r="N217" s="33"/>
+      <c r="O217" s="33"/>
+      <c r="P217" s="33"/>
       <c r="Q217" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R217" s="28" t="s">
-        <v>1004</v>
-      </c>
-      <c r="S217" s="9" t="s">
-        <v>317</v>
+        <v>664</v>
+      </c>
+      <c r="S217" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="T217" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U217" s="2"/>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C218" s="41" t="s">
         <v>956</v>
@@ -14433,48 +14418,48 @@
         <v>1160</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="45" t="str">
         <f>CONCATENATE("c",D218,E218,F218)</f>
-        <v>cE02b</v>
+        <v>cE02a</v>
       </c>
       <c r="I218" s="45" t="str">
         <f>CONCATENATE(D218,E218,F218)</f>
-        <v>E02b</v>
+        <v>E02a</v>
       </c>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M218" s="34" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="N218" s="34"/>
       <c r="O218" s="34"/>
       <c r="P218" s="34"/>
       <c r="Q218" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R218" s="28" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="S218" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T218" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U218" s="2"/>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C219" s="41" t="s">
         <v>956</v>
@@ -14486,34 +14471,87 @@
         <v>1160</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>956</v>
+        <v>1132</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="45" t="str">
         <f>CONCATENATE("c",D219,E219,F219)</f>
-        <v xml:space="preserve">cE02 </v>
-      </c>
-      <c r="I219" s="45"/>
+        <v>cE02b</v>
+      </c>
+      <c r="I219" s="45" t="str">
+        <f>CONCATENATE(D219,E219,F219)</f>
+        <v>E02b</v>
+      </c>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M219" s="34" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N219" s="34"/>
       <c r="O219" s="34"/>
       <c r="P219" s="34"/>
-      <c r="Q219" s="28"/>
-      <c r="R219" s="28"/>
+      <c r="Q219" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="R219" s="28" t="s">
+        <v>1003</v>
+      </c>
       <c r="S219" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="T219" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U219" s="2"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>210</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C220" s="41" t="s">
+        <v>956</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E220" s="74" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G220" s="1"/>
+      <c r="H220" s="45" t="str">
+        <f>CONCATENATE("c",D220,E220,F220)</f>
+        <v xml:space="preserve">cE02 </v>
+      </c>
+      <c r="I220" s="45"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="M220" s="34" t="s">
+        <v>881</v>
+      </c>
+      <c r="N220" s="34"/>
+      <c r="O220" s="34"/>
+      <c r="P220" s="34"/>
+      <c r="Q220" s="28"/>
+      <c r="R220" s="28"/>
+      <c r="S220" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="T219" s="16" t="s">
+      <c r="T220" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="U219" s="2"/>
+      <c r="U220" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -4633,10 +4633,10 @@
   <dimension ref="A1:U220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E139" sqref="E139"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,7 +5663,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">cA04 </v>
       </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="45" t="str">
+        <f>CONCATENATE(D23,E23,F23)</f>
+        <v xml:space="preserve">A04 </v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="28" t="s">
@@ -5708,7 +5711,10 @@
         <f t="shared" si="0"/>
         <v>cA05</v>
       </c>
-      <c r="I24" s="45"/>
+      <c r="I24" s="45" t="str">
+        <f>CONCATENATE(D24,E24,F24)</f>
+        <v>A05</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="28" t="s">

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1172">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4633,10 +4633,10 @@
   <dimension ref="A1:U220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4723,8 +4723,8 @@
       <c r="B2" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D2" s="72" t="s">
-        <v>367</v>
+      <c r="D2" s="72">
+        <v>0</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="1"/>
@@ -4732,7 +4732,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45" t="str">
         <f>CONCATENATE(D2,E2,F2)</f>
-        <v>O</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1177">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3759,6 +3759,9 @@
   </si>
   <si>
     <t>causeList</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -4636,10 +4639,10 @@
   <dimension ref="A1:S220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>IF(I2&lt;&gt;"",CONCATENATE(D2,". ",IF(E2="",E2,IF(F2="",CONCATENATE(E2,". "),CONCATENATE(E2,".  ",F2,". "))),Q2),"")</f>
+        <f>IF(I2&lt;&gt;"",CONCATENATE(D2,". ",IF(E2="",E2,IF(F2="",CONCATENATE("  ",E2,". "),CONCATENATE("  ",E2,".  ",F2,". "))),Q2),"")</f>
         <v>0. All CAUSES</v>
       </c>
       <c r="B2" s="2">
@@ -4758,8 +4761,8 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>IF(I3&lt;&gt;"",CONCATENATE(D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE(E3,". "),CONCATENATE(E3,".  ",F3,". "))),Q3),"")</f>
-        <v>A. Communicable, maternal, perinatal and nutritional conditions</v>
+        <f>IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),Q3),"")</f>
+        <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4803,8 +4806,8 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>IF(I4&lt;&gt;"",CONCATENATE(D4,". ",IF(E4="",E4,IF(F4="",CONCATENATE(E4,". "),CONCATENATE(E4,".  ",F4,". "))),Q4),"")</f>
-        <v>A. 99. Other Infectious Diseases</v>
+        <f t="shared" ref="A4:A67" si="0">IF(I4&lt;&gt;"",CONCATENATE("  ",D4,". ",IF(E4="",E4,IF(F4="",CONCATENATE("  ",E4,". "),CONCATENATE("  ",E4,".  ",F4,". "))),Q4),"")</f>
+        <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -4838,7 +4841,7 @@
     </row>
     <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>IF(I5&lt;&gt;"",CONCATENATE(D5,". ",IF(E5="",E5,IF(F5="",CONCATENATE(E5,". "),CONCATENATE(E5,".  ",F5,". "))),Q5),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B5" s="2">
@@ -4880,8 +4883,8 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>IF(I6&lt;&gt;"",CONCATENATE(D6,". ",IF(E6="",E6,IF(F6="",CONCATENATE(E6,". "),CONCATENATE(E6,".  ",F6,". "))),Q6),"")</f>
-        <v>A. 01. Tuberculosis</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   01. Tuberculosis</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -4930,8 +4933,8 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF(I7&lt;&gt;"",CONCATENATE(D7,". ",IF(E7="",E7,IF(F7="",CONCATENATE(E7,". "),CONCATENATE(E7,".  ",F7,". "))),Q7),"")</f>
-        <v>A. 02. HIV/ and other Sexually transmitted diseases (STDs)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="66" t="s">
@@ -4965,8 +4968,8 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF(I8&lt;&gt;"",CONCATENATE(D8,". ",IF(E8="",E8,IF(F8="",CONCATENATE(E8,". "),CONCATENATE(E8,".  ",F8,". "))),Q8),"")</f>
-        <v>A. 02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>IF(I9&lt;&gt;"",CONCATENATE(D9,". ",IF(E9="",E9,IF(F9="",CONCATENATE(E9,". "),CONCATENATE(E9,".  ",F9,". "))),Q9),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B9" s="2">
@@ -5065,7 +5068,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>IF(I10&lt;&gt;"",CONCATENATE(D10,". ",IF(E10="",E10,IF(F10="",CONCATENATE(E10,". "),CONCATENATE(E10,".  ",F10,". "))),Q10),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B10" s="2">
@@ -5114,7 +5117,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(I11&lt;&gt;"",CONCATENATE(D11,". ",IF(E11="",E11,IF(F11="",CONCATENATE(E11,". "),CONCATENATE(E11,".  ",F11,". "))),Q11),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B11" s="2">
@@ -5163,7 +5166,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>IF(I12&lt;&gt;"",CONCATENATE(D12,". ",IF(E12="",E12,IF(F12="",CONCATENATE(E12,". "),CONCATENATE(E12,".  ",F12,". "))),Q12),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B12" s="2">
@@ -5210,7 +5213,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(I13&lt;&gt;"",CONCATENATE(D13,". ",IF(E13="",E13,IF(F13="",CONCATENATE(E13,". "),CONCATENATE(E13,".  ",F13,". "))),Q13),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B13" s="2">
@@ -5259,8 +5262,8 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF(I14&lt;&gt;"",CONCATENATE(D14,". ",IF(E14="",E14,IF(F14="",CONCATENATE(E14,". "),CONCATENATE(E14,".  ",F14,". "))),Q14),"")</f>
-        <v>A. 02.  b. HIV/AIDS</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
@@ -5310,7 +5313,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF(I15&lt;&gt;"",CONCATENATE(D15,". ",IF(E15="",E15,IF(F15="",CONCATENATE(E15,". "),CONCATENATE(E15,".  ",F15,". "))),Q15),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B15" s="2">
@@ -5355,7 +5358,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF(I16&lt;&gt;"",CONCATENATE(D16,". ",IF(E16="",E16,IF(F16="",CONCATENATE(E16,". "),CONCATENATE(E16,".  ",F16,". "))),Q16),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B16" s="2">
@@ -5404,7 +5407,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF(I17&lt;&gt;"",CONCATENATE(D17,". ",IF(E17="",E17,IF(F17="",CONCATENATE(E17,". "),CONCATENATE(E17,".  ",F17,". "))),Q17),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B17" s="2">
@@ -5451,7 +5454,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(I18&lt;&gt;"",CONCATENATE(D18,". ",IF(E18="",E18,IF(F18="",CONCATENATE(E18,". "),CONCATENATE(E18,".  ",F18,". "))),Q18),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B18" s="2">
@@ -5490,7 +5493,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF(I19&lt;&gt;"",CONCATENATE(D19,". ",IF(E19="",E19,IF(F19="",CONCATENATE(E19,". "),CONCATENATE(E19,".  ",F19,". "))),Q19),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B19" s="2">
@@ -5508,7 +5511,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="42" t="str">
-        <f t="shared" ref="H19:H24" si="0">CONCATENATE("c",D19,E19,F19)</f>
+        <f t="shared" ref="H19:H24" si="1">CONCATENATE("c",D19,E19,F19)</f>
         <v>cA99</v>
       </c>
       <c r="I19" s="42"/>
@@ -5537,7 +5540,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(I20&lt;&gt;"",CONCATENATE(D20,". ",IF(E20="",E20,IF(F20="",CONCATENATE(E20,". "),CONCATENATE(E20,".  ",F20,". "))),Q20),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B20" s="2">
@@ -5555,7 +5558,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="I20" s="42"/>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF(I21&lt;&gt;"",CONCATENATE(D21,". ",IF(E21="",E21,IF(F21="",CONCATENATE(E21,". "),CONCATENATE(E21,".  ",F21,". "))),Q21),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B21" s="2">
@@ -5602,7 +5605,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="I21" s="42"/>
@@ -5631,7 +5634,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>IF(I22&lt;&gt;"",CONCATENATE(D22,". ",IF(E22="",E22,IF(F22="",CONCATENATE(E22,". "),CONCATENATE(E22,".  ",F22,". "))),Q22),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B22" s="2">
@@ -5649,7 +5652,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="I22" s="42"/>
@@ -5678,8 +5681,8 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>IF(I23&lt;&gt;"",CONCATENATE(D23,". ",IF(E23="",E23,IF(F23="",CONCATENATE(E23,". "),CONCATENATE(E23,".  ",F23,". "))),Q23),"")</f>
-        <v>A. 04. Meningitis</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   04. Meningitis</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
@@ -5696,7 +5699,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA04</v>
       </c>
       <c r="I23" s="42" t="str">
@@ -5728,8 +5731,8 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>IF(I24&lt;&gt;"",CONCATENATE(D24,". ",IF(E24="",E24,IF(F24="",CONCATENATE(E24,". "),CONCATENATE(E24,".  ",F24,". "))),Q24),"")</f>
-        <v>A. 05. Encephalitis</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   05. Encephalitis</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
@@ -5746,7 +5749,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA05</v>
       </c>
       <c r="I24" s="42" t="str">
@@ -5778,8 +5781,8 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(I25&lt;&gt;"",CONCATENATE(D25,". ",IF(E25="",E25,IF(F25="",CONCATENATE(E25,". "),CONCATENATE(E25,".  ",F25,". "))),Q25),"")</f>
-        <v>A. 06. Hepatitis</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   06. Hepatitis</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
@@ -5821,7 +5824,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF(I26&lt;&gt;"",CONCATENATE(D26,". ",IF(E26="",E26,IF(F26="",CONCATENATE(E26,". "),CONCATENATE(E26,".  ",F26,". "))),Q26),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B26" s="2">
@@ -5864,8 +5867,8 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF(I27&lt;&gt;"",CONCATENATE(D27,". ",IF(E27="",E27,IF(F27="",CONCATENATE(E27,". "),CONCATENATE(E27,".  ",F27,". "))),Q27),"")</f>
-        <v>A. 06.  a. Acute hepatitis B</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   06.  a. Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
@@ -5912,7 +5915,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF(I28&lt;&gt;"",CONCATENATE(D28,". ",IF(E28="",E28,IF(F28="",CONCATENATE(E28,". "),CONCATENATE(E28,".  ",F28,". "))),Q28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B28" s="2"/>
@@ -5938,8 +5941,8 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF(I29&lt;&gt;"",CONCATENATE(D29,". ",IF(E29="",E29,IF(F29="",CONCATENATE(E29,". "),CONCATENATE(E29,".  ",F29,". "))),Q29),"")</f>
-        <v>A. 06.  b. Acute hepatitis C</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   06.  b. Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
         <v>24</v>
@@ -5986,7 +5989,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF(I30&lt;&gt;"",CONCATENATE(D30,". ",IF(E30="",E30,IF(F30="",CONCATENATE(E30,". "),CONCATENATE(E30,".  ",F30,". "))),Q30),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B30" s="2">
@@ -6029,7 +6032,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(I31&lt;&gt;"",CONCATENATE(D31,". ",IF(E31="",E31,IF(F31="",CONCATENATE(E31,". "),CONCATENATE(E31,".  ",F31,". "))),Q31),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B31" s="2">
@@ -6067,7 +6070,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF(I32&lt;&gt;"",CONCATENATE(D32,". ",IF(E32="",E32,IF(F32="",CONCATENATE(E32,". "),CONCATENATE(E32,".  ",F32,". "))),Q32),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B32" s="2">
@@ -6085,7 +6088,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="42" t="str">
-        <f t="shared" ref="H32:H45" si="1">CONCATENATE("c",D32,E32,F32)</f>
+        <f t="shared" ref="H32:H45" si="2">CONCATENATE("c",D32,E32,F32)</f>
         <v>cA99</v>
       </c>
       <c r="I32" s="42"/>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF(I33&lt;&gt;"",CONCATENATE(D33,". ",IF(E33="",E33,IF(F33="",CONCATENATE(E33,". "),CONCATENATE(E33,".  ",F33,". "))),Q33),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B33" s="2">
@@ -6132,7 +6135,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I33" s="42"/>
@@ -6161,7 +6164,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF(I34&lt;&gt;"",CONCATENATE(D34,". ",IF(E34="",E34,IF(F34="",CONCATENATE(E34,". "),CONCATENATE(E34,".  ",F34,". "))),Q34),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B34" s="2">
@@ -6179,7 +6182,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I34" s="42"/>
@@ -6208,7 +6211,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF(I35&lt;&gt;"",CONCATENATE(D35,". ",IF(E35="",E35,IF(F35="",CONCATENATE(E35,". "),CONCATENATE(E35,".  ",F35,". "))),Q35),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B35" s="2">
@@ -6226,7 +6229,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I35" s="42"/>
@@ -6255,7 +6258,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF(I36&lt;&gt;"",CONCATENATE(D36,". ",IF(E36="",E36,IF(F36="",CONCATENATE(E36,". "),CONCATENATE(E36,".  ",F36,". "))),Q36),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B36" s="2">
@@ -6273,7 +6276,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I36" s="42"/>
@@ -6302,7 +6305,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF(I37&lt;&gt;"",CONCATENATE(D37,". ",IF(E37="",E37,IF(F37="",CONCATENATE(E37,". "),CONCATENATE(E37,".  ",F37,". "))),Q37),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B37" s="2">
@@ -6320,7 +6323,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I37" s="42"/>
@@ -6345,7 +6348,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(I38&lt;&gt;"",CONCATENATE(D38,". ",IF(E38="",E38,IF(F38="",CONCATENATE(E38,". "),CONCATENATE(E38,".  ",F38,". "))),Q38),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B38" s="2">
@@ -6363,7 +6366,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I38" s="42"/>
@@ -6388,7 +6391,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF(I39&lt;&gt;"",CONCATENATE(D39,". ",IF(E39="",E39,IF(F39="",CONCATENATE(E39,". "),CONCATENATE(E39,".  ",F39,". "))),Q39),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B39" s="2">
@@ -6406,7 +6409,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I39" s="42"/>
@@ -6435,7 +6438,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF(I40&lt;&gt;"",CONCATENATE(D40,". ",IF(E40="",E40,IF(F40="",CONCATENATE(E40,". "),CONCATENATE(E40,".  ",F40,". "))),Q40),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B40" s="2">
@@ -6453,7 +6456,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I40" s="42"/>
@@ -6482,7 +6485,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF(I41&lt;&gt;"",CONCATENATE(D41,". ",IF(E41="",E41,IF(F41="",CONCATENATE(E41,". "),CONCATENATE(E41,".  ",F41,". "))),Q41),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B41" s="2">
@@ -6500,7 +6503,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I41" s="42"/>
@@ -6525,7 +6528,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF(I42&lt;&gt;"",CONCATENATE(D42,". ",IF(E42="",E42,IF(F42="",CONCATENATE(E42,". "),CONCATENATE(E42,".  ",F42,". "))),Q42),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B42" s="2">
@@ -6543,7 +6546,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I42" s="42"/>
@@ -6572,7 +6575,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF(I43&lt;&gt;"",CONCATENATE(D43,". ",IF(E43="",E43,IF(F43="",CONCATENATE(E43,". "),CONCATENATE(E43,".  ",F43,". "))),Q43),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B43" s="2">
@@ -6590,7 +6593,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I43" s="42"/>
@@ -6615,7 +6618,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF(I44&lt;&gt;"",CONCATENATE(D44,". ",IF(E44="",E44,IF(F44="",CONCATENATE(E44,". "),CONCATENATE(E44,".  ",F44,". "))),Q44),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B44" s="2">
@@ -6633,7 +6636,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I44" s="42"/>
@@ -6662,7 +6665,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(I45&lt;&gt;"",CONCATENATE(D45,". ",IF(E45="",E45,IF(F45="",CONCATENATE(E45,". "),CONCATENATE(E45,".  ",F45,". "))),Q45),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B45" s="2">
@@ -6680,7 +6683,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I45" s="42"/>
@@ -6709,7 +6712,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF(I46&lt;&gt;"",CONCATENATE(D46,". ",IF(E46="",E46,IF(F46="",CONCATENATE(E46,". "),CONCATENATE(E46,".  ",F46,". "))),Q46),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B46" s="2">
@@ -6751,7 +6754,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF(I47&lt;&gt;"",CONCATENATE(D47,". ",IF(E47="",E47,IF(F47="",CONCATENATE(E47,". "),CONCATENATE(E47,".  ",F47,". "))),Q47),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B47" s="2">
@@ -6798,7 +6801,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF(I48&lt;&gt;"",CONCATENATE(D48,". ",IF(E48="",E48,IF(F48="",CONCATENATE(E48,". "),CONCATENATE(E48,".  ",F48,". "))),Q48),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B48" s="2">
@@ -6841,7 +6844,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF(I49&lt;&gt;"",CONCATENATE(D49,". ",IF(E49="",E49,IF(F49="",CONCATENATE(E49,". "),CONCATENATE(E49,".  ",F49,". "))),Q49),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B49" s="2">
@@ -6884,7 +6887,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(I50&lt;&gt;"",CONCATENATE(D50,". ",IF(E50="",E50,IF(F50="",CONCATENATE(E50,". "),CONCATENATE(E50,".  ",F50,". "))),Q50),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B50" s="2">
@@ -6927,7 +6930,7 @@
     </row>
     <row r="51" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF(I51&lt;&gt;"",CONCATENATE(D51,". ",IF(E51="",E51,IF(F51="",CONCATENATE(E51,". "),CONCATENATE(E51,".  ",F51,". "))),Q51),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B51" s="2">
@@ -6974,8 +6977,8 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF(I52&lt;&gt;"",CONCATENATE(D52,". ",IF(E52="",E52,IF(F52="",CONCATENATE(E52,". "),CONCATENATE(E52,".  ",F52,". "))),Q52),"")</f>
-        <v>A. 07. Respiratory infections</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   07. Respiratory infections</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
@@ -7021,7 +7024,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(I53&lt;&gt;"",CONCATENATE(D53,". ",IF(E53="",E53,IF(F53="",CONCATENATE(E53,". "),CONCATENATE(E53,".  ",F53,". "))),Q53),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B53" s="2">
@@ -7068,7 +7071,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(I54&lt;&gt;"",CONCATENATE(D54,". ",IF(E54="",E54,IF(F54="",CONCATENATE(E54,". "),CONCATENATE(E54,".  ",F54,". "))),Q54),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B54" s="2">
@@ -7115,7 +7118,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF(I55&lt;&gt;"",CONCATENATE(D55,". ",IF(E55="",E55,IF(F55="",CONCATENATE(E55,". "),CONCATENATE(E55,".  ",F55,". "))),Q55),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B55" s="2">
@@ -7162,8 +7165,8 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(I56&lt;&gt;"",CONCATENATE(D56,". ",IF(E56="",E56,IF(F56="",CONCATENATE(E56,". "),CONCATENATE(E56,".  ",F56,". "))),Q56),"")</f>
-        <v>A. 08. Maternal conditions</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   08. Maternal conditions</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF(I57&lt;&gt;"",CONCATENATE(D57,". ",IF(E57="",E57,IF(F57="",CONCATENATE(E57,". "),CONCATENATE(E57,".  ",F57,". "))),Q57),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B57" s="2">
@@ -7229,7 +7232,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="42" t="str">
-        <f t="shared" ref="H57:H62" si="2">CONCATENATE("c",D57,E57,F57)</f>
+        <f t="shared" ref="H57:H62" si="3">CONCATENATE("c",D57,E57,F57)</f>
         <v>cA08</v>
       </c>
       <c r="I57" s="42"/>
@@ -7258,7 +7261,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF(I58&lt;&gt;"",CONCATENATE(D58,". ",IF(E58="",E58,IF(F58="",CONCATENATE(E58,". "),CONCATENATE(E58,".  ",F58,". "))),Q58),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B58" s="2">
@@ -7276,7 +7279,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I58" s="42"/>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF(I59&lt;&gt;"",CONCATENATE(D59,". ",IF(E59="",E59,IF(F59="",CONCATENATE(E59,". "),CONCATENATE(E59,".  ",F59,". "))),Q59),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B59" s="2">
@@ -7323,7 +7326,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I59" s="42"/>
@@ -7352,7 +7355,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(I60&lt;&gt;"",CONCATENATE(D60,". ",IF(E60="",E60,IF(F60="",CONCATENATE(E60,". "),CONCATENATE(E60,".  ",F60,". "))),Q60),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B60" s="2">
@@ -7370,7 +7373,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I60" s="42"/>
@@ -7399,7 +7402,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF(I61&lt;&gt;"",CONCATENATE(D61,". ",IF(E61="",E61,IF(F61="",CONCATENATE(E61,". "),CONCATENATE(E61,".  ",F61,". "))),Q61),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B61" s="2">
@@ -7417,7 +7420,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I61" s="42"/>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF(I62&lt;&gt;"",CONCATENATE(D62,". ",IF(E62="",E62,IF(F62="",CONCATENATE(E62,". "),CONCATENATE(E62,".  ",F62,". "))),Q62),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B62" s="2">
@@ -7464,7 +7467,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I62" s="42"/>
@@ -7493,8 +7496,8 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF(I63&lt;&gt;"",CONCATENATE(D63,". ",IF(E63="",E63,IF(F63="",CONCATENATE(E63,". "),CONCATENATE(E63,".  ",F63,". "))),Q63),"")</f>
-        <v>A. 09. Neonatal conditions</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  A.   09. Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -7542,7 +7545,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(I64&lt;&gt;"",CONCATENATE(D64,". ",IF(E64="",E64,IF(F64="",CONCATENATE(E64,". "),CONCATENATE(E64,".  ",F64,". "))),Q64),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B64" s="2">
@@ -7589,7 +7592,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF(I65&lt;&gt;"",CONCATENATE(D65,". ",IF(E65="",E65,IF(F65="",CONCATENATE(E65,". "),CONCATENATE(E65,".  ",F65,". "))),Q65),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B65" s="2">
@@ -7636,7 +7639,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF(I66&lt;&gt;"",CONCATENATE(D66,". ",IF(E66="",E66,IF(F66="",CONCATENATE(E66,". "),CONCATENATE(E66,".  ",F66,". "))),Q66),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B66" s="2">
@@ -7683,7 +7686,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF(I67&lt;&gt;"",CONCATENATE(D67,". ",IF(E67="",E67,IF(F67="",CONCATENATE(E67,". "),CONCATENATE(E67,".  ",F67,". "))),Q67),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B67" s="2">
@@ -7730,7 +7733,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF(I68&lt;&gt;"",CONCATENATE(D68,". ",IF(E68="",E68,IF(F68="",CONCATENATE(E68,". "),CONCATENATE(E68,".  ",F68,". "))),Q68),"")</f>
+        <f t="shared" ref="A68:A131" si="4">IF(I68&lt;&gt;"",CONCATENATE("  ",D68,". ",IF(E68="",E68,IF(F68="",CONCATENATE("  ",E68,". "),CONCATENATE("  ",E68,".  ",F68,". "))),Q68),"")</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -7772,7 +7775,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF(I69&lt;&gt;"",CONCATENATE(D69,". ",IF(E69="",E69,IF(F69="",CONCATENATE(E69,". "),CONCATENATE(E69,".  ",F69,". "))),Q69),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B69" s="2">
@@ -7819,7 +7822,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF(I70&lt;&gt;"",CONCATENATE(D70,". ",IF(E70="",E70,IF(F70="",CONCATENATE(E70,". "),CONCATENATE(E70,".  ",F70,". "))),Q70),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B70" s="2">
@@ -7866,7 +7869,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF(I71&lt;&gt;"",CONCATENATE(D71,". ",IF(E71="",E71,IF(F71="",CONCATENATE(E71,". "),CONCATENATE(E71,".  ",F71,". "))),Q71),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B71" s="2">
@@ -7909,7 +7912,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF(I72&lt;&gt;"",CONCATENATE(D72,". ",IF(E72="",E72,IF(F72="",CONCATENATE(E72,". "),CONCATENATE(E72,".  ",F72,". "))),Q72),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B72" s="2">
@@ -7956,7 +7959,7 @@
     </row>
     <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f>IF(I73&lt;&gt;"",CONCATENATE(D73,". ",IF(E73="",E73,IF(F73="",CONCATENATE(E73,". "),CONCATENATE(E73,".  ",F73,". "))),Q73),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B73" s="2">
@@ -8003,7 +8006,7 @@
     </row>
     <row r="74" spans="1:19" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f>IF(I74&lt;&gt;"",CONCATENATE(D74,". ",IF(E74="",E74,IF(F74="",CONCATENATE(E74,". "),CONCATENATE(E74,".  ",F74,". "))),Q74),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B74" s="45">
@@ -8043,8 +8046,8 @@
     </row>
     <row r="75" spans="1:19" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f>IF(I75&lt;&gt;"",CONCATENATE(D75,". ",IF(E75="",E75,IF(F75="",CONCATENATE(E75,". "),CONCATENATE(E75,".  ",F75,". "))),Q75),"")</f>
-        <v>D. Other Chronic</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D. Other Chronic</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="54" t="s">
@@ -8075,8 +8078,8 @@
     </row>
     <row r="76" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f>IF(I76&lt;&gt;"",CONCATENATE(D76,". ",IF(E76="",E76,IF(F76="",CONCATENATE(E76,". "),CONCATENATE(E76,".  ",F76,". "))),Q76),"")</f>
-        <v>B. Malignant neoplasms</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B. Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
         <v>70</v>
@@ -8120,8 +8123,8 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(I77&lt;&gt;"",CONCATENATE(D77,". ",IF(E77="",E77,IF(F77="",CONCATENATE(E77,". "),CONCATENATE(E77,".  ",F77,". "))),Q77),"")</f>
-        <v>B. 01. Mouth and oropharynx cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   01. Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
         <v>71</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF(I78&lt;&gt;"",CONCATENATE(D78,". ",IF(E78="",E78,IF(F78="",CONCATENATE(E78,". "),CONCATENATE(E78,".  ",F78,". "))),Q78),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B78" s="2">
@@ -8181,7 +8184,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="44" t="str">
-        <f t="shared" ref="H78:H86" si="3">CONCATENATE("c",D78,E78,F78)</f>
+        <f t="shared" ref="H78:H86" si="5">CONCATENATE("c",D78,E78,F78)</f>
         <v>cB01</v>
       </c>
       <c r="I78" s="42"/>
@@ -8210,7 +8213,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(I79&lt;&gt;"",CONCATENATE(D79,". ",IF(E79="",E79,IF(F79="",CONCATENATE(E79,". "),CONCATENATE(E79,".  ",F79,". "))),Q79),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B79" s="2">
@@ -8228,7 +8231,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB01</v>
       </c>
       <c r="I79" s="42"/>
@@ -8257,7 +8260,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF(I80&lt;&gt;"",CONCATENATE(D80,". ",IF(E80="",E80,IF(F80="",CONCATENATE(E80,". "),CONCATENATE(E80,".  ",F80,". "))),Q80),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B80" s="2">
@@ -8275,7 +8278,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB01</v>
       </c>
       <c r="I80" s="42"/>
@@ -8304,8 +8307,8 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(I81&lt;&gt;"",CONCATENATE(D81,". ",IF(E81="",E81,IF(F81="",CONCATENATE(E81,". "),CONCATENATE(E81,".  ",F81,". "))),Q81),"")</f>
-        <v>B. 02. Oesophagus cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   02. Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
         <v>75</v>
@@ -8322,11 +8325,11 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB02</v>
       </c>
       <c r="I81" s="42" t="str">
-        <f t="shared" ref="I81:I87" si="4">CONCATENATE(D81,E81,F81)</f>
+        <f t="shared" ref="I81:I87" si="6">CONCATENATE(D81,E81,F81)</f>
         <v>B02</v>
       </c>
       <c r="J81" s="26" t="s">
@@ -8354,8 +8357,8 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF(I82&lt;&gt;"",CONCATENATE(D82,". ",IF(E82="",E82,IF(F82="",CONCATENATE(E82,". "),CONCATENATE(E82,".  ",F82,". "))),Q82),"")</f>
-        <v>B. 03. Stomach cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   03. Stomach cancer</v>
       </c>
       <c r="B82" s="2">
         <v>76</v>
@@ -8372,11 +8375,11 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB03</v>
       </c>
       <c r="I82" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>B03</v>
       </c>
       <c r="J82" s="26" t="s">
@@ -8406,8 +8409,8 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(I83&lt;&gt;"",CONCATENATE(D83,". ",IF(E83="",E83,IF(F83="",CONCATENATE(E83,". "),CONCATENATE(E83,".  ",F83,". "))),Q83),"")</f>
-        <v>B. 04. Colon and rectum cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   04. Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
         <v>77</v>
@@ -8424,11 +8427,11 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB04</v>
       </c>
       <c r="I83" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>B04</v>
       </c>
       <c r="J83" s="26" t="s">
@@ -8456,8 +8459,8 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF(I84&lt;&gt;"",CONCATENATE(D84,". ",IF(E84="",E84,IF(F84="",CONCATENATE(E84,". "),CONCATENATE(E84,".  ",F84,". "))),Q84),"")</f>
-        <v>B. 05. Liver cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   05. Liver cancer</v>
       </c>
       <c r="B84" s="2">
         <v>78</v>
@@ -8474,11 +8477,11 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB05</v>
       </c>
       <c r="I84" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>B05</v>
       </c>
       <c r="J84" s="26" t="s">
@@ -8506,8 +8509,8 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(I85&lt;&gt;"",CONCATENATE(D85,". ",IF(E85="",E85,IF(F85="",CONCATENATE(E85,". "),CONCATENATE(E85,".  ",F85,". "))),Q85),"")</f>
-        <v>B. 06. Pancreas cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   06. Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
         <v>79</v>
@@ -8524,11 +8527,11 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB06</v>
       </c>
       <c r="I85" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>B06</v>
       </c>
       <c r="J85" s="26" t="s">
@@ -8556,8 +8559,8 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF(I86&lt;&gt;"",CONCATENATE(D86,". ",IF(E86="",E86,IF(F86="",CONCATENATE(E86,". "),CONCATENATE(E86,".  ",F86,". "))),Q86),"")</f>
-        <v>B. 07. Trachea, bronchus and lung cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   07. Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
         <v>80</v>
@@ -8574,11 +8577,11 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>cB07</v>
       </c>
       <c r="I86" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>B07</v>
       </c>
       <c r="J86" s="26" t="s">
@@ -8606,8 +8609,8 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(I87&lt;&gt;"",CONCATENATE(D87,". ",IF(E87="",E87,IF(F87="",CONCATENATE(E87,". "),CONCATENATE(E87,".  ",F87,". "))),Q87),"")</f>
-        <v>B. 08. Melanoma and other skin cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   08. Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
         <v>81</v>
@@ -8627,7 +8630,7 @@
         <v>956</v>
       </c>
       <c r="I87" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>B08</v>
       </c>
       <c r="J87" s="26" t="s">
@@ -8651,7 +8654,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF(I88&lt;&gt;"",CONCATENATE(D88,". ",IF(E88="",E88,IF(F88="",CONCATENATE(E88,". "),CONCATENATE(E88,".  ",F88,". "))),Q88),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B88" s="2">
@@ -8669,7 +8672,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="42" t="str">
-        <f t="shared" ref="H88:H103" si="5">CONCATENATE("c",D88,E88,F88)</f>
+        <f t="shared" ref="H88:H103" si="7">CONCATENATE("c",D88,E88,F88)</f>
         <v>cB08</v>
       </c>
       <c r="I88" s="42"/>
@@ -8698,7 +8701,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(I89&lt;&gt;"",CONCATENATE(D89,". ",IF(E89="",E89,IF(F89="",CONCATENATE(E89,". "),CONCATENATE(E89,".  ",F89,". "))),Q89),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B89" s="2">
@@ -8716,7 +8719,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB08</v>
       </c>
       <c r="I89" s="42"/>
@@ -8745,8 +8748,8 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF(I90&lt;&gt;"",CONCATENATE(D90,". ",IF(E90="",E90,IF(F90="",CONCATENATE(E90,". "),CONCATENATE(E90,".  ",F90,". "))),Q90),"")</f>
-        <v>B. 09. Breast cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   09. Breast cancer</v>
       </c>
       <c r="B90" s="2">
         <v>84</v>
@@ -8763,11 +8766,11 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB09</v>
       </c>
       <c r="I90" s="42" t="str">
-        <f t="shared" ref="I90:I104" si="6">CONCATENATE(D90,E90,F90)</f>
+        <f t="shared" ref="I90:I104" si="8">CONCATENATE(D90,E90,F90)</f>
         <v>B09</v>
       </c>
       <c r="J90" s="26" t="s">
@@ -8795,8 +8798,8 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(I91&lt;&gt;"",CONCATENATE(D91,". ",IF(E91="",E91,IF(F91="",CONCATENATE(E91,". "),CONCATENATE(E91,".  ",F91,". "))),Q91),"")</f>
-        <v>B. 10. uteri cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   10. uteri cancer</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="74" t="s">
@@ -8812,7 +8815,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="42"/>
       <c r="I91" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>B10</v>
       </c>
       <c r="J91" s="26"/>
@@ -8830,7 +8833,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(I92&lt;&gt;"",CONCATENATE(D92,". ",IF(E92="",E92,IF(F92="",CONCATENATE(E92,". "),CONCATENATE(E92,".  ",F92,". "))),Q92),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B92" s="2">
@@ -8877,7 +8880,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>IF(I93&lt;&gt;"",CONCATENATE(D93,". ",IF(E93="",E93,IF(F93="",CONCATENATE(E93,". "),CONCATENATE(E93,".  ",F93,". "))),Q93),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B93" s="2">
@@ -8895,7 +8898,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB10</v>
       </c>
       <c r="I93" s="42"/>
@@ -8924,8 +8927,8 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>IF(I94&lt;&gt;"",CONCATENATE(D94,". ",IF(E94="",E94,IF(F94="",CONCATENATE(E94,". "),CONCATENATE(E94,".  ",F94,". "))),Q94),"")</f>
-        <v>B. 11. Ovary cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   11. Ovary cancer</v>
       </c>
       <c r="B94" s="2">
         <v>87</v>
@@ -8942,11 +8945,11 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB11</v>
       </c>
       <c r="I94" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>B11</v>
       </c>
       <c r="J94" s="26" t="s">
@@ -8974,8 +8977,8 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>IF(I95&lt;&gt;"",CONCATENATE(D95,". ",IF(E95="",E95,IF(F95="",CONCATENATE(E95,". "),CONCATENATE(E95,".  ",F95,". "))),Q95),"")</f>
-        <v>B. 12. Prostate cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   12. Prostate cancer</v>
       </c>
       <c r="B95" s="2">
         <v>88</v>
@@ -8992,11 +8995,11 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB12</v>
       </c>
       <c r="I95" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>B12</v>
       </c>
       <c r="J95" s="26" t="s">
@@ -9024,7 +9027,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(I96&lt;&gt;"",CONCATENATE(D96,". ",IF(E96="",E96,IF(F96="",CONCATENATE(E96,". "),CONCATENATE(E96,".  ",F96,". "))),Q96),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B96" s="2">
@@ -9042,7 +9045,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I96" s="42"/>
@@ -9071,8 +9074,8 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>IF(I97&lt;&gt;"",CONCATENATE(D97,". ",IF(E97="",E97,IF(F97="",CONCATENATE(E97,". "),CONCATENATE(E97,".  ",F97,". "))),Q97),"")</f>
-        <v>B. 13. Kidney, renal pelvis and ureter cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   13. Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
         <v>90</v>
@@ -9089,11 +9092,11 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB13</v>
       </c>
       <c r="I97" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>B13</v>
       </c>
       <c r="J97" s="26" t="s">
@@ -9121,8 +9124,8 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f>IF(I98&lt;&gt;"",CONCATENATE(D98,". ",IF(E98="",E98,IF(F98="",CONCATENATE(E98,". "),CONCATENATE(E98,".  ",F98,". "))),Q98),"")</f>
-        <v>B. 14. Bladder cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   14. Bladder cancer</v>
       </c>
       <c r="B98" s="2">
         <v>91</v>
@@ -9139,11 +9142,11 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB14</v>
       </c>
       <c r="I98" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>B14</v>
       </c>
       <c r="J98" s="26" t="s">
@@ -9171,8 +9174,8 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f>IF(I99&lt;&gt;"",CONCATENATE(D99,". ",IF(E99="",E99,IF(F99="",CONCATENATE(E99,". "),CONCATENATE(E99,".  ",F99,". "))),Q99),"")</f>
-        <v>B. 15. Brain and nervous system cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   15. Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
         <v>92</v>
@@ -9189,11 +9192,11 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB15</v>
       </c>
       <c r="I99" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>B15</v>
       </c>
       <c r="J99" s="26" t="s">
@@ -9221,7 +9224,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f>IF(I100&lt;&gt;"",CONCATENATE(D100,". ",IF(E100="",E100,IF(F100="",CONCATENATE(E100,". "),CONCATENATE(E100,".  ",F100,". "))),Q100),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B100" s="2">
@@ -9239,7 +9242,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I100" s="42"/>
@@ -9268,7 +9271,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f>IF(I101&lt;&gt;"",CONCATENATE(D101,". ",IF(E101="",E101,IF(F101="",CONCATENATE(E101,". "),CONCATENATE(E101,".  ",F101,". "))),Q101),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B101" s="2">
@@ -9286,7 +9289,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I101" s="42"/>
@@ -9315,7 +9318,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f>IF(I102&lt;&gt;"",CONCATENATE(D102,". ",IF(E102="",E102,IF(F102="",CONCATENATE(E102,". "),CONCATENATE(E102,".  ",F102,". "))),Q102),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B102" s="2">
@@ -9333,7 +9336,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I102" s="42"/>
@@ -9362,7 +9365,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f>IF(I103&lt;&gt;"",CONCATENATE(D103,". ",IF(E103="",E103,IF(F103="",CONCATENATE(E103,". "),CONCATENATE(E103,".  ",F103,". "))),Q103),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B103" s="2">
@@ -9380,7 +9383,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I103" s="42"/>
@@ -9409,8 +9412,8 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f>IF(I104&lt;&gt;"",CONCATENATE(D104,". ",IF(E104="",E104,IF(F104="",CONCATENATE(E104,". "),CONCATENATE(E104,".  ",F104,". "))),Q104),"")</f>
-        <v>B. 16. Lymphomas and multiple myeloma</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   16. Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
         <v>97</v>
@@ -9428,7 +9431,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="42"/>
       <c r="I104" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>B16</v>
       </c>
       <c r="J104" s="26" t="s">
@@ -9456,7 +9459,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f>IF(I105&lt;&gt;"",CONCATENATE(D105,". ",IF(E105="",E105,IF(F105="",CONCATENATE(E105,". "),CONCATENATE(E105,".  ",F105,". "))),Q105),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B105" s="2">
@@ -9476,7 +9479,7 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="42" t="str">
-        <f t="shared" ref="H105:H111" si="7">CONCATENATE("c",D105,E105,F105)</f>
+        <f t="shared" ref="H105:H111" si="9">CONCATENATE("c",D105,E105,F105)</f>
         <v>cB16a</v>
       </c>
       <c r="I105" s="42"/>
@@ -9505,8 +9508,8 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f>IF(I106&lt;&gt;"",CONCATENATE(D106,". ",IF(E106="",E106,IF(F106="",CONCATENATE(E106,". "),CONCATENATE(E106,".  ",F106,". "))),Q106),"")</f>
-        <v>B. 16.  b. Non-Hodgkin lymphoma</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   16.  b. Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
         <v>99</v>
@@ -9525,7 +9528,7 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>cB16b</v>
       </c>
       <c r="I106" s="42" t="str">
@@ -9557,8 +9560,8 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f>IF(I107&lt;&gt;"",CONCATENATE(D107,". ",IF(E107="",E107,IF(F107="",CONCATENATE(E107,". "),CONCATENATE(E107,".  ",F107,". "))),Q107),"")</f>
-        <v>B. 16.  c. Multiple myeloma</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   16.  c. Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
         <v>100</v>
@@ -9577,7 +9580,7 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>cB16c</v>
       </c>
       <c r="I107" s="42" t="str">
@@ -9609,8 +9612,8 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f>IF(I108&lt;&gt;"",CONCATENATE(D108,". ",IF(E108="",E108,IF(F108="",CONCATENATE(E108,". "),CONCATENATE(E108,".  ",F108,". "))),Q108),"")</f>
-        <v>B. 17. Leukaemia</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   17. Leukaemia</v>
       </c>
       <c r="B108" s="2">
         <v>101</v>
@@ -9627,7 +9630,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>cB17</v>
       </c>
       <c r="I108" s="42" t="str">
@@ -9659,8 +9662,8 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f>IF(I109&lt;&gt;"",CONCATENATE(D109,". ",IF(E109="",E109,IF(F109="",CONCATENATE(E109,". "),CONCATENATE(E109,".  ",F109,". "))),Q109),"")</f>
-        <v>B. 99. Other malignant neoplasms</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  B.   99. Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
         <v>102</v>
@@ -9677,7 +9680,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>cB99</v>
       </c>
       <c r="I109" s="42" t="str">
@@ -9705,7 +9708,7 @@
     </row>
     <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f>IF(I110&lt;&gt;"",CONCATENATE(D110,". ",IF(E110="",E110,IF(F110="",CONCATENATE(E110,". "),CONCATENATE(E110,".  ",F110,". "))),Q110),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B110" s="2">
@@ -9723,7 +9726,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>cD99</v>
       </c>
       <c r="I110" s="42"/>
@@ -9752,8 +9755,8 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f>IF(I111&lt;&gt;"",CONCATENATE(D111,". ",IF(E111="",E111,IF(F111="",CONCATENATE(E111,". "),CONCATENATE(E111,".  ",F111,". "))),Q111),"")</f>
-        <v>D. 01. Diabetes mellitus</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   01. Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
         <v>104</v>
@@ -9770,7 +9773,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>cD01</v>
       </c>
       <c r="I111" s="42" t="str">
@@ -9802,8 +9805,8 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f>IF(I112&lt;&gt;"",CONCATENATE(D112,". ",IF(E112="",E112,IF(F112="",CONCATENATE(E112,". "),CONCATENATE(E112,".  ",F112,". "))),Q112),"")</f>
-        <v>D. 02. Endocrine, blood, immune disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   02. Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
         <v>105</v>
@@ -9851,7 +9854,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f>IF(I113&lt;&gt;"",CONCATENATE(D113,". ",IF(E113="",E113,IF(F113="",CONCATENATE(E113,". "),CONCATENATE(E113,".  ",F113,". "))),Q113),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B113" s="2">
@@ -9898,7 +9901,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f>IF(I114&lt;&gt;"",CONCATENATE(D114,". ",IF(E114="",E114,IF(F114="",CONCATENATE(E114,". "),CONCATENATE(E114,".  ",F114,". "))),Q114),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B114" s="2">
@@ -9945,7 +9948,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f>IF(I115&lt;&gt;"",CONCATENATE(D115,". ",IF(E115="",E115,IF(F115="",CONCATENATE(E115,". "),CONCATENATE(E115,".  ",F115,". "))),Q115),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B115" s="2">
@@ -9992,7 +9995,7 @@
     </row>
     <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f>IF(I116&lt;&gt;"",CONCATENATE(D116,". ",IF(E116="",E116,IF(F116="",CONCATENATE(E116,". "),CONCATENATE(E116,".  ",F116,". "))),Q116),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B116" s="2">
@@ -10039,7 +10042,7 @@
     </row>
     <row r="117" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f>IF(I117&lt;&gt;"",CONCATENATE(D117,". ",IF(E117="",E117,IF(F117="",CONCATENATE(E117,". "),CONCATENATE(E117,".  ",F117,". "))),Q117),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B117" s="2">
@@ -10085,8 +10088,8 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f>IF(I118&lt;&gt;"",CONCATENATE(D118,". ",IF(E118="",E118,IF(F118="",CONCATENATE(E118,". "),CONCATENATE(E118,".  ",F118,". "))),Q118),"")</f>
-        <v>D. 03. Mental Health disoders (non-subsance use)</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   03. Mental Health disoders (non-subsance use)</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="64" t="s">
@@ -10122,8 +10125,8 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f>IF(I119&lt;&gt;"",CONCATENATE(D119,". ",IF(E119="",E119,IF(F119="",CONCATENATE(E119,". "),CONCATENATE(E119,".  ",F119,". "))),Q119),"")</f>
-        <v>D. 04. Substance use (Mental Health)</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   04. Substance use (Mental Health)</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="64" t="s">
@@ -10157,7 +10160,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f>IF(I120&lt;&gt;"",CONCATENATE(D120,". ",IF(E120="",E120,IF(F120="",CONCATENATE(E120,". "),CONCATENATE(E120,".  ",F120,". "))),Q120),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B120" s="2"/>
@@ -10183,7 +10186,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f>IF(I121&lt;&gt;"",CONCATENATE(D121,". ",IF(E121="",E121,IF(F121="",CONCATENATE(E121,". "),CONCATENATE(E121,".  ",F121,". "))),Q121),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B121" s="2">
@@ -10219,7 +10222,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f>IF(I122&lt;&gt;"",CONCATENATE(D122,". ",IF(E122="",E122,IF(F122="",CONCATENATE(E122,". "),CONCATENATE(E122,".  ",F122,". "))),Q122),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B122" s="2">
@@ -10262,7 +10265,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f>IF(I123&lt;&gt;"",CONCATENATE(D123,". ",IF(E123="",E123,IF(F123="",CONCATENATE(E123,". "),CONCATENATE(E123,".  ",F123,". "))),Q123),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B123" s="2">
@@ -10305,7 +10308,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f>IF(I124&lt;&gt;"",CONCATENATE(D124,". ",IF(E124="",E124,IF(F124="",CONCATENATE(E124,". "),CONCATENATE(E124,".  ",F124,". "))),Q124),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B124" s="2">
@@ -10348,7 +10351,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f>IF(I125&lt;&gt;"",CONCATENATE(D125,". ",IF(E125="",E125,IF(F125="",CONCATENATE(E125,". "),CONCATENATE(E125,".  ",F125,". "))),Q125),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B125" s="2">
@@ -10395,8 +10398,8 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f>IF(I126&lt;&gt;"",CONCATENATE(D126,". ",IF(E126="",E126,IF(F126="",CONCATENATE(E126,". "),CONCATENATE(E126,".  ",F126,". "))),Q126),"")</f>
-        <v>D. 04.  a. Alcohol use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   04.  a. Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
         <v>116</v>
@@ -10447,7 +10450,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f>IF(I127&lt;&gt;"",CONCATENATE(D127,". ",IF(E127="",E127,IF(F127="",CONCATENATE(E127,". "),CONCATENATE(E127,".  ",F127,". "))),Q127),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B127" s="2">
@@ -10487,8 +10490,8 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f>IF(I128&lt;&gt;"",CONCATENATE(D128,". ",IF(E128="",E128,IF(F128="",CONCATENATE(E128,". "),CONCATENATE(E128,".  ",F128,". "))),Q128),"")</f>
-        <v>D. 04.  b. Opioid use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   04.  b. Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
         <v>118</v>
@@ -10507,7 +10510,7 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="42" t="str">
-        <f t="shared" ref="H128:H135" si="8">CONCATENATE("c",D128,E128,F128)</f>
+        <f t="shared" ref="H128:H135" si="10">CONCATENATE("c",D128,E128,F128)</f>
         <v>cD04b</v>
       </c>
       <c r="I128" s="42" t="str">
@@ -10539,8 +10542,8 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f>IF(I129&lt;&gt;"",CONCATENATE(D129,". ",IF(E129="",E129,IF(F129="",CONCATENATE(E129,". "),CONCATENATE(E129,".  ",F129,". "))),Q129),"")</f>
-        <v>D. 04.  c. Cocaine use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   04.  c. Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
         <v>119</v>
@@ -10559,7 +10562,7 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD04c</v>
       </c>
       <c r="I129" s="42" t="str">
@@ -10591,8 +10594,8 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f>IF(I130&lt;&gt;"",CONCATENATE(D130,". ",IF(E130="",E130,IF(F130="",CONCATENATE(E130,". "),CONCATENATE(E130,".  ",F130,". "))),Q130),"")</f>
-        <v>D. 04.  d. Amphetamine use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  D.   04.  d. Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
         <v>120</v>
@@ -10611,7 +10614,7 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD04d</v>
       </c>
       <c r="I130" s="42" t="str">
@@ -10643,7 +10646,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f>IF(I131&lt;&gt;"",CONCATENATE(D131,". ",IF(E131="",E131,IF(F131="",CONCATENATE(E131,". "),CONCATENATE(E131,".  ",F131,". "))),Q131),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -10661,7 +10664,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD04</v>
       </c>
       <c r="I131" s="42"/>
@@ -10686,7 +10689,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f>IF(I132&lt;&gt;"",CONCATENATE(D132,". ",IF(E132="",E132,IF(F132="",CONCATENATE(E132,". "),CONCATENATE(E132,".  ",F132,". "))),Q132),"")</f>
+        <f t="shared" ref="A132:A195" si="11">IF(I132&lt;&gt;"",CONCATENATE("  ",D132,". ",IF(E132="",E132,IF(F132="",CONCATENATE("  ",E132,". "),CONCATENATE("  ",E132,".  ",F132,". "))),Q132),"")</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -10704,7 +10707,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD04</v>
       </c>
       <c r="I132" s="42"/>
@@ -10733,7 +10736,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f>IF(I133&lt;&gt;"",CONCATENATE(D133,". ",IF(E133="",E133,IF(F133="",CONCATENATE(E133,". "),CONCATENATE(E133,".  ",F133,". "))),Q133),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B133" s="2">
@@ -10751,7 +10754,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD03</v>
       </c>
       <c r="I133" s="42"/>
@@ -10776,7 +10779,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f>IF(I134&lt;&gt;"",CONCATENATE(D134,". ",IF(E134="",E134,IF(F134="",CONCATENATE(E134,". "),CONCATENATE(E134,".  ",F134,". "))),Q134),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B134" s="2">
@@ -10794,7 +10797,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD03</v>
       </c>
       <c r="I134" s="42"/>
@@ -10823,7 +10826,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>IF(I135&lt;&gt;"",CONCATENATE(D135,". ",IF(E135="",E135,IF(F135="",CONCATENATE(E135,". "),CONCATENATE(E135,".  ",F135,". "))),Q135),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B135" s="2">
@@ -10841,7 +10844,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD03</v>
       </c>
       <c r="I135" s="42"/>
@@ -10866,7 +10869,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>IF(I136&lt;&gt;"",CONCATENATE(D136,". ",IF(E136="",E136,IF(F136="",CONCATENATE(E136,". "),CONCATENATE(E136,".  ",F136,". "))),Q136),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B136" s="2">
@@ -10902,7 +10905,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>IF(I137&lt;&gt;"",CONCATENATE(D137,". ",IF(E137="",E137,IF(F137="",CONCATENATE(E137,". "),CONCATENATE(E137,".  ",F137,". "))),Q137),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B137" s="2">
@@ -10945,7 +10948,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f>IF(I138&lt;&gt;"",CONCATENATE(D138,". ",IF(E138="",E138,IF(F138="",CONCATENATE(E138,". "),CONCATENATE(E138,".  ",F138,". "))),Q138),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B138" s="2">
@@ -10988,7 +10991,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f>IF(I139&lt;&gt;"",CONCATENATE(D139,". ",IF(E139="",E139,IF(F139="",CONCATENATE(E139,". "),CONCATENATE(E139,".  ",F139,". "))),Q139),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B139" s="2">
@@ -11031,7 +11034,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f>IF(I140&lt;&gt;"",CONCATENATE(D140,". ",IF(E140="",E140,IF(F140="",CONCATENATE(E140,". "),CONCATENATE(E140,".  ",F140,". "))),Q140),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B140" s="2">
@@ -11074,7 +11077,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f>IF(I141&lt;&gt;"",CONCATENATE(D141,". ",IF(E141="",E141,IF(F141="",CONCATENATE(E141,". "),CONCATENATE(E141,".  ",F141,". "))),Q141),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B141" s="2">
@@ -11120,8 +11123,8 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f>IF(I142&lt;&gt;"",CONCATENATE(D142,". ",IF(E142="",E142,IF(F142="",CONCATENATE(E142,". "),CONCATENATE(E142,".  ",F142,". "))),Q142),"")</f>
-        <v>D. 05. Alzheimer’s disease and other dementias</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  D.   05. Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
         <v>132</v>
@@ -11138,7 +11141,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="42" t="str">
-        <f t="shared" ref="H142:H148" si="9">CONCATENATE("c",D142,E142,F142)</f>
+        <f t="shared" ref="H142:H148" si="12">CONCATENATE("c",D142,E142,F142)</f>
         <v>cD05</v>
       </c>
       <c r="I142" s="42" t="str">
@@ -11170,7 +11173,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f>IF(I143&lt;&gt;"",CONCATENATE(D143,". ",IF(E143="",E143,IF(F143="",CONCATENATE(E143,". "),CONCATENATE(E143,".  ",F143,". "))),Q143),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B143" s="2">
@@ -11188,7 +11191,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I143" s="42"/>
@@ -11217,7 +11220,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f>IF(I144&lt;&gt;"",CONCATENATE(D144,". ",IF(E144="",E144,IF(F144="",CONCATENATE(E144,". "),CONCATENATE(E144,".  ",F144,". "))),Q144),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B144" s="2">
@@ -11235,7 +11238,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I144" s="42"/>
@@ -11264,7 +11267,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f>IF(I145&lt;&gt;"",CONCATENATE(D145,". ",IF(E145="",E145,IF(F145="",CONCATENATE(E145,". "),CONCATENATE(E145,".  ",F145,". "))),Q145),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B145" s="2">
@@ -11282,7 +11285,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I145" s="42"/>
@@ -11311,7 +11314,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f>IF(I146&lt;&gt;"",CONCATENATE(D146,". ",IF(E146="",E146,IF(F146="",CONCATENATE(E146,". "),CONCATENATE(E146,".  ",F146,". "))),Q146),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B146" s="2">
@@ -11329,7 +11332,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I146" s="42"/>
@@ -11354,7 +11357,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f>IF(I147&lt;&gt;"",CONCATENATE(D147,". ",IF(E147="",E147,IF(F147="",CONCATENATE(E147,". "),CONCATENATE(E147,".  ",F147,". "))),Q147),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B147" s="2">
@@ -11372,7 +11375,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I147" s="42"/>
@@ -11397,8 +11400,8 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f>IF(I148&lt;&gt;"",CONCATENATE(D148,". ",IF(E148="",E148,IF(F148="",CONCATENATE(E148,". "),CONCATENATE(E148,".  ",F148,". "))),Q148),"")</f>
-        <v>D. 06. Other neurological conditions</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  D.   06. Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
         <v>138</v>
@@ -11415,7 +11418,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I148" s="42" t="str">
@@ -11447,7 +11450,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f>IF(I149&lt;&gt;"",CONCATENATE(D149,". ",IF(E149="",E149,IF(F149="",CONCATENATE(E149,". "),CONCATENATE(E149,".  ",F149,". "))),Q149),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B149" s="2">
@@ -11489,7 +11492,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f>IF(I150&lt;&gt;"",CONCATENATE(D150,". ",IF(E150="",E150,IF(F150="",CONCATENATE(E150,". "),CONCATENATE(E150,".  ",F150,". "))),Q150),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B150" s="2">
@@ -11507,7 +11510,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="42" t="str">
-        <f t="shared" ref="H150:H156" si="10">CONCATENATE("c",D150,E150,F150)</f>
+        <f t="shared" ref="H150:H156" si="13">CONCATENATE("c",D150,E150,F150)</f>
         <v>cD99</v>
       </c>
       <c r="I150" s="42"/>
@@ -11532,7 +11535,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f>IF(I151&lt;&gt;"",CONCATENATE(D151,". ",IF(E151="",E151,IF(F151="",CONCATENATE(E151,". "),CONCATENATE(E151,".  ",F151,". "))),Q151),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B151" s="2">
@@ -11550,7 +11553,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I151" s="42"/>
@@ -11575,7 +11578,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f>IF(I152&lt;&gt;"",CONCATENATE(D152,". ",IF(E152="",E152,IF(F152="",CONCATENATE(E152,". "),CONCATENATE(E152,".  ",F152,". "))),Q152),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B152" s="2">
@@ -11593,7 +11596,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I152" s="42"/>
@@ -11618,7 +11621,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f>IF(I153&lt;&gt;"",CONCATENATE(D153,". ",IF(E153="",E153,IF(F153="",CONCATENATE(E153,". "),CONCATENATE(E153,".  ",F153,". "))),Q153),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B153" s="2">
@@ -11636,7 +11639,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I153" s="42"/>
@@ -11661,7 +11664,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f>IF(I154&lt;&gt;"",CONCATENATE(D154,". ",IF(E154="",E154,IF(F154="",CONCATENATE(E154,". "),CONCATENATE(E154,".  ",F154,". "))),Q154),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B154" s="2">
@@ -11679,7 +11682,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I154" s="42"/>
@@ -11704,7 +11707,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f>IF(I155&lt;&gt;"",CONCATENATE(D155,". ",IF(E155="",E155,IF(F155="",CONCATENATE(E155,". "),CONCATENATE(E155,".  ",F155,". "))),Q155),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B155" s="2">
@@ -11722,7 +11725,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I155" s="42"/>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f>IF(I156&lt;&gt;"",CONCATENATE(D156,". ",IF(E156="",E156,IF(F156="",CONCATENATE(E156,". "),CONCATENATE(E156,".  ",F156,". "))),Q156),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B156" s="2">
@@ -11765,7 +11768,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I156" s="42"/>
@@ -11792,8 +11795,8 @@
     </row>
     <row r="157" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f>IF(I157&lt;&gt;"",CONCATENATE(D157,". ",IF(E157="",E157,IF(F157="",CONCATENATE(E157,". "),CONCATENATE(E157,".  ",F157,". "))),Q157),"")</f>
-        <v>C. Cardiovascular diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  C. Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
         <v>147</v>
@@ -11837,7 +11840,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f>IF(I158&lt;&gt;"",CONCATENATE(D158,". ",IF(E158="",E158,IF(F158="",CONCATENATE(E158,". "),CONCATENATE(E158,".  ",F158,". "))),Q158),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B158" s="2">
@@ -11855,7 +11858,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="42" t="str">
-        <f t="shared" ref="H158:H163" si="11">CONCATENATE("c",D158,E158,F158)</f>
+        <f t="shared" ref="H158:H163" si="14">CONCATENATE("c",D158,E158,F158)</f>
         <v>cC99</v>
       </c>
       <c r="I158" s="42"/>
@@ -11884,8 +11887,8 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f>IF(I159&lt;&gt;"",CONCATENATE(D159,". ",IF(E159="",E159,IF(F159="",CONCATENATE(E159,". "),CONCATENATE(E159,".  ",F159,". "))),Q159),"")</f>
-        <v>C. 01. Hypertensive heart disease</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  C.   01. Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
         <v>149</v>
@@ -11902,7 +11905,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cC01</v>
       </c>
       <c r="I159" s="42" t="str">
@@ -11934,8 +11937,8 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f>IF(I160&lt;&gt;"",CONCATENATE(D160,". ",IF(E160="",E160,IF(F160="",CONCATENATE(E160,". "),CONCATENATE(E160,".  ",F160,". "))),Q160),"")</f>
-        <v>C. 02. Ischaemic heart disease</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  C.   02. Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
         <v>150</v>
@@ -11952,7 +11955,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cC02</v>
       </c>
       <c r="I160" s="42" t="str">
@@ -11984,8 +11987,8 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f>IF(I161&lt;&gt;"",CONCATENATE(D161,". ",IF(E161="",E161,IF(F161="",CONCATENATE(E161,". "),CONCATENATE(E161,".  ",F161,". "))),Q161),"")</f>
-        <v>C. 03. Stroke</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  C.   03. Stroke</v>
       </c>
       <c r="B161" s="2">
         <v>151</v>
@@ -12002,7 +12005,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cC03</v>
       </c>
       <c r="I161" s="42" t="str">
@@ -12034,8 +12037,8 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f>IF(I162&lt;&gt;"",CONCATENATE(D162,". ",IF(E162="",E162,IF(F162="",CONCATENATE(E162,". "),CONCATENATE(E162,".  ",F162,". "))),Q162),"")</f>
-        <v>C. 04. Cardiomyopathy, myocarditis, endocarditis</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  C.   04. Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
         <v>152</v>
@@ -12052,7 +12055,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cC04</v>
       </c>
       <c r="I162" s="42" t="str">
@@ -12084,8 +12087,8 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f>IF(I163&lt;&gt;"",CONCATENATE(D163,". ",IF(E163="",E163,IF(F163="",CONCATENATE(E163,". "),CONCATENATE(E163,".  ",F163,". "))),Q163),"")</f>
-        <v>C. 99. Other cardiovascular diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  C.   99. Other cardiovascular diseases</v>
       </c>
       <c r="B163" s="2">
         <v>153</v>
@@ -12102,7 +12105,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cC99</v>
       </c>
       <c r="I163" s="42" t="str">
@@ -12134,7 +12137,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f>IF(I164&lt;&gt;"",CONCATENATE(D164,". ",IF(E164="",E164,IF(F164="",CONCATENATE(E164,". "),CONCATENATE(E164,".  ",F164,". "))),Q164),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B164" s="2">
@@ -12178,8 +12181,8 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f>IF(I165&lt;&gt;"",CONCATENATE(D165,". ",IF(E165="",E165,IF(F165="",CONCATENATE(E165,". "),CONCATENATE(E165,".  ",F165,". "))),Q165),"")</f>
-        <v>D. 06. Chronic obstructive pulmonary disease</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  D.   07. Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B165" s="2">
         <v>155</v>
@@ -12191,17 +12194,17 @@
         <v>1155</v>
       </c>
       <c r="E165" s="69" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="42" t="str">
         <f>CONCATENATE("c",D165,E165,F165)</f>
-        <v>cD06</v>
+        <v>cD07</v>
       </c>
       <c r="I165" s="42" t="str">
         <f>CONCATENATE(D165,E165,F165)</f>
-        <v>D06</v>
+        <v>D07</v>
       </c>
       <c r="J165" s="26" t="s">
         <v>472</v>
@@ -12228,7 +12231,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f>IF(I166&lt;&gt;"",CONCATENATE(D166,". ",IF(E166="",E166,IF(F166="",CONCATENATE(E166,". "),CONCATENATE(E166,".  ",F166,". "))),Q166),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B166" s="2">
@@ -12241,13 +12244,13 @@
         <v>1155</v>
       </c>
       <c r="E166" s="69" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="42" t="str">
         <f>CONCATENATE("c",D166,E166,F166)</f>
-        <v>cD07</v>
+        <v>cD08</v>
       </c>
       <c r="I166" s="42"/>
       <c r="J166" s="26" t="s">
@@ -12275,8 +12278,8 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f>IF(I167&lt;&gt;"",CONCATENATE(D167,". ",IF(E167="",E167,IF(F167="",CONCATENATE(E167,". "),CONCATENATE(E167,".  ",F167,". "))),Q167),"")</f>
-        <v>D. 07. Other respiratory diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  D.   08. Other respiratory diseases</v>
       </c>
       <c r="B167" s="2">
         <v>157</v>
@@ -12288,17 +12291,17 @@
         <v>1155</v>
       </c>
       <c r="E167" s="69" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="42" t="str">
         <f>CONCATENATE("c",D167,E167,F167)</f>
-        <v>cD07</v>
+        <v>cD08</v>
       </c>
       <c r="I167" s="42" t="str">
         <f>CONCATENATE(D167,E167,F167)</f>
-        <v>D07</v>
+        <v>D08</v>
       </c>
       <c r="J167" s="26" t="s">
         <v>474</v>
@@ -12325,8 +12328,8 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f>IF(I168&lt;&gt;"",CONCATENATE(D168,". ",IF(E168="",E168,IF(F168="",CONCATENATE(E168,". "),CONCATENATE(E168,".  ",F168,". "))),Q168),"")</f>
-        <v>D. 08. Digestive diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  D.   09. Digestive diseases</v>
       </c>
       <c r="B168" s="2">
         <v>158</v>
@@ -12338,7 +12341,7 @@
         <v>1155</v>
       </c>
       <c r="E168" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -12347,7 +12350,7 @@
       </c>
       <c r="I168" s="42" t="str">
         <f>CONCATENATE(D168,E168,F168)</f>
-        <v>D08</v>
+        <v>D09</v>
       </c>
       <c r="J168" s="26" t="s">
         <v>475</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f>IF(I169&lt;&gt;"",CONCATENATE(D169,". ",IF(E169="",E169,IF(F169="",CONCATENATE(E169,". "),CONCATENATE(E169,".  ",F169,". "))),Q169),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B169" s="2">
@@ -12387,13 +12390,13 @@
         <v>1155</v>
       </c>
       <c r="E169" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="42" t="str">
-        <f t="shared" ref="H169:H177" si="12">CONCATENATE("c",D169,E169,F169)</f>
-        <v>cD08</v>
+        <f t="shared" ref="H169:H177" si="15">CONCATENATE("c",D169,E169,F169)</f>
+        <v>cD09</v>
       </c>
       <c r="I169" s="42"/>
       <c r="J169" s="26" t="s">
@@ -12421,7 +12424,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f>IF(I170&lt;&gt;"",CONCATENATE(D170,". ",IF(E170="",E170,IF(F170="",CONCATENATE(E170,". "),CONCATENATE(E170,".  ",F170,". "))),Q170),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B170" s="2">
@@ -12434,13 +12437,13 @@
         <v>1155</v>
       </c>
       <c r="E170" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I170" s="42"/>
       <c r="J170" s="26" t="s">
@@ -12468,7 +12471,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f>IF(I171&lt;&gt;"",CONCATENATE(D171,". ",IF(E171="",E171,IF(F171="",CONCATENATE(E171,". "),CONCATENATE(E171,".  ",F171,". "))),Q171),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B171" s="2">
@@ -12481,13 +12484,13 @@
         <v>1155</v>
       </c>
       <c r="E171" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I171" s="42"/>
       <c r="J171" s="26" t="s">
@@ -12515,7 +12518,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f>IF(I172&lt;&gt;"",CONCATENATE(D172,". ",IF(E172="",E172,IF(F172="",CONCATENATE(E172,". "),CONCATENATE(E172,".  ",F172,". "))),Q172),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B172" s="2">
@@ -12528,13 +12531,13 @@
         <v>1155</v>
       </c>
       <c r="E172" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I172" s="42"/>
       <c r="J172" s="26" t="s">
@@ -12562,7 +12565,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f>IF(I173&lt;&gt;"",CONCATENATE(D173,". ",IF(E173="",E173,IF(F173="",CONCATENATE(E173,". "),CONCATENATE(E173,".  ",F173,". "))),Q173),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B173" s="2">
@@ -12575,13 +12578,13 @@
         <v>1155</v>
       </c>
       <c r="E173" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I173" s="42"/>
       <c r="J173" s="26" t="s">
@@ -12609,7 +12612,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f>IF(I174&lt;&gt;"",CONCATENATE(D174,". ",IF(E174="",E174,IF(F174="",CONCATENATE(E174,". "),CONCATENATE(E174,".  ",F174,". "))),Q174),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B174" s="2">
@@ -12622,13 +12625,13 @@
         <v>1155</v>
       </c>
       <c r="E174" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I174" s="42"/>
       <c r="J174" s="26" t="s">
@@ -12656,7 +12659,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f>IF(I175&lt;&gt;"",CONCATENATE(D175,". ",IF(E175="",E175,IF(F175="",CONCATENATE(E175,". "),CONCATENATE(E175,".  ",F175,". "))),Q175),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B175" s="2">
@@ -12669,13 +12672,13 @@
         <v>1155</v>
       </c>
       <c r="E175" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I175" s="42"/>
       <c r="J175" s="26" t="s">
@@ -12703,7 +12706,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f>IF(I176&lt;&gt;"",CONCATENATE(D176,". ",IF(E176="",E176,IF(F176="",CONCATENATE(E176,". "),CONCATENATE(E176,".  ",F176,". "))),Q176),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B176" s="2">
@@ -12716,13 +12719,13 @@
         <v>1155</v>
       </c>
       <c r="E176" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I176" s="42"/>
       <c r="J176" s="26" t="s">
@@ -12750,7 +12753,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f>IF(I177&lt;&gt;"",CONCATENATE(D177,". ",IF(E177="",E177,IF(F177="",CONCATENATE(E177,". "),CONCATENATE(E177,".  ",F177,". "))),Q177),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B177" s="2">
@@ -12763,13 +12766,13 @@
         <v>1155</v>
       </c>
       <c r="E177" s="69" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="42" t="str">
-        <f t="shared" si="12"/>
-        <v>cD08</v>
+        <f t="shared" si="15"/>
+        <v>cD09</v>
       </c>
       <c r="I177" s="42"/>
       <c r="J177" s="26" t="s">
@@ -12797,7 +12800,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f>IF(I178&lt;&gt;"",CONCATENATE(D178,". ",IF(E178="",E178,IF(F178="",CONCATENATE(E178,". "),CONCATENATE(E178,".  ",F178,". "))),Q178),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B178" s="2">
@@ -12839,8 +12842,8 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f>IF(I179&lt;&gt;"",CONCATENATE(D179,". ",IF(E179="",E179,IF(F179="",CONCATENATE(E179,". "),CONCATENATE(E179,".  ",F179,". "))),Q179),"")</f>
-        <v>D. 09. Kidney diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  D.   10. Kidney diseases</v>
       </c>
       <c r="B179" s="2">
         <v>169</v>
@@ -12852,7 +12855,7 @@
         <v>1155</v>
       </c>
       <c r="E179" s="69" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -12861,7 +12864,7 @@
       </c>
       <c r="I179" s="42" t="str">
         <f>CONCATENATE(D179,E179,F179)</f>
-        <v>D09</v>
+        <v>D10</v>
       </c>
       <c r="J179" s="26" t="s">
         <v>959</v>
@@ -12888,7 +12891,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f>IF(I180&lt;&gt;"",CONCATENATE(D180,". ",IF(E180="",E180,IF(F180="",CONCATENATE(E180,". "),CONCATENATE(E180,".  ",F180,". "))),Q180),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B180" s="2">
@@ -12901,13 +12904,13 @@
         <v>1155</v>
       </c>
       <c r="E180" s="69" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="42" t="str">
-        <f t="shared" ref="H180:H188" si="13">CONCATENATE("c",D180,E180,F180)</f>
-        <v>cD09</v>
+        <f t="shared" ref="H180:H188" si="16">CONCATENATE("c",D180,E180,F180)</f>
+        <v>cD10</v>
       </c>
       <c r="I180" s="42"/>
       <c r="J180" s="26" t="s">
@@ -12935,7 +12938,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f>IF(I181&lt;&gt;"",CONCATENATE(D181,". ",IF(E181="",E181,IF(F181="",CONCATENATE(E181,". "),CONCATENATE(E181,".  ",F181,". "))),Q181),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B181" s="2">
@@ -12948,13 +12951,13 @@
         <v>1155</v>
       </c>
       <c r="E181" s="69" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="42" t="str">
-        <f t="shared" si="13"/>
-        <v>cD09</v>
+        <f t="shared" si="16"/>
+        <v>cD10</v>
       </c>
       <c r="I181" s="42"/>
       <c r="J181" s="26" t="s">
@@ -12982,7 +12985,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f>IF(I182&lt;&gt;"",CONCATENATE(D182,". ",IF(E182="",E182,IF(F182="",CONCATENATE(E182,". "),CONCATENATE(E182,".  ",F182,". "))),Q182),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B182" s="2">
@@ -12995,13 +12998,13 @@
         <v>1155</v>
       </c>
       <c r="E182" s="69" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="42" t="str">
-        <f t="shared" si="13"/>
-        <v>cD09</v>
+        <f t="shared" si="16"/>
+        <v>cD10</v>
       </c>
       <c r="I182" s="42"/>
       <c r="J182" s="26" t="s">
@@ -13029,7 +13032,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f>IF(I183&lt;&gt;"",CONCATENATE(D183,". ",IF(E183="",E183,IF(F183="",CONCATENATE(E183,". "),CONCATENATE(E183,".  ",F183,". "))),Q183),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B183" s="2">
@@ -13047,7 +13050,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I183" s="42"/>
@@ -13072,7 +13075,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f>IF(I184&lt;&gt;"",CONCATENATE(D184,". ",IF(E184="",E184,IF(F184="",CONCATENATE(E184,". "),CONCATENATE(E184,".  ",F184,". "))),Q184),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B184" s="2">
@@ -13090,7 +13093,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I184" s="42"/>
@@ -13119,7 +13122,7 @@
     </row>
     <row r="185" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f>IF(I185&lt;&gt;"",CONCATENATE(D185,". ",IF(E185="",E185,IF(F185="",CONCATENATE(E185,". "),CONCATENATE(E185,".  ",F185,". "))),Q185),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B185" s="2">
@@ -13137,7 +13140,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I185" s="42"/>
@@ -13166,7 +13169,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f>IF(I186&lt;&gt;"",CONCATENATE(D186,". ",IF(E186="",E186,IF(F186="",CONCATENATE(E186,". "),CONCATENATE(E186,".  ",F186,". "))),Q186),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B186" s="2">
@@ -13184,7 +13187,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I186" s="42"/>
@@ -13213,7 +13216,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f>IF(I187&lt;&gt;"",CONCATENATE(D187,". ",IF(E187="",E187,IF(F187="",CONCATENATE(E187,". "),CONCATENATE(E187,".  ",F187,". "))),Q187),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B187" s="2">
@@ -13231,7 +13234,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I187" s="42"/>
@@ -13260,7 +13263,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f>IF(I188&lt;&gt;"",CONCATENATE(D188,". ",IF(E188="",E188,IF(F188="",CONCATENATE(E188,". "),CONCATENATE(E188,".  ",F188,". "))),Q188),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B188" s="2">
@@ -13278,7 +13281,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I188" s="42"/>
@@ -13307,7 +13310,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f>IF(I189&lt;&gt;"",CONCATENATE(D189,". ",IF(E189="",E189,IF(F189="",CONCATENATE(E189,". "),CONCATENATE(E189,".  ",F189,". "))),Q189),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B189" s="2">
@@ -13353,7 +13356,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f>IF(I190&lt;&gt;"",CONCATENATE(D190,". ",IF(E190="",E190,IF(F190="",CONCATENATE(E190,". "),CONCATENATE(E190,".  ",F190,". "))),Q190),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B190" s="2">
@@ -13400,7 +13403,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f>IF(I191&lt;&gt;"",CONCATENATE(D191,". ",IF(E191="",E191,IF(F191="",CONCATENATE(E191,". "),CONCATENATE(E191,".  ",F191,". "))),Q191),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B191" s="2">
@@ -13443,7 +13446,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f>IF(I192&lt;&gt;"",CONCATENATE(D192,". ",IF(E192="",E192,IF(F192="",CONCATENATE(E192,". "),CONCATENATE(E192,".  ",F192,". "))),Q192),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B192" s="2">
@@ -13486,7 +13489,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f>IF(I193&lt;&gt;"",CONCATENATE(D193,". ",IF(E193="",E193,IF(F193="",CONCATENATE(E193,". "),CONCATENATE(E193,".  ",F193,". "))),Q193),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B193" s="2">
@@ -13529,7 +13532,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f>IF(I194&lt;&gt;"",CONCATENATE(D194,". ",IF(E194="",E194,IF(F194="",CONCATENATE(E194,". "),CONCATENATE(E194,".  ",F194,". "))),Q194),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B194" s="2">
@@ -13576,8 +13579,8 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f>IF(I195&lt;&gt;"",CONCATENATE(D195,". ",IF(E195="",E195,IF(F195="",CONCATENATE(E195,". "),CONCATENATE(E195,".  ",F195,". "))),Q195),"")</f>
-        <v>D. 10. Congenital anomalies</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">  D.   11. Congenital anomalies</v>
       </c>
       <c r="B195" s="2">
         <v>185</v>
@@ -13588,8 +13591,8 @@
       <c r="D195" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E195" s="69">
-        <v>10</v>
+      <c r="E195" s="69" t="s">
+        <v>1176</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -13598,7 +13601,7 @@
       </c>
       <c r="I195" s="42" t="str">
         <f>CONCATENATE(D195,E195,F195)</f>
-        <v>D10</v>
+        <v>D11</v>
       </c>
       <c r="J195" s="26" t="s">
         <v>491</v>
@@ -13625,7 +13628,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f>IF(I196&lt;&gt;"",CONCATENATE(D196,". ",IF(E196="",E196,IF(F196="",CONCATENATE(E196,". "),CONCATENATE(E196,".  ",F196,". "))),Q196),"")</f>
+        <f t="shared" ref="A196:A220" si="17">IF(I196&lt;&gt;"",CONCATENATE("  ",D196,". ",IF(E196="",E196,IF(F196="",CONCATENATE("  ",E196,". "),CONCATENATE("  ",E196,".  ",F196,". "))),Q196),"")</f>
         <v/>
       </c>
       <c r="B196" s="2">
@@ -13637,14 +13640,14 @@
       <c r="D196" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E196" s="69">
-        <v>10</v>
+      <c r="E196" s="69" t="s">
+        <v>1176</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="42" t="str">
-        <f t="shared" ref="H196:H201" si="14">CONCATENATE("c",D196,E196,F196)</f>
-        <v>cD10</v>
+        <f t="shared" ref="H196:H201" si="18">CONCATENATE("c",D196,E196,F196)</f>
+        <v>cD11</v>
       </c>
       <c r="I196" s="42"/>
       <c r="J196" s="26" t="s">
@@ -13672,7 +13675,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
-        <f>IF(I197&lt;&gt;"",CONCATENATE(D197,". ",IF(E197="",E197,IF(F197="",CONCATENATE(E197,". "),CONCATENATE(E197,".  ",F197,". "))),Q197),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B197" s="2">
@@ -13684,14 +13687,14 @@
       <c r="D197" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E197" s="69">
-        <v>10</v>
+      <c r="E197" s="69" t="s">
+        <v>1176</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>cD10</v>
+        <f t="shared" si="18"/>
+        <v>cD11</v>
       </c>
       <c r="I197" s="42"/>
       <c r="J197" s="26" t="s">
@@ -13719,7 +13722,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
-        <f>IF(I198&lt;&gt;"",CONCATENATE(D198,". ",IF(E198="",E198,IF(F198="",CONCATENATE(E198,". "),CONCATENATE(E198,".  ",F198,". "))),Q198),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B198" s="2">
@@ -13731,14 +13734,14 @@
       <c r="D198" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E198" s="69">
-        <v>10</v>
+      <c r="E198" s="69" t="s">
+        <v>1176</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>cD10</v>
+        <f t="shared" si="18"/>
+        <v>cD11</v>
       </c>
       <c r="I198" s="42"/>
       <c r="J198" s="26" t="s">
@@ -13766,7 +13769,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
-        <f>IF(I199&lt;&gt;"",CONCATENATE(D199,". ",IF(E199="",E199,IF(F199="",CONCATENATE(E199,". "),CONCATENATE(E199,".  ",F199,". "))),Q199),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B199" s="2">
@@ -13778,14 +13781,14 @@
       <c r="D199" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E199" s="69">
-        <v>10</v>
+      <c r="E199" s="69" t="s">
+        <v>1176</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>cD10</v>
+        <f t="shared" si="18"/>
+        <v>cD11</v>
       </c>
       <c r="I199" s="42"/>
       <c r="J199" s="26" t="s">
@@ -13813,7 +13816,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
-        <f>IF(I200&lt;&gt;"",CONCATENATE(D200,". ",IF(E200="",E200,IF(F200="",CONCATENATE(E200,". "),CONCATENATE(E200,".  ",F200,". "))),Q200),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B200" s="2">
@@ -13825,14 +13828,14 @@
       <c r="D200" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E200" s="69">
-        <v>10</v>
+      <c r="E200" s="69" t="s">
+        <v>1176</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>cD10</v>
+        <f t="shared" si="18"/>
+        <v>cD11</v>
       </c>
       <c r="I200" s="42"/>
       <c r="J200" s="26" t="s">
@@ -13860,7 +13863,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
-        <f>IF(I201&lt;&gt;"",CONCATENATE(D201,". ",IF(E201="",E201,IF(F201="",CONCATENATE(E201,". "),CONCATENATE(E201,".  ",F201,". "))),Q201),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B201" s="2">
@@ -13872,14 +13875,14 @@
       <c r="D201" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="E201" s="69">
-        <v>10</v>
+      <c r="E201" s="69" t="s">
+        <v>1176</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>cD10</v>
+        <f t="shared" si="18"/>
+        <v>cD11</v>
       </c>
       <c r="I201" s="42"/>
       <c r="J201" s="26" t="s">
@@ -13907,7 +13910,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
-        <f>IF(I202&lt;&gt;"",CONCATENATE(D202,". ",IF(E202="",E202,IF(F202="",CONCATENATE(E202,". "),CONCATENATE(E202,".  ",F202,". "))),Q202),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B202" s="2">
@@ -13947,7 +13950,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
-        <f>IF(I203&lt;&gt;"",CONCATENATE(D203,". ",IF(E203="",E203,IF(F203="",CONCATENATE(E203,". "),CONCATENATE(E203,".  ",F203,". "))),Q203),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B203" s="2">
@@ -13990,7 +13993,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <f>IF(I204&lt;&gt;"",CONCATENATE(D204,". ",IF(E204="",E204,IF(F204="",CONCATENATE(E204,". "),CONCATENATE(E204,".  ",F204,". "))),Q204),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B204" s="2">
@@ -14033,7 +14036,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
-        <f>IF(I205&lt;&gt;"",CONCATENATE(D205,". ",IF(E205="",E205,IF(F205="",CONCATENATE(E205,". "),CONCATENATE(E205,".  ",F205,". "))),Q205),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B205" s="2">
@@ -14076,7 +14079,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f>IF(I206&lt;&gt;"",CONCATENATE(D206,". ",IF(E206="",E206,IF(F206="",CONCATENATE(E206,". "),CONCATENATE(E206,".  ",F206,". "))),Q206),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B206" s="2">
@@ -14119,8 +14122,8 @@
     </row>
     <row r="207" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f>IF(I207&lt;&gt;"",CONCATENATE(D207,". ",IF(E207="",E207,IF(F207="",CONCATENATE(E207,". "),CONCATENATE(E207,".  ",F207,". "))),Q207),"")</f>
-        <v>E. Injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E. Injuries</v>
       </c>
       <c r="B207" s="2">
         <v>197</v>
@@ -14164,8 +14167,8 @@
     </row>
     <row r="208" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f>IF(I208&lt;&gt;"",CONCATENATE(D208,". ",IF(E208="",E208,IF(F208="",CONCATENATE(E208,". "),CONCATENATE(E208,".  ",F208,". "))),Q208),"")</f>
-        <v>E. 01. Unintentional injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E.   01. Unintentional injuries</v>
       </c>
       <c r="B208" s="2">
         <v>198</v>
@@ -14211,8 +14214,8 @@
     </row>
     <row r="209" spans="1:19" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f>IF(I209&lt;&gt;"",CONCATENATE(D209,". ",IF(E209="",E209,IF(F209="",CONCATENATE(E209,". "),CONCATENATE(E209,".  ",F209,". "))),Q209),"")</f>
-        <v>E. 01.  a. Road injury</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E.   01.  a. Road injury</v>
       </c>
       <c r="B209" s="2">
         <v>199</v>
@@ -14231,7 +14234,7 @@
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="42" t="str">
-        <f t="shared" ref="H209:H216" si="15">CONCATENATE("c",D209,E209,F209)</f>
+        <f t="shared" ref="H209:H216" si="19">CONCATENATE("c",D209,E209,F209)</f>
         <v>cE01a</v>
       </c>
       <c r="I209" s="42" t="str">
@@ -14263,7 +14266,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f>IF(I210&lt;&gt;"",CONCATENATE(D210,". ",IF(E210="",E210,IF(F210="",CONCATENATE(E210,". "),CONCATENATE(E210,".  ",F210,". "))),Q210),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B210" s="2">
@@ -14283,7 +14286,7 @@
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I210" s="42"/>
@@ -14312,8 +14315,8 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <f>IF(I211&lt;&gt;"",CONCATENATE(D211,". ",IF(E211="",E211,IF(F211="",CONCATENATE(E211,". "),CONCATENATE(E211,".  ",F211,". "))),Q211),"")</f>
-        <v>E. 01.  b. Falls</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E.   01.  b. Falls</v>
       </c>
       <c r="B211" s="2">
         <v>201</v>
@@ -14332,7 +14335,7 @@
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>cE01b</v>
       </c>
       <c r="I211" s="42" t="str">
@@ -14364,7 +14367,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
-        <f>IF(I212&lt;&gt;"",CONCATENATE(D212,". ",IF(E212="",E212,IF(F212="",CONCATENATE(E212,". "),CONCATENATE(E212,".  ",F212,". "))),Q212),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B212" s="2">
@@ -14384,7 +14387,7 @@
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I212" s="42"/>
@@ -14413,7 +14416,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
-        <f>IF(I213&lt;&gt;"",CONCATENATE(D213,". ",IF(E213="",E213,IF(F213="",CONCATENATE(E213,". "),CONCATENATE(E213,".  ",F213,". "))),Q213),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B213" s="2">
@@ -14433,7 +14436,7 @@
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I213" s="42"/>
@@ -14462,7 +14465,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
-        <f>IF(I214&lt;&gt;"",CONCATENATE(D214,". ",IF(E214="",E214,IF(F214="",CONCATENATE(E214,". "),CONCATENATE(E214,".  ",F214,". "))),Q214),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B214" s="2">
@@ -14482,7 +14485,7 @@
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I214" s="42"/>
@@ -14511,7 +14514,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
-        <f>IF(I215&lt;&gt;"",CONCATENATE(D215,". ",IF(E215="",E215,IF(F215="",CONCATENATE(E215,". "),CONCATENATE(E215,".  ",F215,". "))),Q215),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B215" s="2">
@@ -14531,7 +14534,7 @@
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I215" s="42"/>
@@ -14556,8 +14559,8 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
-        <f>IF(I216&lt;&gt;"",CONCATENATE(D216,". ",IF(E216="",E216,IF(F216="",CONCATENATE(E216,". "),CONCATENATE(E216,".  ",F216,". "))),Q216),"")</f>
-        <v>E. 01.  x. Other unintentional injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E.   01.  x. Other unintentional injuries</v>
       </c>
       <c r="B216" s="2">
         <v>206</v>
@@ -14576,7 +14579,7 @@
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I216" s="42" t="str">
@@ -14608,8 +14611,8 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
-        <f>IF(I217&lt;&gt;"",CONCATENATE(D217,". ",IF(E217="",E217,IF(F217="",CONCATENATE(E217,". "),CONCATENATE(E217,".  ",F217,". "))),Q217),"")</f>
-        <v>E. 02. Intentional injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E.   02. Intentional injuries</v>
       </c>
       <c r="B217" s="2">
         <v>207</v>
@@ -14655,8 +14658,8 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
-        <f>IF(I218&lt;&gt;"",CONCATENATE(D218,". ",IF(E218="",E218,IF(F218="",CONCATENATE(E218,". "),CONCATENATE(E218,".  ",F218,". "))),Q218),"")</f>
-        <v>E. 02.  a. Self-harm</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E.   02.  a. Self-harm</v>
       </c>
       <c r="B218" s="2">
         <v>208</v>
@@ -14707,8 +14710,8 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
-        <f>IF(I219&lt;&gt;"",CONCATENATE(D219,". ",IF(E219="",E219,IF(F219="",CONCATENATE(E219,". "),CONCATENATE(E219,".  ",F219,". "))),Q219),"")</f>
-        <v>E. 02.  b. Interpersonal violence</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  E.   02.  b. Interpersonal violence</v>
       </c>
       <c r="B219" s="2">
         <v>209</v>
@@ -14759,7 +14762,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
-        <f>IF(I220&lt;&gt;"",CONCATENATE(D220,". ",IF(E220="",E220,IF(F220="",CONCATENATE(E220,". "),CONCATENATE(E220,".  ",F220,". "))),Q220),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B220" s="2">

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -4639,10 +4639,10 @@
   <dimension ref="A1:S220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E166" sqref="E166"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4724,8 +4724,8 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>IF(I2&lt;&gt;"",CONCATENATE(D2,". ",IF(E2="",E2,IF(F2="",CONCATENATE("  ",E2,". "),CONCATENATE("  ",E2,".  ",F2,". "))),Q2),"")</f>
-        <v>0. All CAUSES</v>
+        <f>Q2</f>
+        <v>All CAUSES</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),Q3),"")</f>
+        <f t="shared" ref="A3:A14" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),Q3),"")</f>
         <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
       <c r="B3" s="2">
@@ -4806,7 +4806,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" si="0">IF(I4&lt;&gt;"",CONCATENATE("  ",D4,". ",IF(E4="",E4,IF(F4="",CONCATENATE("  ",E4,". "),CONCATENATE("  ",E4,".  ",F4,". "))),Q4),"")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7:A67" si="1">IF(I15&lt;&gt;"",CONCATENATE("  ",D15,". ",IF(E15="",E15,IF(F15="",CONCATENATE("  ",E15,". "),CONCATENATE("  ",E15,".  ",F15,". "))),Q15),"")</f>
         <v/>
       </c>
       <c r="B15" s="2">
@@ -5358,7 +5358,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B16" s="2">
@@ -5407,7 +5407,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B17" s="2">
@@ -5454,7 +5454,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B18" s="2">
@@ -5493,7 +5493,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B19" s="2">
@@ -5511,7 +5511,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="42" t="str">
-        <f t="shared" ref="H19:H24" si="1">CONCATENATE("c",D19,E19,F19)</f>
+        <f t="shared" ref="H19:H24" si="2">CONCATENATE("c",D19,E19,F19)</f>
         <v>cA99</v>
       </c>
       <c r="I19" s="42"/>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B20" s="2">
@@ -5558,7 +5558,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I20" s="42"/>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B21" s="2">
@@ -5605,7 +5605,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I21" s="42"/>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B22" s="2">
@@ -5652,7 +5652,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I22" s="42"/>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   04. Meningitis</v>
       </c>
       <c r="B23" s="2">
@@ -5699,7 +5699,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA04</v>
       </c>
       <c r="I23" s="42" t="str">
@@ -5731,7 +5731,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   05. Encephalitis</v>
       </c>
       <c r="B24" s="2">
@@ -5749,7 +5749,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA05</v>
       </c>
       <c r="I24" s="42" t="str">
@@ -5781,7 +5781,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   06. Hepatitis</v>
       </c>
       <c r="B25" s="2">
@@ -5824,7 +5824,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B26" s="2">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   06.  a. Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
@@ -5915,7 +5915,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B28" s="2"/>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   06.  b. Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
@@ -5989,7 +5989,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B30" s="2">
@@ -6032,7 +6032,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B31" s="2">
@@ -6070,7 +6070,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B32" s="2">
@@ -6088,7 +6088,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="42" t="str">
-        <f t="shared" ref="H32:H45" si="2">CONCATENATE("c",D32,E32,F32)</f>
+        <f t="shared" ref="H32:H45" si="3">CONCATENATE("c",D32,E32,F32)</f>
         <v>cA99</v>
       </c>
       <c r="I32" s="42"/>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B33" s="2">
@@ -6135,7 +6135,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I33" s="42"/>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B34" s="2">
@@ -6182,7 +6182,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I34" s="42"/>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B35" s="2">
@@ -6229,7 +6229,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I35" s="42"/>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B36" s="2">
@@ -6276,7 +6276,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I36" s="42"/>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B37" s="2">
@@ -6323,7 +6323,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I37" s="42"/>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B38" s="2">
@@ -6366,7 +6366,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I38" s="42"/>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B39" s="2">
@@ -6409,7 +6409,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I39" s="42"/>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B40" s="2">
@@ -6456,7 +6456,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I40" s="42"/>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B41" s="2">
@@ -6503,7 +6503,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I41" s="42"/>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B42" s="2">
@@ -6546,7 +6546,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I42" s="42"/>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B43" s="2">
@@ -6593,7 +6593,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I43" s="42"/>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B44" s="2">
@@ -6636,7 +6636,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I44" s="42"/>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B45" s="2">
@@ -6683,7 +6683,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cA99</v>
       </c>
       <c r="I45" s="42"/>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B46" s="2">
@@ -6754,7 +6754,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B47" s="2">
@@ -6801,7 +6801,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B48" s="2">
@@ -6844,7 +6844,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B49" s="2">
@@ -6887,7 +6887,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B50" s="2">
@@ -6930,7 +6930,7 @@
     </row>
     <row r="51" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B51" s="2">
@@ -6977,7 +6977,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   07. Respiratory infections</v>
       </c>
       <c r="B52" s="2">
@@ -7024,7 +7024,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B53" s="2">
@@ -7071,7 +7071,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B54" s="2">
@@ -7118,7 +7118,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B55" s="2">
@@ -7165,7 +7165,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   08. Maternal conditions</v>
       </c>
       <c r="B56" s="2">
@@ -7214,7 +7214,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B57" s="2">
@@ -7232,7 +7232,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="42" t="str">
-        <f t="shared" ref="H57:H62" si="3">CONCATENATE("c",D57,E57,F57)</f>
+        <f t="shared" ref="H57:H62" si="4">CONCATENATE("c",D57,E57,F57)</f>
         <v>cA08</v>
       </c>
       <c r="I57" s="42"/>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B58" s="2">
@@ -7279,7 +7279,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="I58" s="42"/>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B59" s="2">
@@ -7326,7 +7326,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="I59" s="42"/>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B60" s="2">
@@ -7373,7 +7373,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="I60" s="42"/>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B61" s="2">
@@ -7420,7 +7420,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="I61" s="42"/>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B62" s="2">
@@ -7467,7 +7467,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="I62" s="42"/>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  A.   09. Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
@@ -7545,7 +7545,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B64" s="2">
@@ -7592,7 +7592,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B65" s="2">
@@ -7639,7 +7639,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B66" s="2">
@@ -7686,7 +7686,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B67" s="2">
@@ -7733,7 +7733,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A131" si="4">IF(I68&lt;&gt;"",CONCATENATE("  ",D68,". ",IF(E68="",E68,IF(F68="",CONCATENATE("  ",E68,". "),CONCATENATE("  ",E68,".  ",F68,". "))),Q68),"")</f>
+        <f t="shared" ref="A68:A131" si="5">IF(I68&lt;&gt;"",CONCATENATE("  ",D68,". ",IF(E68="",E68,IF(F68="",CONCATENATE("  ",E68,". "),CONCATENATE("  ",E68,".  ",F68,". "))),Q68),"")</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -7775,7 +7775,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B69" s="2">
@@ -7822,7 +7822,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B70" s="2">
@@ -7869,7 +7869,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B71" s="2">
@@ -7912,7 +7912,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B72" s="2">
@@ -7959,7 +7959,7 @@
     </row>
     <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B73" s="2">
@@ -8006,7 +8006,7 @@
     </row>
     <row r="74" spans="1:19" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B74" s="45">
@@ -8046,7 +8046,7 @@
     </row>
     <row r="75" spans="1:19" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D. Other Chronic</v>
       </c>
       <c r="B75" s="53"/>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="76" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B. Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
@@ -8123,7 +8123,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   01. Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
@@ -8166,7 +8166,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B78" s="2">
@@ -8184,7 +8184,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="44" t="str">
-        <f t="shared" ref="H78:H86" si="5">CONCATENATE("c",D78,E78,F78)</f>
+        <f t="shared" ref="H78:H86" si="6">CONCATENATE("c",D78,E78,F78)</f>
         <v>cB01</v>
       </c>
       <c r="I78" s="42"/>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B79" s="2">
@@ -8231,7 +8231,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="I79" s="42"/>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B80" s="2">
@@ -8278,7 +8278,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="I80" s="42"/>
@@ -8307,7 +8307,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   02. Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
@@ -8325,11 +8325,11 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB02</v>
       </c>
       <c r="I81" s="42" t="str">
-        <f t="shared" ref="I81:I87" si="6">CONCATENATE(D81,E81,F81)</f>
+        <f t="shared" ref="I81:I87" si="7">CONCATENATE(D81,E81,F81)</f>
         <v>B02</v>
       </c>
       <c r="J81" s="26" t="s">
@@ -8357,7 +8357,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   03. Stomach cancer</v>
       </c>
       <c r="B82" s="2">
@@ -8375,11 +8375,11 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB03</v>
       </c>
       <c r="I82" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B03</v>
       </c>
       <c r="J82" s="26" t="s">
@@ -8409,7 +8409,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   04. Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
@@ -8427,11 +8427,11 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB04</v>
       </c>
       <c r="I83" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B04</v>
       </c>
       <c r="J83" s="26" t="s">
@@ -8459,7 +8459,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   05. Liver cancer</v>
       </c>
       <c r="B84" s="2">
@@ -8477,11 +8477,11 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB05</v>
       </c>
       <c r="I84" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B05</v>
       </c>
       <c r="J84" s="26" t="s">
@@ -8509,7 +8509,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   06. Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
@@ -8527,11 +8527,11 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB06</v>
       </c>
       <c r="I85" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B06</v>
       </c>
       <c r="J85" s="26" t="s">
@@ -8559,7 +8559,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   07. Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
@@ -8577,11 +8577,11 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB07</v>
       </c>
       <c r="I86" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B07</v>
       </c>
       <c r="J86" s="26" t="s">
@@ -8609,7 +8609,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   08. Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
@@ -8630,7 +8630,7 @@
         <v>956</v>
       </c>
       <c r="I87" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B08</v>
       </c>
       <c r="J87" s="26" t="s">
@@ -8654,7 +8654,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B88" s="2">
@@ -8672,7 +8672,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="42" t="str">
-        <f t="shared" ref="H88:H103" si="7">CONCATENATE("c",D88,E88,F88)</f>
+        <f t="shared" ref="H88:H103" si="8">CONCATENATE("c",D88,E88,F88)</f>
         <v>cB08</v>
       </c>
       <c r="I88" s="42"/>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B89" s="2">
@@ -8719,7 +8719,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB08</v>
       </c>
       <c r="I89" s="42"/>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   09. Breast cancer</v>
       </c>
       <c r="B90" s="2">
@@ -8766,11 +8766,11 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB09</v>
       </c>
       <c r="I90" s="42" t="str">
-        <f t="shared" ref="I90:I104" si="8">CONCATENATE(D90,E90,F90)</f>
+        <f t="shared" ref="I90:I104" si="9">CONCATENATE(D90,E90,F90)</f>
         <v>B09</v>
       </c>
       <c r="J90" s="26" t="s">
@@ -8798,7 +8798,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   10. uteri cancer</v>
       </c>
       <c r="B91" s="2"/>
@@ -8815,7 +8815,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="42"/>
       <c r="I91" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B10</v>
       </c>
       <c r="J91" s="26"/>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B92" s="2">
@@ -8880,7 +8880,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B93" s="2">
@@ -8898,7 +8898,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB10</v>
       </c>
       <c r="I93" s="42"/>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   11. Ovary cancer</v>
       </c>
       <c r="B94" s="2">
@@ -8945,11 +8945,11 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB11</v>
       </c>
       <c r="I94" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B11</v>
       </c>
       <c r="J94" s="26" t="s">
@@ -8977,7 +8977,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   12. Prostate cancer</v>
       </c>
       <c r="B95" s="2">
@@ -8995,11 +8995,11 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB12</v>
       </c>
       <c r="I95" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B12</v>
       </c>
       <c r="J95" s="26" t="s">
@@ -9027,7 +9027,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B96" s="2">
@@ -9045,7 +9045,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="I96" s="42"/>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   13. Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
@@ -9092,11 +9092,11 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB13</v>
       </c>
       <c r="I97" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B13</v>
       </c>
       <c r="J97" s="26" t="s">
@@ -9124,7 +9124,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   14. Bladder cancer</v>
       </c>
       <c r="B98" s="2">
@@ -9142,11 +9142,11 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB14</v>
       </c>
       <c r="I98" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B14</v>
       </c>
       <c r="J98" s="26" t="s">
@@ -9174,7 +9174,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   15. Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
@@ -9192,11 +9192,11 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB15</v>
       </c>
       <c r="I99" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B15</v>
       </c>
       <c r="J99" s="26" t="s">
@@ -9224,7 +9224,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B100" s="2">
@@ -9242,7 +9242,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="I100" s="42"/>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B101" s="2">
@@ -9289,7 +9289,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="I101" s="42"/>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B102" s="2">
@@ -9336,7 +9336,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="I102" s="42"/>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B103" s="2">
@@ -9383,7 +9383,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="I103" s="42"/>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   16. Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
@@ -9431,7 +9431,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="42"/>
       <c r="I104" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B16</v>
       </c>
       <c r="J104" s="26" t="s">
@@ -9459,7 +9459,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B105" s="2">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="42" t="str">
-        <f t="shared" ref="H105:H111" si="9">CONCATENATE("c",D105,E105,F105)</f>
+        <f t="shared" ref="H105:H111" si="10">CONCATENATE("c",D105,E105,F105)</f>
         <v>cB16a</v>
       </c>
       <c r="I105" s="42"/>
@@ -9508,7 +9508,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   16.  b. Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cB16b</v>
       </c>
       <c r="I106" s="42" t="str">
@@ -9560,7 +9560,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   16.  c. Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cB16c</v>
       </c>
       <c r="I107" s="42" t="str">
@@ -9612,7 +9612,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   17. Leukaemia</v>
       </c>
       <c r="B108" s="2">
@@ -9630,7 +9630,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cB17</v>
       </c>
       <c r="I108" s="42" t="str">
@@ -9662,7 +9662,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  B.   99. Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
@@ -9680,7 +9680,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cB99</v>
       </c>
       <c r="I109" s="42" t="str">
@@ -9708,7 +9708,7 @@
     </row>
     <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B110" s="2">
@@ -9726,7 +9726,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cD99</v>
       </c>
       <c r="I110" s="42"/>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   01. Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
@@ -9773,7 +9773,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cD01</v>
       </c>
       <c r="I111" s="42" t="str">
@@ -9805,7 +9805,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   02. Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
@@ -9854,7 +9854,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B113" s="2">
@@ -9901,7 +9901,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B114" s="2">
@@ -9948,7 +9948,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B115" s="2">
@@ -9995,7 +9995,7 @@
     </row>
     <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B116" s="2">
@@ -10042,7 +10042,7 @@
     </row>
     <row r="117" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B117" s="2">
@@ -10088,7 +10088,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   03. Mental Health disoders (non-subsance use)</v>
       </c>
       <c r="B118" s="2"/>
@@ -10125,7 +10125,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   04. Substance use (Mental Health)</v>
       </c>
       <c r="B119" s="2"/>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B120" s="2"/>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B121" s="2">
@@ -10222,7 +10222,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B122" s="2">
@@ -10265,7 +10265,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B123" s="2">
@@ -10308,7 +10308,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B124" s="2">
@@ -10351,7 +10351,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B125" s="2">
@@ -10398,7 +10398,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   04.  a. Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
@@ -10450,7 +10450,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B127" s="2">
@@ -10490,7 +10490,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   04.  b. Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="42" t="str">
-        <f t="shared" ref="H128:H135" si="10">CONCATENATE("c",D128,E128,F128)</f>
+        <f t="shared" ref="H128:H135" si="11">CONCATENATE("c",D128,E128,F128)</f>
         <v>cD04b</v>
       </c>
       <c r="I128" s="42" t="str">
@@ -10542,7 +10542,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   04.  c. Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04c</v>
       </c>
       <c r="I129" s="42" t="str">
@@ -10594,7 +10594,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">  D.   04.  d. Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04d</v>
       </c>
       <c r="I130" s="42" t="str">
@@ -10646,7 +10646,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -10664,7 +10664,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04</v>
       </c>
       <c r="I131" s="42"/>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A195" si="11">IF(I132&lt;&gt;"",CONCATENATE("  ",D132,". ",IF(E132="",E132,IF(F132="",CONCATENATE("  ",E132,". "),CONCATENATE("  ",E132,".  ",F132,". "))),Q132),"")</f>
+        <f t="shared" ref="A132:A195" si="12">IF(I132&lt;&gt;"",CONCATENATE("  ",D132,". ",IF(E132="",E132,IF(F132="",CONCATENATE("  ",E132,". "),CONCATENATE("  ",E132,".  ",F132,". "))),Q132),"")</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -10707,7 +10707,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04</v>
       </c>
       <c r="I132" s="42"/>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B133" s="2">
@@ -10754,7 +10754,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="I133" s="42"/>
@@ -10779,7 +10779,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B134" s="2">
@@ -10797,7 +10797,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="I134" s="42"/>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B135" s="2">
@@ -10844,7 +10844,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="I135" s="42"/>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B136" s="2">
@@ -10905,7 +10905,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B137" s="2">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B138" s="2">
@@ -10991,7 +10991,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B139" s="2">
@@ -11034,7 +11034,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B140" s="2">
@@ -11077,7 +11077,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B141" s="2">
@@ -11123,7 +11123,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  D.   05. Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
@@ -11141,7 +11141,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="42" t="str">
-        <f t="shared" ref="H142:H148" si="12">CONCATENATE("c",D142,E142,F142)</f>
+        <f t="shared" ref="H142:H148" si="13">CONCATENATE("c",D142,E142,F142)</f>
         <v>cD05</v>
       </c>
       <c r="I142" s="42" t="str">
@@ -11173,7 +11173,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B143" s="2">
@@ -11191,7 +11191,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="I143" s="42"/>
@@ -11220,7 +11220,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B144" s="2">
@@ -11238,7 +11238,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="I144" s="42"/>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B145" s="2">
@@ -11285,7 +11285,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="I145" s="42"/>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B146" s="2">
@@ -11332,7 +11332,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="I146" s="42"/>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B147" s="2">
@@ -11375,7 +11375,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="I147" s="42"/>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  D.   06. Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
@@ -11418,7 +11418,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="I148" s="42" t="str">
@@ -11450,7 +11450,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B149" s="2">
@@ -11492,7 +11492,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B150" s="2">
@@ -11510,7 +11510,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="42" t="str">
-        <f t="shared" ref="H150:H156" si="13">CONCATENATE("c",D150,E150,F150)</f>
+        <f t="shared" ref="H150:H156" si="14">CONCATENATE("c",D150,E150,F150)</f>
         <v>cD99</v>
       </c>
       <c r="I150" s="42"/>
@@ -11535,7 +11535,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B151" s="2">
@@ -11553,7 +11553,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="I151" s="42"/>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B152" s="2">
@@ -11596,7 +11596,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="I152" s="42"/>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B153" s="2">
@@ -11639,7 +11639,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="I153" s="42"/>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B154" s="2">
@@ -11682,7 +11682,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="I154" s="42"/>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B155" s="2">
@@ -11725,7 +11725,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="I155" s="42"/>
@@ -11750,7 +11750,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B156" s="2">
@@ -11768,7 +11768,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="I156" s="42"/>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="157" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  C. Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
@@ -11840,7 +11840,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B158" s="2">
@@ -11858,7 +11858,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="42" t="str">
-        <f t="shared" ref="H158:H163" si="14">CONCATENATE("c",D158,E158,F158)</f>
+        <f t="shared" ref="H158:H163" si="15">CONCATENATE("c",D158,E158,F158)</f>
         <v>cC99</v>
       </c>
       <c r="I158" s="42"/>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  C.   01. Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
@@ -11905,7 +11905,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC01</v>
       </c>
       <c r="I159" s="42" t="str">
@@ -11937,7 +11937,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  C.   02. Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
@@ -11955,7 +11955,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC02</v>
       </c>
       <c r="I160" s="42" t="str">
@@ -11987,7 +11987,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  C.   03. Stroke</v>
       </c>
       <c r="B161" s="2">
@@ -12005,7 +12005,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC03</v>
       </c>
       <c r="I161" s="42" t="str">
@@ -12037,7 +12037,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  C.   04. Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
@@ -12055,7 +12055,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC04</v>
       </c>
       <c r="I162" s="42" t="str">
@@ -12087,7 +12087,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  C.   99. Other cardiovascular diseases</v>
       </c>
       <c r="B163" s="2">
@@ -12105,7 +12105,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC99</v>
       </c>
       <c r="I163" s="42" t="str">
@@ -12137,7 +12137,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B164" s="2">
@@ -12181,7 +12181,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  D.   07. Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B165" s="2">
@@ -12231,7 +12231,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B166" s="2">
@@ -12278,7 +12278,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  D.   08. Other respiratory diseases</v>
       </c>
       <c r="B167" s="2">
@@ -12328,7 +12328,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  D.   09. Digestive diseases</v>
       </c>
       <c r="B168" s="2">
@@ -12377,7 +12377,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B169" s="2">
@@ -12395,7 +12395,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="42" t="str">
-        <f t="shared" ref="H169:H177" si="15">CONCATENATE("c",D169,E169,F169)</f>
+        <f t="shared" ref="H169:H177" si="16">CONCATENATE("c",D169,E169,F169)</f>
         <v>cD09</v>
       </c>
       <c r="I169" s="42"/>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B170" s="2">
@@ -12442,7 +12442,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I170" s="42"/>
@@ -12471,7 +12471,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B171" s="2">
@@ -12489,7 +12489,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I171" s="42"/>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B172" s="2">
@@ -12536,7 +12536,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I172" s="42"/>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B173" s="2">
@@ -12583,7 +12583,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I173" s="42"/>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B174" s="2">
@@ -12630,7 +12630,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I174" s="42"/>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B175" s="2">
@@ -12677,7 +12677,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I175" s="42"/>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B176" s="2">
@@ -12724,7 +12724,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I176" s="42"/>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B177" s="2">
@@ -12771,7 +12771,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>cD09</v>
       </c>
       <c r="I177" s="42"/>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B178" s="2">
@@ -12842,7 +12842,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  D.   10. Kidney diseases</v>
       </c>
       <c r="B179" s="2">
@@ -12891,7 +12891,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B180" s="2">
@@ -12909,7 +12909,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="42" t="str">
-        <f t="shared" ref="H180:H188" si="16">CONCATENATE("c",D180,E180,F180)</f>
+        <f t="shared" ref="H180:H188" si="17">CONCATENATE("c",D180,E180,F180)</f>
         <v>cD10</v>
       </c>
       <c r="I180" s="42"/>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B181" s="2">
@@ -12956,7 +12956,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD10</v>
       </c>
       <c r="I181" s="42"/>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B182" s="2">
@@ -13003,7 +13003,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD10</v>
       </c>
       <c r="I182" s="42"/>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B183" s="2">
@@ -13050,7 +13050,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD99</v>
       </c>
       <c r="I183" s="42"/>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B184" s="2">
@@ -13093,7 +13093,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD99</v>
       </c>
       <c r="I184" s="42"/>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="185" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B185" s="2">
@@ -13140,7 +13140,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD99</v>
       </c>
       <c r="I185" s="42"/>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B186" s="2">
@@ -13187,7 +13187,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD99</v>
       </c>
       <c r="I186" s="42"/>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B187" s="2">
@@ -13234,7 +13234,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD99</v>
       </c>
       <c r="I187" s="42"/>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B188" s="2">
@@ -13281,7 +13281,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD99</v>
       </c>
       <c r="I188" s="42"/>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B189" s="2">
@@ -13356,7 +13356,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B190" s="2">
@@ -13403,7 +13403,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B191" s="2">
@@ -13446,7 +13446,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B192" s="2">
@@ -13489,7 +13489,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B193" s="2">
@@ -13532,7 +13532,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B194" s="2">
@@ -13579,7 +13579,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">  D.   11. Congenital anomalies</v>
       </c>
       <c r="B195" s="2">
@@ -13628,7 +13628,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f t="shared" ref="A196:A220" si="17">IF(I196&lt;&gt;"",CONCATENATE("  ",D196,". ",IF(E196="",E196,IF(F196="",CONCATENATE("  ",E196,". "),CONCATENATE("  ",E196,".  ",F196,". "))),Q196),"")</f>
+        <f t="shared" ref="A196:A220" si="18">IF(I196&lt;&gt;"",CONCATENATE("  ",D196,". ",IF(E196="",E196,IF(F196="",CONCATENATE("  ",E196,". "),CONCATENATE("  ",E196,".  ",F196,". "))),Q196),"")</f>
         <v/>
       </c>
       <c r="B196" s="2">
@@ -13646,7 +13646,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="42" t="str">
-        <f t="shared" ref="H196:H201" si="18">CONCATENATE("c",D196,E196,F196)</f>
+        <f t="shared" ref="H196:H201" si="19">CONCATENATE("c",D196,E196,F196)</f>
         <v>cD11</v>
       </c>
       <c r="I196" s="42"/>
@@ -13675,7 +13675,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B197" s="2">
@@ -13693,7 +13693,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="42" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>cD11</v>
       </c>
       <c r="I197" s="42"/>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B198" s="2">
@@ -13740,7 +13740,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="42" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>cD11</v>
       </c>
       <c r="I198" s="42"/>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B199" s="2">
@@ -13787,7 +13787,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="42" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>cD11</v>
       </c>
       <c r="I199" s="42"/>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B200" s="2">
@@ -13834,7 +13834,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="42" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>cD11</v>
       </c>
       <c r="I200" s="42"/>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B201" s="2">
@@ -13881,7 +13881,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="42" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>cD11</v>
       </c>
       <c r="I201" s="42"/>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B202" s="2">
@@ -13950,7 +13950,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B203" s="2">
@@ -13993,7 +13993,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B204" s="2">
@@ -14036,7 +14036,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B205" s="2">
@@ -14079,7 +14079,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B206" s="2">
@@ -14122,7 +14122,7 @@
     </row>
     <row r="207" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E. Injuries</v>
       </c>
       <c r="B207" s="2">
@@ -14167,7 +14167,7 @@
     </row>
     <row r="208" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E.   01. Unintentional injuries</v>
       </c>
       <c r="B208" s="2">
@@ -14214,7 +14214,7 @@
     </row>
     <row r="209" spans="1:19" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E.   01.  a. Road injury</v>
       </c>
       <c r="B209" s="2">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="42" t="str">
-        <f t="shared" ref="H209:H216" si="19">CONCATENATE("c",D209,E209,F209)</f>
+        <f t="shared" ref="H209:H216" si="20">CONCATENATE("c",D209,E209,F209)</f>
         <v>cE01a</v>
       </c>
       <c r="I209" s="42" t="str">
@@ -14266,7 +14266,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B210" s="2">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cE01x</v>
       </c>
       <c r="I210" s="42"/>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E.   01.  b. Falls</v>
       </c>
       <c r="B211" s="2">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cE01b</v>
       </c>
       <c r="I211" s="42" t="str">
@@ -14367,7 +14367,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B212" s="2">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cE01x</v>
       </c>
       <c r="I212" s="42"/>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B213" s="2">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cE01x</v>
       </c>
       <c r="I213" s="42"/>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B214" s="2">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cE01x</v>
       </c>
       <c r="I214" s="42"/>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B215" s="2">
@@ -14534,7 +14534,7 @@
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cE01x</v>
       </c>
       <c r="I215" s="42"/>
@@ -14559,7 +14559,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E.   01.  x. Other unintentional injuries</v>
       </c>
       <c r="B216" s="2">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cE01x</v>
       </c>
       <c r="I216" s="42" t="str">
@@ -14611,7 +14611,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E.   02. Intentional injuries</v>
       </c>
       <c r="B217" s="2">
@@ -14658,7 +14658,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E.   02.  a. Self-harm</v>
       </c>
       <c r="B218" s="2">
@@ -14710,7 +14710,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  E.   02.  b. Interpersonal violence</v>
       </c>
       <c r="B219" s="2">
@@ -14762,7 +14762,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="B220" s="2">

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -4639,10 +4639,10 @@
   <dimension ref="A1:S220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,8 +4761,8 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A14" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),Q3),"")</f>
-        <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
+        <f>IF(I3="","",CONCATENATE(IF(E3="",CONCATENATE("   ", D3,". "),IF(F3="",CONCATENATE("      ",D3,".",E3,". "),CONCATENATE("      ",D3,".",E3,".",F3,". "))),Q3))</f>
+        <v xml:space="preserve">   A. Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4806,8 +4806,8 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
+        <f t="shared" ref="A4:A67" si="0">IF(I4="","",CONCATENATE(IF(E4="",CONCATENATE("   ", D4,". "),IF(F4="",CONCATENATE("      ",D4,".",E4,". "),CONCATENATE("      ",D4,".",E4,".",F4,". "))),Q4))</f>
+        <v xml:space="preserve">      A.99. Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -4884,7 +4884,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   01. Tuberculosis</v>
+        <v xml:space="preserve">      A.01. Tuberculosis</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -4934,7 +4934,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
+        <v xml:space="preserve">      A.02. HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="66" t="s">
@@ -4969,7 +4969,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
+        <v xml:space="preserve">      A.02.a. Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -5263,7 +5263,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
+        <v xml:space="preserve">      A.02.b. HIV/AIDS</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" ref="A7:A67" si="1">IF(I15&lt;&gt;"",CONCATENATE("  ",D15,". ",IF(E15="",E15,IF(F15="",CONCATENATE("  ",E15,". "),CONCATENATE("  ",E15,".  ",F15,". "))),Q15),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B15" s="2">
@@ -5358,7 +5358,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B16" s="2">
@@ -5407,7 +5407,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B17" s="2">
@@ -5454,7 +5454,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B18" s="2">
@@ -5493,7 +5493,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B19" s="2">
@@ -5511,7 +5511,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="42" t="str">
-        <f t="shared" ref="H19:H24" si="2">CONCATENATE("c",D19,E19,F19)</f>
+        <f t="shared" ref="H19:H24" si="1">CONCATENATE("c",D19,E19,F19)</f>
         <v>cA99</v>
       </c>
       <c r="I19" s="42"/>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B20" s="2">
@@ -5558,7 +5558,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="I20" s="42"/>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B21" s="2">
@@ -5605,7 +5605,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="I21" s="42"/>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B22" s="2">
@@ -5652,7 +5652,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="I22" s="42"/>
@@ -5681,8 +5681,8 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   04. Meningitis</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.04. Meningitis</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
@@ -5699,7 +5699,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA04</v>
       </c>
       <c r="I23" s="42" t="str">
@@ -5731,8 +5731,8 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   05. Encephalitis</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.05. Encephalitis</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
@@ -5749,7 +5749,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA05</v>
       </c>
       <c r="I24" s="42" t="str">
@@ -5781,8 +5781,8 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   06. Hepatitis</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.06. Hepatitis</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B26" s="2">
@@ -5867,8 +5867,8 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   06.  a. Acute hepatitis B</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.06.a. Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B28" s="2"/>
@@ -5941,8 +5941,8 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   06.  b. Acute hepatitis C</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.06.b. Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
         <v>24</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B30" s="2">
@@ -6032,7 +6032,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B31" s="2">
@@ -6070,7 +6070,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B32" s="2">
@@ -6088,7 +6088,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="42" t="str">
-        <f t="shared" ref="H32:H45" si="3">CONCATENATE("c",D32,E32,F32)</f>
+        <f t="shared" ref="H32:H45" si="2">CONCATENATE("c",D32,E32,F32)</f>
         <v>cA99</v>
       </c>
       <c r="I32" s="42"/>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B33" s="2">
@@ -6135,7 +6135,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I33" s="42"/>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B34" s="2">
@@ -6182,7 +6182,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I34" s="42"/>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B35" s="2">
@@ -6229,7 +6229,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I35" s="42"/>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B36" s="2">
@@ -6276,7 +6276,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I36" s="42"/>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B37" s="2">
@@ -6323,7 +6323,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I37" s="42"/>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B38" s="2">
@@ -6366,7 +6366,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I38" s="42"/>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B39" s="2">
@@ -6409,7 +6409,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I39" s="42"/>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B40" s="2">
@@ -6456,7 +6456,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I40" s="42"/>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B41" s="2">
@@ -6503,7 +6503,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I41" s="42"/>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B42" s="2">
@@ -6546,7 +6546,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I42" s="42"/>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B43" s="2">
@@ -6593,7 +6593,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I43" s="42"/>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B44" s="2">
@@ -6636,7 +6636,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I44" s="42"/>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B45" s="2">
@@ -6683,7 +6683,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="I45" s="42"/>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B46" s="2">
@@ -6754,7 +6754,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B47" s="2">
@@ -6801,7 +6801,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B48" s="2">
@@ -6844,7 +6844,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B49" s="2">
@@ -6887,7 +6887,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B50" s="2">
@@ -6930,7 +6930,7 @@
     </row>
     <row r="51" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B51" s="2">
@@ -6977,8 +6977,8 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   07. Respiratory infections</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.07. Respiratory infections</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B53" s="2">
@@ -7071,7 +7071,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B54" s="2">
@@ -7118,7 +7118,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B55" s="2">
@@ -7165,8 +7165,8 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   08. Maternal conditions</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.08. Maternal conditions</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B57" s="2">
@@ -7232,7 +7232,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="42" t="str">
-        <f t="shared" ref="H57:H62" si="4">CONCATENATE("c",D57,E57,F57)</f>
+        <f t="shared" ref="H57:H62" si="3">CONCATENATE("c",D57,E57,F57)</f>
         <v>cA08</v>
       </c>
       <c r="I57" s="42"/>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B58" s="2">
@@ -7279,7 +7279,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I58" s="42"/>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B59" s="2">
@@ -7326,7 +7326,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I59" s="42"/>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B60" s="2">
@@ -7373,7 +7373,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I60" s="42"/>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B61" s="2">
@@ -7420,7 +7420,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I61" s="42"/>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B62" s="2">
@@ -7467,7 +7467,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="I62" s="42"/>
@@ -7496,8 +7496,8 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  A.   09. Neonatal conditions</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      A.09. Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B64" s="2">
@@ -7592,7 +7592,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B65" s="2">
@@ -7639,7 +7639,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B66" s="2">
@@ -7686,7 +7686,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B67" s="2">
@@ -7733,7 +7733,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A131" si="5">IF(I68&lt;&gt;"",CONCATENATE("  ",D68,". ",IF(E68="",E68,IF(F68="",CONCATENATE("  ",E68,". "),CONCATENATE("  ",E68,".  ",F68,". "))),Q68),"")</f>
+        <f t="shared" ref="A68:A131" si="4">IF(I68="","",CONCATENATE(IF(E68="",CONCATENATE("   ", D68,". "),IF(F68="",CONCATENATE("      ",D68,".",E68,". "),CONCATENATE("      ",D68,".",E68,".",F68,". "))),Q68))</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -7775,7 +7775,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B69" s="2">
@@ -7822,7 +7822,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B70" s="2">
@@ -7869,7 +7869,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B71" s="2">
@@ -7912,7 +7912,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B72" s="2">
@@ -7959,7 +7959,7 @@
     </row>
     <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B73" s="2">
@@ -8006,7 +8006,7 @@
     </row>
     <row r="74" spans="1:19" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B74" s="45">
@@ -8046,8 +8046,8 @@
     </row>
     <row r="75" spans="1:19" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D. Other Chronic</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   D. Other Chronic</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="54" t="s">
@@ -8078,8 +8078,8 @@
     </row>
     <row r="76" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B. Malignant neoplasms</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   B. Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
         <v>70</v>
@@ -8123,8 +8123,8 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   01. Mouth and oropharynx cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.01. Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
         <v>71</v>
@@ -8166,7 +8166,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B78" s="2">
@@ -8184,7 +8184,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="44" t="str">
-        <f t="shared" ref="H78:H86" si="6">CONCATENATE("c",D78,E78,F78)</f>
+        <f t="shared" ref="H78:H86" si="5">CONCATENATE("c",D78,E78,F78)</f>
         <v>cB01</v>
       </c>
       <c r="I78" s="42"/>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B79" s="2">
@@ -8231,7 +8231,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>cB01</v>
       </c>
       <c r="I79" s="42"/>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B80" s="2">
@@ -8278,7 +8278,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>cB01</v>
       </c>
       <c r="I80" s="42"/>
@@ -8307,8 +8307,8 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   02. Oesophagus cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.02. Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
         <v>75</v>
@@ -8325,11 +8325,11 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>cB02</v>
       </c>
       <c r="I81" s="42" t="str">
-        <f t="shared" ref="I81:I87" si="7">CONCATENATE(D81,E81,F81)</f>
+        <f t="shared" ref="I81:I87" si="6">CONCATENATE(D81,E81,F81)</f>
         <v>B02</v>
       </c>
       <c r="J81" s="26" t="s">
@@ -8357,8 +8357,8 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   03. Stomach cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.03. Stomach cancer</v>
       </c>
       <c r="B82" s="2">
         <v>76</v>
@@ -8375,11 +8375,11 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>cB03</v>
+      </c>
+      <c r="I82" s="42" t="str">
         <f t="shared" si="6"/>
-        <v>cB03</v>
-      </c>
-      <c r="I82" s="42" t="str">
-        <f t="shared" si="7"/>
         <v>B03</v>
       </c>
       <c r="J82" s="26" t="s">
@@ -8409,8 +8409,8 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   04. Colon and rectum cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.04. Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
         <v>77</v>
@@ -8427,11 +8427,11 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>cB04</v>
+      </c>
+      <c r="I83" s="42" t="str">
         <f t="shared" si="6"/>
-        <v>cB04</v>
-      </c>
-      <c r="I83" s="42" t="str">
-        <f t="shared" si="7"/>
         <v>B04</v>
       </c>
       <c r="J83" s="26" t="s">
@@ -8459,8 +8459,8 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   05. Liver cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.05. Liver cancer</v>
       </c>
       <c r="B84" s="2">
         <v>78</v>
@@ -8477,11 +8477,11 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>cB05</v>
+      </c>
+      <c r="I84" s="42" t="str">
         <f t="shared" si="6"/>
-        <v>cB05</v>
-      </c>
-      <c r="I84" s="42" t="str">
-        <f t="shared" si="7"/>
         <v>B05</v>
       </c>
       <c r="J84" s="26" t="s">
@@ -8509,8 +8509,8 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   06. Pancreas cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.06. Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
         <v>79</v>
@@ -8527,11 +8527,11 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>cB06</v>
+      </c>
+      <c r="I85" s="42" t="str">
         <f t="shared" si="6"/>
-        <v>cB06</v>
-      </c>
-      <c r="I85" s="42" t="str">
-        <f t="shared" si="7"/>
         <v>B06</v>
       </c>
       <c r="J85" s="26" t="s">
@@ -8559,8 +8559,8 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   07. Trachea, bronchus and lung cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.07. Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
         <v>80</v>
@@ -8577,11 +8577,11 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>cB07</v>
+      </c>
+      <c r="I86" s="42" t="str">
         <f t="shared" si="6"/>
-        <v>cB07</v>
-      </c>
-      <c r="I86" s="42" t="str">
-        <f t="shared" si="7"/>
         <v>B07</v>
       </c>
       <c r="J86" s="26" t="s">
@@ -8609,8 +8609,8 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   08. Melanoma and other skin cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.08. Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
         <v>81</v>
@@ -8630,7 +8630,7 @@
         <v>956</v>
       </c>
       <c r="I87" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>B08</v>
       </c>
       <c r="J87" s="26" t="s">
@@ -8654,7 +8654,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B88" s="2">
@@ -8672,7 +8672,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="42" t="str">
-        <f t="shared" ref="H88:H103" si="8">CONCATENATE("c",D88,E88,F88)</f>
+        <f t="shared" ref="H88:H103" si="7">CONCATENATE("c",D88,E88,F88)</f>
         <v>cB08</v>
       </c>
       <c r="I88" s="42"/>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B89" s="2">
@@ -8719,7 +8719,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB08</v>
       </c>
       <c r="I89" s="42"/>
@@ -8748,8 +8748,8 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   09. Breast cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.09. Breast cancer</v>
       </c>
       <c r="B90" s="2">
         <v>84</v>
@@ -8766,11 +8766,11 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB09</v>
       </c>
       <c r="I90" s="42" t="str">
-        <f t="shared" ref="I90:I104" si="9">CONCATENATE(D90,E90,F90)</f>
+        <f t="shared" ref="I90:I104" si="8">CONCATENATE(D90,E90,F90)</f>
         <v>B09</v>
       </c>
       <c r="J90" s="26" t="s">
@@ -8798,8 +8798,8 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   10. uteri cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.10. uteri cancer</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="74" t="s">
@@ -8815,7 +8815,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="42"/>
       <c r="I91" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>B10</v>
       </c>
       <c r="J91" s="26"/>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B92" s="2">
@@ -8880,7 +8880,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B93" s="2">
@@ -8898,7 +8898,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB10</v>
       </c>
       <c r="I93" s="42"/>
@@ -8927,8 +8927,8 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   11. Ovary cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.11. Ovary cancer</v>
       </c>
       <c r="B94" s="2">
         <v>87</v>
@@ -8945,11 +8945,11 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>cB11</v>
+      </c>
+      <c r="I94" s="42" t="str">
         <f t="shared" si="8"/>
-        <v>cB11</v>
-      </c>
-      <c r="I94" s="42" t="str">
-        <f t="shared" si="9"/>
         <v>B11</v>
       </c>
       <c r="J94" s="26" t="s">
@@ -8977,8 +8977,8 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   12. Prostate cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.12. Prostate cancer</v>
       </c>
       <c r="B95" s="2">
         <v>88</v>
@@ -8995,11 +8995,11 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>cB12</v>
+      </c>
+      <c r="I95" s="42" t="str">
         <f t="shared" si="8"/>
-        <v>cB12</v>
-      </c>
-      <c r="I95" s="42" t="str">
-        <f t="shared" si="9"/>
         <v>B12</v>
       </c>
       <c r="J95" s="26" t="s">
@@ -9027,7 +9027,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B96" s="2">
@@ -9045,7 +9045,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I96" s="42"/>
@@ -9074,8 +9074,8 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   13. Kidney, renal pelvis and ureter cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.13. Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
         <v>90</v>
@@ -9092,11 +9092,11 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>cB13</v>
+      </c>
+      <c r="I97" s="42" t="str">
         <f t="shared" si="8"/>
-        <v>cB13</v>
-      </c>
-      <c r="I97" s="42" t="str">
-        <f t="shared" si="9"/>
         <v>B13</v>
       </c>
       <c r="J97" s="26" t="s">
@@ -9124,8 +9124,8 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   14. Bladder cancer</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.14. Bladder cancer</v>
       </c>
       <c r="B98" s="2">
         <v>91</v>
@@ -9142,11 +9142,11 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>cB14</v>
+      </c>
+      <c r="I98" s="42" t="str">
         <f t="shared" si="8"/>
-        <v>cB14</v>
-      </c>
-      <c r="I98" s="42" t="str">
-        <f t="shared" si="9"/>
         <v>B14</v>
       </c>
       <c r="J98" s="26" t="s">
@@ -9174,8 +9174,8 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   15. Brain and nervous system cancers</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.15. Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
         <v>92</v>
@@ -9192,11 +9192,11 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>cB15</v>
+      </c>
+      <c r="I99" s="42" t="str">
         <f t="shared" si="8"/>
-        <v>cB15</v>
-      </c>
-      <c r="I99" s="42" t="str">
-        <f t="shared" si="9"/>
         <v>B15</v>
       </c>
       <c r="J99" s="26" t="s">
@@ -9224,7 +9224,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B100" s="2">
@@ -9242,7 +9242,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I100" s="42"/>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B101" s="2">
@@ -9289,7 +9289,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I101" s="42"/>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B102" s="2">
@@ -9336,7 +9336,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I102" s="42"/>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B103" s="2">
@@ -9383,7 +9383,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>cB99</v>
       </c>
       <c r="I103" s="42"/>
@@ -9412,8 +9412,8 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   16. Lymphomas and multiple myeloma</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.16. Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
         <v>97</v>
@@ -9431,7 +9431,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="42"/>
       <c r="I104" s="42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>B16</v>
       </c>
       <c r="J104" s="26" t="s">
@@ -9459,7 +9459,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B105" s="2">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="42" t="str">
-        <f t="shared" ref="H105:H111" si="10">CONCATENATE("c",D105,E105,F105)</f>
+        <f t="shared" ref="H105:H111" si="9">CONCATENATE("c",D105,E105,F105)</f>
         <v>cB16a</v>
       </c>
       <c r="I105" s="42"/>
@@ -9508,8 +9508,8 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   16.  b. Non-Hodgkin lymphoma</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.16.b. Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
         <v>99</v>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>cB16b</v>
       </c>
       <c r="I106" s="42" t="str">
@@ -9560,8 +9560,8 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   16.  c. Multiple myeloma</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.16.c. Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
         <v>100</v>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>cB16c</v>
       </c>
       <c r="I107" s="42" t="str">
@@ -9612,8 +9612,8 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   17. Leukaemia</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.17. Leukaemia</v>
       </c>
       <c r="B108" s="2">
         <v>101</v>
@@ -9630,7 +9630,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>cB17</v>
       </c>
       <c r="I108" s="42" t="str">
@@ -9662,8 +9662,8 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  B.   99. Other malignant neoplasms</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      B.99. Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
         <v>102</v>
@@ -9680,7 +9680,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>cB99</v>
       </c>
       <c r="I109" s="42" t="str">
@@ -9708,7 +9708,7 @@
     </row>
     <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B110" s="2">
@@ -9726,7 +9726,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>cD99</v>
       </c>
       <c r="I110" s="42"/>
@@ -9755,8 +9755,8 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   01. Diabetes mellitus</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.01. Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
         <v>104</v>
@@ -9773,7 +9773,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>cD01</v>
       </c>
       <c r="I111" s="42" t="str">
@@ -9805,8 +9805,8 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   02. Endocrine, blood, immune disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.02. Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
         <v>105</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B113" s="2">
@@ -9901,7 +9901,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B114" s="2">
@@ -9948,7 +9948,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B115" s="2">
@@ -9995,7 +9995,7 @@
     </row>
     <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B116" s="2">
@@ -10042,7 +10042,7 @@
     </row>
     <row r="117" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B117" s="2">
@@ -10088,8 +10088,8 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   03. Mental Health disoders (non-subsance use)</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.03. Mental Health disoders (non-subsance use)</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="64" t="s">
@@ -10125,8 +10125,8 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   04. Substance use (Mental Health)</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.04. Substance use (Mental Health)</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="64" t="s">
@@ -10160,7 +10160,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B120" s="2"/>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B121" s="2">
@@ -10222,7 +10222,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B122" s="2">
@@ -10265,7 +10265,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B123" s="2">
@@ -10308,7 +10308,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B124" s="2">
@@ -10351,7 +10351,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B125" s="2">
@@ -10398,8 +10398,8 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   04.  a. Alcohol use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.04.a. Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
         <v>116</v>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B127" s="2">
@@ -10490,8 +10490,8 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   04.  b. Opioid use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.04.b. Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
         <v>118</v>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="42" t="str">
-        <f t="shared" ref="H128:H135" si="11">CONCATENATE("c",D128,E128,F128)</f>
+        <f t="shared" ref="H128:H135" si="10">CONCATENATE("c",D128,E128,F128)</f>
         <v>cD04b</v>
       </c>
       <c r="I128" s="42" t="str">
@@ -10542,8 +10542,8 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   04.  c. Cocaine use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.04.c. Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
         <v>119</v>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>cD04c</v>
       </c>
       <c r="I129" s="42" t="str">
@@ -10594,8 +10594,8 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">  D.   04.  d. Amphetamine use disorders</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      D.04.d. Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
         <v>120</v>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>cD04d</v>
       </c>
       <c r="I130" s="42" t="str">
@@ -10646,7 +10646,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -10664,7 +10664,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>cD04</v>
       </c>
       <c r="I131" s="42"/>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A195" si="12">IF(I132&lt;&gt;"",CONCATENATE("  ",D132,". ",IF(E132="",E132,IF(F132="",CONCATENATE("  ",E132,". "),CONCATENATE("  ",E132,".  ",F132,". "))),Q132),"")</f>
+        <f t="shared" ref="A132:A195" si="11">IF(I132="","",CONCATENATE(IF(E132="",CONCATENATE("   ", D132,". "),IF(F132="",CONCATENATE("      ",D132,".",E132,". "),CONCATENATE("      ",D132,".",E132,".",F132,". "))),Q132))</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -10707,7 +10707,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>cD04</v>
       </c>
       <c r="I132" s="42"/>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B133" s="2">
@@ -10754,7 +10754,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>cD03</v>
       </c>
       <c r="I133" s="42"/>
@@ -10779,7 +10779,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B134" s="2">
@@ -10797,7 +10797,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>cD03</v>
       </c>
       <c r="I134" s="42"/>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B135" s="2">
@@ -10844,7 +10844,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>cD03</v>
       </c>
       <c r="I135" s="42"/>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B136" s="2">
@@ -10905,7 +10905,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B137" s="2">
@@ -10948,7 +10948,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B138" s="2">
@@ -10991,7 +10991,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B139" s="2">
@@ -11034,7 +11034,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B140" s="2">
@@ -11077,7 +11077,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B141" s="2">
@@ -11123,8 +11123,8 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  D.   05. Alzheimer’s disease and other dementias</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      D.05. Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
         <v>132</v>
@@ -11141,7 +11141,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="42" t="str">
-        <f t="shared" ref="H142:H148" si="13">CONCATENATE("c",D142,E142,F142)</f>
+        <f t="shared" ref="H142:H148" si="12">CONCATENATE("c",D142,E142,F142)</f>
         <v>cD05</v>
       </c>
       <c r="I142" s="42" t="str">
@@ -11173,7 +11173,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B143" s="2">
@@ -11191,7 +11191,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I143" s="42"/>
@@ -11220,7 +11220,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B144" s="2">
@@ -11238,7 +11238,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I144" s="42"/>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B145" s="2">
@@ -11285,7 +11285,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I145" s="42"/>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B146" s="2">
@@ -11332,7 +11332,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I146" s="42"/>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B147" s="2">
@@ -11375,7 +11375,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I147" s="42"/>
@@ -11400,8 +11400,8 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  D.   06. Other neurological conditions</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      D.06. Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
         <v>138</v>
@@ -11418,7 +11418,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>cD06</v>
       </c>
       <c r="I148" s="42" t="str">
@@ -11450,7 +11450,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B149" s="2">
@@ -11492,7 +11492,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B150" s="2">
@@ -11510,7 +11510,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="42" t="str">
-        <f t="shared" ref="H150:H156" si="14">CONCATENATE("c",D150,E150,F150)</f>
+        <f t="shared" ref="H150:H156" si="13">CONCATENATE("c",D150,E150,F150)</f>
         <v>cD99</v>
       </c>
       <c r="I150" s="42"/>
@@ -11535,7 +11535,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B151" s="2">
@@ -11553,7 +11553,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I151" s="42"/>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B152" s="2">
@@ -11596,7 +11596,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I152" s="42"/>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B153" s="2">
@@ -11639,7 +11639,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I153" s="42"/>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B154" s="2">
@@ -11682,7 +11682,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I154" s="42"/>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B155" s="2">
@@ -11725,7 +11725,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I155" s="42"/>
@@ -11750,7 +11750,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B156" s="2">
@@ -11768,7 +11768,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>cD99</v>
       </c>
       <c r="I156" s="42"/>
@@ -11795,8 +11795,8 @@
     </row>
     <row r="157" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  C. Cardiovascular diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   C. Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
         <v>147</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B158" s="2">
@@ -11858,7 +11858,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="42" t="str">
-        <f t="shared" ref="H158:H163" si="15">CONCATENATE("c",D158,E158,F158)</f>
+        <f t="shared" ref="H158:H163" si="14">CONCATENATE("c",D158,E158,F158)</f>
         <v>cC99</v>
       </c>
       <c r="I158" s="42"/>
@@ -11887,8 +11887,8 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  C.   01. Hypertensive heart disease</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      C.01. Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
         <v>149</v>
@@ -11905,7 +11905,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>cC01</v>
       </c>
       <c r="I159" s="42" t="str">
@@ -11937,8 +11937,8 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  C.   02. Ischaemic heart disease</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      C.02. Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
         <v>150</v>
@@ -11955,7 +11955,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>cC02</v>
       </c>
       <c r="I160" s="42" t="str">
@@ -11987,8 +11987,8 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  C.   03. Stroke</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      C.03. Stroke</v>
       </c>
       <c r="B161" s="2">
         <v>151</v>
@@ -12005,7 +12005,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>cC03</v>
       </c>
       <c r="I161" s="42" t="str">
@@ -12037,8 +12037,8 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  C.   04. Cardiomyopathy, myocarditis, endocarditis</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      C.04. Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
         <v>152</v>
@@ -12055,7 +12055,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>cC04</v>
       </c>
       <c r="I162" s="42" t="str">
@@ -12087,8 +12087,8 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  C.   99. Other cardiovascular diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      C.99. Other cardiovascular diseases</v>
       </c>
       <c r="B163" s="2">
         <v>153</v>
@@ -12105,7 +12105,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>cC99</v>
       </c>
       <c r="I163" s="42" t="str">
@@ -12137,7 +12137,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B164" s="2">
@@ -12181,8 +12181,8 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  D.   07. Chronic obstructive pulmonary disease</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      D.07. Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B165" s="2">
         <v>155</v>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B166" s="2">
@@ -12278,8 +12278,8 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  D.   08. Other respiratory diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      D.08. Other respiratory diseases</v>
       </c>
       <c r="B167" s="2">
         <v>157</v>
@@ -12328,8 +12328,8 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  D.   09. Digestive diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      D.09. Digestive diseases</v>
       </c>
       <c r="B168" s="2">
         <v>158</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B169" s="2">
@@ -12395,7 +12395,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="42" t="str">
-        <f t="shared" ref="H169:H177" si="16">CONCATENATE("c",D169,E169,F169)</f>
+        <f t="shared" ref="H169:H177" si="15">CONCATENATE("c",D169,E169,F169)</f>
         <v>cD09</v>
       </c>
       <c r="I169" s="42"/>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B170" s="2">
@@ -12442,7 +12442,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I170" s="42"/>
@@ -12471,7 +12471,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B171" s="2">
@@ -12489,7 +12489,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I171" s="42"/>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B172" s="2">
@@ -12536,7 +12536,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I172" s="42"/>
@@ -12565,7 +12565,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B173" s="2">
@@ -12583,7 +12583,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I173" s="42"/>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B174" s="2">
@@ -12630,7 +12630,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I174" s="42"/>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B175" s="2">
@@ -12677,7 +12677,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I175" s="42"/>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B176" s="2">
@@ -12724,7 +12724,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I176" s="42"/>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B177" s="2">
@@ -12771,7 +12771,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>cD09</v>
       </c>
       <c r="I177" s="42"/>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B178" s="2">
@@ -12842,8 +12842,8 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  D.   10. Kidney diseases</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      D.10. Kidney diseases</v>
       </c>
       <c r="B179" s="2">
         <v>169</v>
@@ -12891,7 +12891,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B180" s="2">
@@ -12909,7 +12909,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="42" t="str">
-        <f t="shared" ref="H180:H188" si="17">CONCATENATE("c",D180,E180,F180)</f>
+        <f t="shared" ref="H180:H188" si="16">CONCATENATE("c",D180,E180,F180)</f>
         <v>cD10</v>
       </c>
       <c r="I180" s="42"/>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B181" s="2">
@@ -12956,7 +12956,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD10</v>
       </c>
       <c r="I181" s="42"/>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B182" s="2">
@@ -13003,7 +13003,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD10</v>
       </c>
       <c r="I182" s="42"/>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B183" s="2">
@@ -13050,7 +13050,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I183" s="42"/>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B184" s="2">
@@ -13093,7 +13093,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I184" s="42"/>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="185" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B185" s="2">
@@ -13140,7 +13140,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I185" s="42"/>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B186" s="2">
@@ -13187,7 +13187,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I186" s="42"/>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B187" s="2">
@@ -13234,7 +13234,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I187" s="42"/>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B188" s="2">
@@ -13281,7 +13281,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>cD99</v>
       </c>
       <c r="I188" s="42"/>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B189" s="2">
@@ -13356,7 +13356,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B190" s="2">
@@ -13403,7 +13403,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B191" s="2">
@@ -13446,7 +13446,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B192" s="2">
@@ -13489,7 +13489,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B193" s="2">
@@ -13532,7 +13532,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B194" s="2">
@@ -13579,8 +13579,8 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">  D.   11. Congenital anomalies</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      D.11. Congenital anomalies</v>
       </c>
       <c r="B195" s="2">
         <v>185</v>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f t="shared" ref="A196:A220" si="18">IF(I196&lt;&gt;"",CONCATENATE("  ",D196,". ",IF(E196="",E196,IF(F196="",CONCATENATE("  ",E196,". "),CONCATENATE("  ",E196,".  ",F196,". "))),Q196),"")</f>
+        <f t="shared" ref="A196:A220" si="17">IF(I196="","",CONCATENATE(IF(E196="",CONCATENATE("   ", D196,". "),IF(F196="",CONCATENATE("      ",D196,".",E196,". "),CONCATENATE("      ",D196,".",E196,".",F196,". "))),Q196))</f>
         <v/>
       </c>
       <c r="B196" s="2">
@@ -13646,7 +13646,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="42" t="str">
-        <f t="shared" ref="H196:H201" si="19">CONCATENATE("c",D196,E196,F196)</f>
+        <f t="shared" ref="H196:H201" si="18">CONCATENATE("c",D196,E196,F196)</f>
         <v>cD11</v>
       </c>
       <c r="I196" s="42"/>
@@ -13675,7 +13675,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B197" s="2">
@@ -13693,7 +13693,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>cD11</v>
       </c>
       <c r="I197" s="42"/>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B198" s="2">
@@ -13740,7 +13740,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>cD11</v>
       </c>
       <c r="I198" s="42"/>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B199" s="2">
@@ -13787,7 +13787,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>cD11</v>
       </c>
       <c r="I199" s="42"/>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B200" s="2">
@@ -13834,7 +13834,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>cD11</v>
       </c>
       <c r="I200" s="42"/>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B201" s="2">
@@ -13881,7 +13881,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>cD11</v>
       </c>
       <c r="I201" s="42"/>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B202" s="2">
@@ -13950,7 +13950,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B203" s="2">
@@ -13993,7 +13993,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B204" s="2">
@@ -14036,7 +14036,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B205" s="2">
@@ -14079,7 +14079,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B206" s="2">
@@ -14122,8 +14122,8 @@
     </row>
     <row r="207" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E. Injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   E. Injuries</v>
       </c>
       <c r="B207" s="2">
         <v>197</v>
@@ -14167,8 +14167,8 @@
     </row>
     <row r="208" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E.   01. Unintentional injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      E.01. Unintentional injuries</v>
       </c>
       <c r="B208" s="2">
         <v>198</v>
@@ -14214,8 +14214,8 @@
     </row>
     <row r="209" spans="1:19" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E.   01.  a. Road injury</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      E.01.a. Road injury</v>
       </c>
       <c r="B209" s="2">
         <v>199</v>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="42" t="str">
-        <f t="shared" ref="H209:H216" si="20">CONCATENATE("c",D209,E209,F209)</f>
+        <f t="shared" ref="H209:H216" si="19">CONCATENATE("c",D209,E209,F209)</f>
         <v>cE01a</v>
       </c>
       <c r="I209" s="42" t="str">
@@ -14266,7 +14266,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B210" s="2">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I210" s="42"/>
@@ -14315,8 +14315,8 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E.   01.  b. Falls</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      E.01.b. Falls</v>
       </c>
       <c r="B211" s="2">
         <v>201</v>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>cE01b</v>
       </c>
       <c r="I211" s="42" t="str">
@@ -14367,7 +14367,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B212" s="2">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I212" s="42"/>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B213" s="2">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I213" s="42"/>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B214" s="2">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I214" s="42"/>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B215" s="2">
@@ -14534,7 +14534,7 @@
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I215" s="42"/>
@@ -14559,8 +14559,8 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E.   01.  x. Other unintentional injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      E.01.x. Other unintentional injuries</v>
       </c>
       <c r="B216" s="2">
         <v>206</v>
@@ -14579,7 +14579,7 @@
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>cE01x</v>
       </c>
       <c r="I216" s="42" t="str">
@@ -14611,8 +14611,8 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E.   02. Intentional injuries</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      E.02. Intentional injuries</v>
       </c>
       <c r="B217" s="2">
         <v>207</v>
@@ -14658,8 +14658,8 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E.   02.  a. Self-harm</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      E.02.a. Self-harm</v>
       </c>
       <c r="B218" s="2">
         <v>208</v>
@@ -14710,8 +14710,8 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">  E.   02.  b. Interpersonal violence</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      E.02.b. Interpersonal violence</v>
       </c>
       <c r="B219" s="2">
         <v>209</v>
@@ -14762,7 +14762,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="B220" s="2">

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -4642,7 +4642,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,8 +4761,8 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>IF(I3="","",CONCATENATE(IF(E3="",CONCATENATE("   ", D3,". "),IF(F3="",CONCATENATE("      ",D3,".",E3,". "),CONCATENATE("      ",D3,".",E3,".",F3,". "))),Q3))</f>
-        <v xml:space="preserve">   A. Communicable, maternal, perinatal and nutritional conditions</v>
+        <f>IF(I3="","",CONCATENATE(IF(E3="",CONCATENATE("...", D3,". "),IF(F3="",CONCATENATE("…...",D3,".",E3,". "),CONCATENATE("……...",D3,".",E3,".",F3,". "))),Q3))</f>
+        <v>...A. Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4806,8 +4806,8 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" si="0">IF(I4="","",CONCATENATE(IF(E4="",CONCATENATE("   ", D4,". "),IF(F4="",CONCATENATE("      ",D4,".",E4,". "),CONCATENATE("      ",D4,".",E4,".",F4,". "))),Q4))</f>
-        <v xml:space="preserve">      A.99. Other Infectious Diseases</v>
+        <f t="shared" ref="A4:A67" si="0">IF(I4="","",CONCATENATE(IF(E4="",CONCATENATE("...", D4,". "),IF(F4="",CONCATENATE("…...",D4,".",E4,". "),CONCATENATE("……...",D4,".",E4,".",F4,". "))),Q4))</f>
+        <v>…...A.99. Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -4884,7 +4884,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.01. Tuberculosis</v>
+        <v>…...A.01. Tuberculosis</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -4934,7 +4934,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.02. HIV/ and other Sexually transmitted diseases (STDs)</v>
+        <v>…...A.02. HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="66" t="s">
@@ -4969,7 +4969,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.02.a. Sexually transmitted diseases (STDs) excluding HIV</v>
+        <v>……...A.02.a. Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -5263,7 +5263,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.02.b. HIV/AIDS</v>
+        <v>……...A.02.b. HIV/AIDS</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
@@ -5682,7 +5682,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.04. Meningitis</v>
+        <v>…...A.04. Meningitis</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
@@ -5732,7 +5732,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.05. Encephalitis</v>
+        <v>…...A.05. Encephalitis</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
@@ -5782,7 +5782,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.06. Hepatitis</v>
+        <v>…...A.06. Hepatitis</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
@@ -5868,7 +5868,7 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.06.a. Acute hepatitis B</v>
+        <v>……...A.06.a. Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
@@ -5942,7 +5942,7 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.06.b. Acute hepatitis C</v>
+        <v>……...A.06.b. Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
         <v>24</v>
@@ -6978,7 +6978,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.07. Respiratory infections</v>
+        <v>…...A.07. Respiratory infections</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
@@ -7166,7 +7166,7 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.08. Maternal conditions</v>
+        <v>…...A.08. Maternal conditions</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -7497,7 +7497,7 @@
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      A.09. Neonatal conditions</v>
+        <v>…...A.09. Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A131" si="4">IF(I68="","",CONCATENATE(IF(E68="",CONCATENATE("   ", D68,". "),IF(F68="",CONCATENATE("      ",D68,".",E68,". "),CONCATENATE("      ",D68,".",E68,".",F68,". "))),Q68))</f>
+        <f t="shared" ref="A68:A131" si="4">IF(I68="","",CONCATENATE(IF(E68="",CONCATENATE("...", D68,". "),IF(F68="",CONCATENATE("…...",D68,".",E68,". "),CONCATENATE("……...",D68,".",E68,".",F68,". "))),Q68))</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -8047,7 +8047,7 @@
     <row r="75" spans="1:19" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   D. Other Chronic</v>
+        <v>...D. Other Chronic</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="54" t="s">
@@ -8079,7 +8079,7 @@
     <row r="76" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   B. Malignant neoplasms</v>
+        <v>...B. Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
         <v>70</v>
@@ -8124,7 +8124,7 @@
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.01. Mouth and oropharynx cancers</v>
+        <v>…...B.01. Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
         <v>71</v>
@@ -8308,7 +8308,7 @@
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.02. Oesophagus cancer</v>
+        <v>…...B.02. Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
         <v>75</v>
@@ -8358,7 +8358,7 @@
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.03. Stomach cancer</v>
+        <v>…...B.03. Stomach cancer</v>
       </c>
       <c r="B82" s="2">
         <v>76</v>
@@ -8410,7 +8410,7 @@
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.04. Colon and rectum cancers</v>
+        <v>…...B.04. Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
         <v>77</v>
@@ -8460,7 +8460,7 @@
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.05. Liver cancer</v>
+        <v>…...B.05. Liver cancer</v>
       </c>
       <c r="B84" s="2">
         <v>78</v>
@@ -8510,7 +8510,7 @@
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.06. Pancreas cancer</v>
+        <v>…...B.06. Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
         <v>79</v>
@@ -8560,7 +8560,7 @@
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.07. Trachea, bronchus and lung cancers</v>
+        <v>…...B.07. Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
         <v>80</v>
@@ -8610,7 +8610,7 @@
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.08. Melanoma and other skin cancers</v>
+        <v>…...B.08. Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
         <v>81</v>
@@ -8749,7 +8749,7 @@
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.09. Breast cancer</v>
+        <v>…...B.09. Breast cancer</v>
       </c>
       <c r="B90" s="2">
         <v>84</v>
@@ -8799,7 +8799,7 @@
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.10. uteri cancer</v>
+        <v>…...B.10. uteri cancer</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="74" t="s">
@@ -8928,7 +8928,7 @@
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.11. Ovary cancer</v>
+        <v>…...B.11. Ovary cancer</v>
       </c>
       <c r="B94" s="2">
         <v>87</v>
@@ -8978,7 +8978,7 @@
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.12. Prostate cancer</v>
+        <v>…...B.12. Prostate cancer</v>
       </c>
       <c r="B95" s="2">
         <v>88</v>
@@ -9075,7 +9075,7 @@
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.13. Kidney, renal pelvis and ureter cancer</v>
+        <v>…...B.13. Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
         <v>90</v>
@@ -9125,7 +9125,7 @@
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.14. Bladder cancer</v>
+        <v>…...B.14. Bladder cancer</v>
       </c>
       <c r="B98" s="2">
         <v>91</v>
@@ -9175,7 +9175,7 @@
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.15. Brain and nervous system cancers</v>
+        <v>…...B.15. Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
         <v>92</v>
@@ -9413,7 +9413,7 @@
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.16. Lymphomas and multiple myeloma</v>
+        <v>…...B.16. Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
         <v>97</v>
@@ -9509,7 +9509,7 @@
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.16.b. Non-Hodgkin lymphoma</v>
+        <v>……...B.16.b. Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
         <v>99</v>
@@ -9561,7 +9561,7 @@
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.16.c. Multiple myeloma</v>
+        <v>……...B.16.c. Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
         <v>100</v>
@@ -9613,7 +9613,7 @@
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.17. Leukaemia</v>
+        <v>…...B.17. Leukaemia</v>
       </c>
       <c r="B108" s="2">
         <v>101</v>
@@ -9663,7 +9663,7 @@
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      B.99. Other malignant neoplasms</v>
+        <v>…...B.99. Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
         <v>102</v>
@@ -9756,7 +9756,7 @@
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.01. Diabetes mellitus</v>
+        <v>…...D.01. Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
         <v>104</v>
@@ -9806,7 +9806,7 @@
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.02. Endocrine, blood, immune disorders</v>
+        <v>…...D.02. Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
         <v>105</v>
@@ -10089,7 +10089,7 @@
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.03. Mental Health disoders (non-subsance use)</v>
+        <v>…...D.03. Mental Health disoders (non-subsance use)</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="64" t="s">
@@ -10126,7 +10126,7 @@
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.04. Substance use (Mental Health)</v>
+        <v>…...D.04. Substance use (Mental Health)</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="64" t="s">
@@ -10399,7 +10399,7 @@
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.04.a. Alcohol use disorders</v>
+        <v>……...D.04.a. Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
         <v>116</v>
@@ -10491,7 +10491,7 @@
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.04.b. Opioid use disorders</v>
+        <v>……...D.04.b. Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
         <v>118</v>
@@ -10543,7 +10543,7 @@
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.04.c. Cocaine use disorders</v>
+        <v>……...D.04.c. Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
         <v>119</v>
@@ -10595,7 +10595,7 @@
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      D.04.d. Amphetamine use disorders</v>
+        <v>……...D.04.d. Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
         <v>120</v>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A195" si="11">IF(I132="","",CONCATENATE(IF(E132="",CONCATENATE("   ", D132,". "),IF(F132="",CONCATENATE("      ",D132,".",E132,". "),CONCATENATE("      ",D132,".",E132,".",F132,". "))),Q132))</f>
+        <f t="shared" ref="A132:A195" si="11">IF(I132="","",CONCATENATE(IF(E132="",CONCATENATE("...", D132,". "),IF(F132="",CONCATENATE("…...",D132,".",E132,". "),CONCATENATE("……...",D132,".",E132,".",F132,". "))),Q132))</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -11124,7 +11124,7 @@
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      D.05. Alzheimer’s disease and other dementias</v>
+        <v>…...D.05. Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
         <v>132</v>
@@ -11401,7 +11401,7 @@
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      D.06. Other neurological conditions</v>
+        <v>…...D.06. Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
         <v>138</v>
@@ -11796,7 +11796,7 @@
     <row r="157" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">   C. Cardiovascular diseases</v>
+        <v>...C. Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
         <v>147</v>
@@ -11888,7 +11888,7 @@
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      C.01. Hypertensive heart disease</v>
+        <v>…...C.01. Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
         <v>149</v>
@@ -11938,7 +11938,7 @@
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      C.02. Ischaemic heart disease</v>
+        <v>…...C.02. Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
         <v>150</v>
@@ -11988,7 +11988,7 @@
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      C.03. Stroke</v>
+        <v>…...C.03. Stroke</v>
       </c>
       <c r="B161" s="2">
         <v>151</v>
@@ -12038,7 +12038,7 @@
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      C.04. Cardiomyopathy, myocarditis, endocarditis</v>
+        <v>…...C.04. Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
         <v>152</v>
@@ -12088,7 +12088,7 @@
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      C.99. Other cardiovascular diseases</v>
+        <v>…...C.99. Other cardiovascular diseases</v>
       </c>
       <c r="B163" s="2">
         <v>153</v>
@@ -12182,7 +12182,7 @@
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      D.07. Chronic obstructive pulmonary disease</v>
+        <v>…...D.07. Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B165" s="2">
         <v>155</v>
@@ -12279,7 +12279,7 @@
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      D.08. Other respiratory diseases</v>
+        <v>…...D.08. Other respiratory diseases</v>
       </c>
       <c r="B167" s="2">
         <v>157</v>
@@ -12329,7 +12329,7 @@
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      D.09. Digestive diseases</v>
+        <v>…...D.09. Digestive diseases</v>
       </c>
       <c r="B168" s="2">
         <v>158</v>
@@ -12843,7 +12843,7 @@
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      D.10. Kidney diseases</v>
+        <v>…...D.10. Kidney diseases</v>
       </c>
       <c r="B179" s="2">
         <v>169</v>
@@ -13580,7 +13580,7 @@
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">      D.11. Congenital anomalies</v>
+        <v>…...D.11. Congenital anomalies</v>
       </c>
       <c r="B195" s="2">
         <v>185</v>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f t="shared" ref="A196:A220" si="17">IF(I196="","",CONCATENATE(IF(E196="",CONCATENATE("   ", D196,". "),IF(F196="",CONCATENATE("      ",D196,".",E196,". "),CONCATENATE("      ",D196,".",E196,".",F196,". "))),Q196))</f>
+        <f t="shared" ref="A196:A220" si="17">IF(I196="","",CONCATENATE(IF(E196="",CONCATENATE("...", D196,". "),IF(F196="",CONCATENATE("…...",D196,".",E196,". "),CONCATENATE("……...",D196,".",E196,".",F196,". "))),Q196))</f>
         <v/>
       </c>
       <c r="B196" s="2">
@@ -14123,7 +14123,7 @@
     <row r="207" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   E. Injuries</v>
+        <v>...E. Injuries</v>
       </c>
       <c r="B207" s="2">
         <v>197</v>
@@ -14168,7 +14168,7 @@
     <row r="208" spans="1:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">      E.01. Unintentional injuries</v>
+        <v>…...E.01. Unintentional injuries</v>
       </c>
       <c r="B208" s="2">
         <v>198</v>
@@ -14215,7 +14215,7 @@
     <row r="209" spans="1:19" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">      E.01.a. Road injury</v>
+        <v>……...E.01.a. Road injury</v>
       </c>
       <c r="B209" s="2">
         <v>199</v>
@@ -14316,7 +14316,7 @@
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">      E.01.b. Falls</v>
+        <v>……...E.01.b. Falls</v>
       </c>
       <c r="B211" s="2">
         <v>201</v>
@@ -14560,7 +14560,7 @@
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">      E.01.x. Other unintentional injuries</v>
+        <v>……...E.01.x. Other unintentional injuries</v>
       </c>
       <c r="B216" s="2">
         <v>206</v>
@@ -14612,7 +14612,7 @@
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">      E.02. Intentional injuries</v>
+        <v>…...E.02. Intentional injuries</v>
       </c>
       <c r="B217" s="2">
         <v>207</v>
@@ -14659,7 +14659,7 @@
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">      E.02.a. Self-harm</v>
+        <v>……...E.02.a. Self-harm</v>
       </c>
       <c r="B218" s="2">
         <v>208</v>
@@ -14711,7 +14711,7 @@
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">      E.02.b. Interpersonal violence</v>
+        <v>……...E.02.b. Interpersonal violence</v>
       </c>
       <c r="B219" s="2">
         <v>209</v>

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1180">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -1006,12 +1006,6 @@
   </si>
   <si>
     <t>Intentional injuries</t>
-  </si>
-  <si>
-    <t>Self-harm</t>
-  </si>
-  <si>
-    <t>Interpersonal violence</t>
   </si>
   <si>
     <t>Collective violence and legal intervention</t>
@@ -3769,6 +3763,15 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Homicide/Interpersonal violence</t>
+  </si>
+  <si>
+    <t>Suicide/Self-harm</t>
+  </si>
 </sst>
 </file>
 
@@ -3777,7 +3780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3892,6 +3895,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4094,7 +4104,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4312,6 +4322,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -4648,10 +4670,10 @@
   <dimension ref="A1:S221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,59 +4698,59 @@
   <sheetData>
     <row r="1" spans="1:19" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>766</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="40" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>1150</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P1" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>765</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4744,7 +4766,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="40"/>
       <c r="I2" s="75" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -4754,7 +4776,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="R2" s="15"/>
       <c r="S2" s="10"/>
@@ -4768,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D3" s="67">
         <v>0</v>
@@ -4789,10 +4811,10 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="S3" s="10"/>
     </row>
@@ -4808,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="1"/>
@@ -4819,19 +4841,19 @@
         <v>A</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
       <c r="O4" s="26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>143</v>
@@ -4848,10 +4870,10 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E5" s="69">
         <v>99</v>
@@ -4871,7 +4893,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="2"/>
@@ -4888,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="1"/>
@@ -4896,19 +4918,19 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>144</v>
@@ -4930,10 +4952,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4946,19 +4968,19 @@
         <v>A01</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="O7" s="26" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>145</v>
@@ -4975,13 +4997,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="66" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4998,7 +5020,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="2"/>
@@ -5012,39 +5034,39 @@
         <v>4</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I9" s="42" t="str">
         <f>CONCATENATE(D9,E9,F9)</f>
         <v>A02a</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>146</v>
@@ -5066,13 +5088,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="42" t="str">
@@ -5081,19 +5103,19 @@
       </c>
       <c r="I10" s="42"/>
       <c r="J10" s="26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
       <c r="O10" s="26" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>147</v>
@@ -5115,13 +5137,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="42" t="str">
@@ -5130,19 +5152,19 @@
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
       <c r="O11" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>148</v>
@@ -5164,13 +5186,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="42" t="str">
@@ -5179,19 +5201,19 @@
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
       <c r="O12" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>149</v>
@@ -5213,13 +5235,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="42" t="str">
@@ -5228,10 +5250,10 @@
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -5245,7 +5267,7 @@
         <v>7</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5260,13 +5282,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="42" t="str">
@@ -5275,19 +5297,19 @@
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>151</v>
@@ -5306,39 +5328,39 @@
         <v>10</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I15" s="42" t="str">
         <f>CONCATENATE(D15,E15,F15)</f>
         <v>A02b</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
       <c r="O15" s="26" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>152</v>
@@ -5357,16 +5379,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="42" t="str">
@@ -5375,10 +5397,10 @@
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -5389,7 +5411,7 @@
         <v>153</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="S16" s="2"/>
     </row>
@@ -5402,16 +5424,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="42" t="str">
@@ -5420,25 +5442,25 @@
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="26" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="O17" s="26" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>154</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="S17" s="2"/>
     </row>
@@ -5454,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E18" s="69">
         <v>99</v>
@@ -5467,19 +5489,19 @@
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>155</v>
@@ -5501,20 +5523,20 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -5540,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E20" s="69">
         <v>99</v>
@@ -5553,19 +5575,19 @@
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="O20" s="26" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>157</v>
@@ -5587,7 +5609,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E21" s="69">
         <v>99</v>
@@ -5600,19 +5622,19 @@
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="O21" s="26" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>158</v>
@@ -5634,7 +5656,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E22" s="69">
         <v>99</v>
@@ -5647,19 +5669,19 @@
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
       <c r="O22" s="26" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>159</v>
@@ -5681,7 +5703,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E23" s="69">
         <v>99</v>
@@ -5694,19 +5716,19 @@
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
       <c r="O23" s="26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="Q23" s="9" t="s">
         <v>160</v>
@@ -5728,10 +5750,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -5744,19 +5766,19 @@
         <v>A04</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
       <c r="O24" s="26" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>161</v>
@@ -5778,10 +5800,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -5794,19 +5816,19 @@
         <v>A05</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
       <c r="O25" s="26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="Q25" s="9" t="s">
         <v>162</v>
@@ -5825,13 +5847,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -5841,10 +5863,10 @@
         <v>A06</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
@@ -5855,7 +5877,7 @@
         <v>163</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="S26" s="2"/>
     </row>
@@ -5868,13 +5890,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -5884,10 +5906,10 @@
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -5898,7 +5920,7 @@
         <v>164</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="S27" s="2"/>
     </row>
@@ -5911,16 +5933,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="42" t="str">
@@ -5932,10 +5954,10 @@
         <v>A06a</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -5946,7 +5968,7 @@
         <v>165</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="S28" s="2"/>
     </row>
@@ -5957,7 +5979,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="68" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D29" s="61"/>
       <c r="E29" s="69"/>
@@ -5985,16 +6007,16 @@
         <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="42" t="str">
@@ -6006,10 +6028,10 @@
         <v>A06b</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -6020,7 +6042,7 @@
         <v>166</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S30" s="2"/>
     </row>
@@ -6033,13 +6055,13 @@
         <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6049,10 +6071,10 @@
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="26" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
@@ -6063,7 +6085,7 @@
         <v>167</v>
       </c>
       <c r="R31" s="15" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="S31" s="2"/>
     </row>
@@ -6076,10 +6098,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E32" s="69"/>
       <c r="F32" s="1"/>
@@ -6087,10 +6109,10 @@
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
       <c r="J32" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
@@ -6101,7 +6123,7 @@
         <v>168</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="S32" s="2"/>
     </row>
@@ -6117,7 +6139,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E33" s="69">
         <v>99</v>
@@ -6130,19 +6152,19 @@
       </c>
       <c r="I33" s="42"/>
       <c r="J33" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
       <c r="O33" s="26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>169</v>
@@ -6164,7 +6186,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E34" s="69">
         <v>99</v>
@@ -6177,19 +6199,19 @@
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>170</v>
@@ -6211,7 +6233,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E35" s="69">
         <v>99</v>
@@ -6224,19 +6246,19 @@
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
       <c r="O35" s="26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>171</v>
@@ -6258,7 +6280,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E36" s="69">
         <v>99</v>
@@ -6271,19 +6293,19 @@
       </c>
       <c r="I36" s="42"/>
       <c r="J36" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>172</v>
@@ -6305,7 +6327,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E37" s="69">
         <v>99</v>
@@ -6318,19 +6340,19 @@
       </c>
       <c r="I37" s="42"/>
       <c r="J37" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
       <c r="O37" s="29" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>173</v>
@@ -6352,7 +6374,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E38" s="69">
         <v>99</v>
@@ -6365,10 +6387,10 @@
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
@@ -6395,7 +6417,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E39" s="69">
         <v>99</v>
@@ -6408,10 +6430,10 @@
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
@@ -6435,10 +6457,10 @@
         <v>34</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E40" s="69">
         <v>99</v>
@@ -6451,10 +6473,10 @@
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L40" s="28"/>
       <c r="M40" s="28"/>
@@ -6469,7 +6491,7 @@
         <v>176</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="S40" s="2"/>
     </row>
@@ -6482,10 +6504,10 @@
         <v>35</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E41" s="69">
         <v>99</v>
@@ -6498,25 +6520,25 @@
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
       <c r="O41" s="26" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P41" s="26" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="Q41" s="9" t="s">
         <v>177</v>
       </c>
       <c r="R41" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="S41" s="2"/>
     </row>
@@ -6529,10 +6551,10 @@
         <v>36</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E42" s="69">
         <v>99</v>
@@ -6545,10 +6567,10 @@
       </c>
       <c r="I42" s="42"/>
       <c r="J42" s="26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
@@ -6556,10 +6578,10 @@
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
       <c r="Q42" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="S42" s="2"/>
     </row>
@@ -6572,10 +6594,10 @@
         <v>37</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E43" s="69">
         <v>99</v>
@@ -6588,25 +6610,25 @@
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
       <c r="O43" s="26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="P43" s="26" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Q43" s="9" t="s">
         <v>178</v>
       </c>
       <c r="R43" s="15" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="S43" s="2"/>
     </row>
@@ -6619,10 +6641,10 @@
         <v>38</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E44" s="69">
         <v>99</v>
@@ -6635,10 +6657,10 @@
       </c>
       <c r="I44" s="42"/>
       <c r="J44" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
@@ -6649,7 +6671,7 @@
         <v>179</v>
       </c>
       <c r="R44" s="15" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="S44" s="2"/>
     </row>
@@ -6662,10 +6684,10 @@
         <v>39</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E45" s="69">
         <v>99</v>
@@ -6678,25 +6700,25 @@
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
       <c r="O45" s="26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P45" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>180</v>
       </c>
       <c r="R45" s="15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="S45" s="2"/>
     </row>
@@ -6709,10 +6731,10 @@
         <v>40</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E46" s="69">
         <v>99</v>
@@ -6725,25 +6747,25 @@
       </c>
       <c r="I46" s="42"/>
       <c r="J46" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
       <c r="O46" s="26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P46" s="26" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="Q46" s="9" t="s">
         <v>181</v>
       </c>
       <c r="R46" s="15" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="S46" s="2"/>
     </row>
@@ -6756,10 +6778,10 @@
         <v>41</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="1"/>
@@ -6767,10 +6789,10 @@
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
       <c r="J47" s="26" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
@@ -6785,7 +6807,7 @@
         <v>182</v>
       </c>
       <c r="R47" s="15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="S47" s="2"/>
     </row>
@@ -6801,7 +6823,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E48" s="69">
         <v>99</v>
@@ -6814,10 +6836,10 @@
       </c>
       <c r="I48" s="42"/>
       <c r="J48" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
@@ -6848,7 +6870,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E49" s="69">
         <v>99</v>
@@ -6861,10 +6883,10 @@
       </c>
       <c r="I49" s="42"/>
       <c r="J49" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L49" s="28"/>
       <c r="M49" s="28"/>
@@ -6891,7 +6913,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E50" s="69">
         <v>99</v>
@@ -6904,10 +6926,10 @@
       </c>
       <c r="I50" s="42"/>
       <c r="J50" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
@@ -6931,10 +6953,10 @@
         <v>45</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E51" s="69">
         <v>99</v>
@@ -6947,10 +6969,10 @@
       </c>
       <c r="I51" s="42"/>
       <c r="J51" s="26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
@@ -6961,7 +6983,7 @@
         <v>186</v>
       </c>
       <c r="R51" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="S51" s="2"/>
     </row>
@@ -6974,10 +6996,10 @@
         <v>46</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E52" s="69">
         <v>99</v>
@@ -6990,25 +7012,25 @@
       </c>
       <c r="I52" s="42"/>
       <c r="J52" s="26" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L52" s="28"/>
       <c r="M52" s="28"/>
       <c r="N52" s="28"/>
       <c r="O52" s="26" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P52" s="26" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>187</v>
       </c>
       <c r="R52" s="15" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="S52" s="2"/>
     </row>
@@ -7024,10 +7046,10 @@
         <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E53" s="69" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -7037,19 +7059,19 @@
         <v>A07</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
       <c r="N53" s="26"/>
       <c r="O53" s="26" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>188</v>
@@ -7071,10 +7093,10 @@
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E54" s="69" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -7084,19 +7106,19 @@
       </c>
       <c r="I54" s="42"/>
       <c r="J54" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
       <c r="N54" s="28"/>
       <c r="O54" s="26" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P54" s="26" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Q54" s="9" t="s">
         <v>189</v>
@@ -7118,10 +7140,10 @@
         <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E55" s="69" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -7131,19 +7153,19 @@
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
       <c r="O55" s="26" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P55" s="26" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Q55" s="9" t="s">
         <v>190</v>
@@ -7165,10 +7187,10 @@
         <v>31</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -7178,19 +7200,19 @@
       </c>
       <c r="I56" s="42"/>
       <c r="J56" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L56" s="28"/>
       <c r="M56" s="28"/>
       <c r="N56" s="28"/>
       <c r="O56" s="26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P56" s="26" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="Q56" s="9" t="s">
         <v>191</v>
@@ -7212,34 +7234,34 @@
         <v>32</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I57" s="42" t="str">
         <f>CONCATENATE(D57,E57,F57)</f>
         <v>A08</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L57" s="26"/>
       <c r="M57" s="26"/>
       <c r="N57" s="26"/>
       <c r="O57" s="26" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="P57" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>192</v>
@@ -7261,10 +7283,10 @@
         <v>33</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -7274,19 +7296,19 @@
       </c>
       <c r="I58" s="42"/>
       <c r="J58" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
       <c r="O58" s="26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P58" s="26" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Q58" s="9" t="s">
         <v>193</v>
@@ -7308,10 +7330,10 @@
         <v>34</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E59" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -7321,19 +7343,19 @@
       </c>
       <c r="I59" s="42"/>
       <c r="J59" s="26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
       <c r="O59" s="26" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P59" s="26" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>194</v>
@@ -7355,10 +7377,10 @@
         <v>35</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E60" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -7368,16 +7390,16 @@
       </c>
       <c r="I60" s="42"/>
       <c r="J60" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
       <c r="O60" s="26" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P60" s="29">
         <v>642</v>
@@ -7402,10 +7424,10 @@
         <v>36</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E61" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -7415,19 +7437,19 @@
       </c>
       <c r="I61" s="42"/>
       <c r="J61" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
       <c r="O61" s="26" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P61" s="26" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Q61" s="9" t="s">
         <v>196</v>
@@ -7449,10 +7471,10 @@
         <v>37</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E62" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -7462,19 +7484,19 @@
       </c>
       <c r="I62" s="42"/>
       <c r="J62" s="26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
       <c r="O62" s="26" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="P62" s="26" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="Q62" s="9" t="s">
         <v>197</v>
@@ -7496,10 +7518,10 @@
         <v>38</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E63" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -7509,19 +7531,19 @@
       </c>
       <c r="I63" s="42"/>
       <c r="J63" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
       <c r="O63" s="26" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P63" s="26" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="Q63" s="9" t="s">
         <v>198</v>
@@ -7543,34 +7565,34 @@
         <v>39</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E64" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I64" s="42" t="str">
         <f>CONCATENATE(D64,E64,F64)</f>
         <v>A09</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K64" s="26" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
       <c r="O64" s="26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P64" s="26" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>199</v>
@@ -7592,10 +7614,10 @@
         <v>40</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E65" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -7605,19 +7627,19 @@
       </c>
       <c r="I65" s="42"/>
       <c r="J65" s="26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
       <c r="N65" s="28"/>
       <c r="O65" s="26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="P65" s="26" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="Q65" s="9" t="s">
         <v>200</v>
@@ -7639,10 +7661,10 @@
         <v>41</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E66" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -7652,19 +7674,19 @@
       </c>
       <c r="I66" s="42"/>
       <c r="J66" s="26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L66" s="28"/>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
       <c r="O66" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P66" s="26" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="Q66" s="9" t="s">
         <v>201</v>
@@ -7686,10 +7708,10 @@
         <v>42</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -7699,19 +7721,19 @@
       </c>
       <c r="I67" s="42"/>
       <c r="J67" s="26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K67" s="28" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
       <c r="O67" s="26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P67" s="26" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="Q67" s="9" t="s">
         <v>202</v>
@@ -7733,10 +7755,10 @@
         <v>43</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E68" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -7746,19 +7768,19 @@
       </c>
       <c r="I68" s="42"/>
       <c r="J68" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
       <c r="N68" s="28"/>
       <c r="O68" s="26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P68" s="26" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Q68" s="9" t="s">
         <v>203</v>
@@ -7780,7 +7802,7 @@
         <v>44</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E69" s="69"/>
       <c r="F69" s="1"/>
@@ -7788,19 +7810,19 @@
       <c r="H69" s="42"/>
       <c r="I69" s="42"/>
       <c r="J69" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K69" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
       <c r="O69" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="P69" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>204</v>
@@ -7822,7 +7844,7 @@
         <v>45</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E70" s="69">
         <v>99</v>
@@ -7835,19 +7857,19 @@
       </c>
       <c r="I70" s="42"/>
       <c r="J70" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L70" s="28"/>
       <c r="M70" s="28"/>
       <c r="N70" s="28"/>
       <c r="O70" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P70" s="26" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="Q70" s="9" t="s">
         <v>205</v>
@@ -7869,7 +7891,7 @@
         <v>46</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E71" s="69">
         <v>99</v>
@@ -7882,10 +7904,10 @@
       </c>
       <c r="I71" s="42"/>
       <c r="J71" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L71" s="28"/>
       <c r="M71" s="28"/>
@@ -7916,7 +7938,7 @@
         <v>47</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E72" s="69">
         <v>99</v>
@@ -7929,10 +7951,10 @@
       </c>
       <c r="I72" s="42"/>
       <c r="J72" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K72" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="28"/>
@@ -7959,7 +7981,7 @@
         <v>48</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E73" s="69">
         <v>99</v>
@@ -7972,19 +7994,19 @@
       </c>
       <c r="I73" s="42"/>
       <c r="J73" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K73" s="28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L73" s="28"/>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
       <c r="O73" s="26" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P73" s="26" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="Q73" s="9" t="s">
         <v>208</v>
@@ -8003,10 +8025,10 @@
         <v>68</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E74" s="69">
         <v>99</v>
@@ -8019,19 +8041,19 @@
       </c>
       <c r="I74" s="44"/>
       <c r="J74" s="26" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
       <c r="N74" s="28"/>
       <c r="O74" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P74" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="Q74" s="9" t="s">
         <v>209</v>
@@ -8059,19 +8081,19 @@
       <c r="H75" s="51"/>
       <c r="I75" s="51"/>
       <c r="J75" s="48" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="K75" s="48" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L75" s="48"/>
       <c r="M75" s="48"/>
       <c r="N75" s="48"/>
       <c r="O75" s="49" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="P75" s="48" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Q75" s="45" t="s">
         <v>210</v>
@@ -8088,10 +8110,10 @@
       </c>
       <c r="B76" s="53"/>
       <c r="C76" s="54" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D76" s="67" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E76" s="72"/>
       <c r="F76" s="55"/>
@@ -8109,7 +8131,7 @@
       <c r="O76" s="57"/>
       <c r="P76" s="57"/>
       <c r="Q76" s="59" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="S76" s="53"/>
     </row>
@@ -8125,7 +8147,7 @@
         <v>51</v>
       </c>
       <c r="D77" s="67" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E77" s="69"/>
       <c r="F77" s="1"/>
@@ -8136,19 +8158,19 @@
         <v>B</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
       <c r="N77" s="31"/>
       <c r="O77" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P77" s="26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>211</v>
@@ -8170,10 +8192,10 @@
         <v>52</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E78" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -8183,10 +8205,10 @@
         <v>B01</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L78" s="32"/>
       <c r="M78" s="32"/>
@@ -8210,13 +8232,13 @@
         <v>72</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E79" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -8226,25 +8248,25 @@
       </c>
       <c r="I79" s="42"/>
       <c r="J79" s="26" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L79" s="32"/>
       <c r="M79" s="32"/>
       <c r="N79" s="32"/>
       <c r="O79" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P79" s="26" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="Q79" s="9" t="s">
         <v>213</v>
       </c>
       <c r="R79" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S79" s="2"/>
     </row>
@@ -8257,13 +8279,13 @@
         <v>73</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E80" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -8273,25 +8295,25 @@
       </c>
       <c r="I80" s="42"/>
       <c r="J80" s="26" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="L80" s="32"/>
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
       <c r="O80" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="P80" s="26" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="Q80" s="9" t="s">
         <v>214</v>
       </c>
       <c r="R80" s="16" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="S80" s="2"/>
     </row>
@@ -8304,13 +8326,13 @@
         <v>74</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E81" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -8320,25 +8342,25 @@
       </c>
       <c r="I81" s="42"/>
       <c r="J81" s="26" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L81" s="32"/>
       <c r="M81" s="32"/>
       <c r="N81" s="32"/>
       <c r="O81" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P81" s="26" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="Q81" s="9" t="s">
         <v>215</v>
       </c>
       <c r="R81" s="16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="S81" s="2"/>
     </row>
@@ -8354,10 +8376,10 @@
         <v>53</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E82" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -8370,19 +8392,19 @@
         <v>B02</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K82" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L82" s="32"/>
       <c r="M82" s="32"/>
       <c r="N82" s="32"/>
       <c r="O82" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P82" s="26" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="Q82" s="9" t="s">
         <v>216</v>
@@ -8404,10 +8426,10 @@
         <v>54</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -8420,19 +8442,19 @@
         <v>B03</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K83" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L83" s="32"/>
       <c r="M83" s="32"/>
       <c r="N83" s="32"/>
       <c r="O83" s="26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P83" s="26" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="Q83" s="9" t="s">
         <v>217</v>
@@ -8441,7 +8463,7 @@
         <v>54</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -8456,10 +8478,10 @@
         <v>55</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8472,19 +8494,19 @@
         <v>B04</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K84" s="32" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="L84" s="32"/>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
       <c r="O84" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P84" s="26" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Q84" s="9" t="s">
         <v>218</v>
@@ -8506,10 +8528,10 @@
         <v>56</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E85" s="69" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8522,19 +8544,19 @@
         <v>B05</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K85" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L85" s="32"/>
       <c r="M85" s="32"/>
       <c r="N85" s="32"/>
       <c r="O85" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P85" s="26" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Q85" s="9" t="s">
         <v>219</v>
@@ -8556,10 +8578,10 @@
         <v>57</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E86" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8572,19 +8594,19 @@
         <v>B06</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K86" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
       <c r="N86" s="32"/>
       <c r="O86" s="26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P86" s="26" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Q86" s="9" t="s">
         <v>220</v>
@@ -8606,10 +8628,10 @@
         <v>58</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E87" s="69" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8622,19 +8644,19 @@
         <v>B07</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
       <c r="N87" s="32"/>
       <c r="O87" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P87" s="26" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="Q87" s="9" t="s">
         <v>221</v>
@@ -8656,25 +8678,25 @@
         <v>59</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E88" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I88" s="42" t="str">
         <f t="shared" si="7"/>
         <v>B08</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K88" s="32" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="L88" s="32"/>
       <c r="M88" s="32"/>
@@ -8698,13 +8720,13 @@
         <v>82</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E89" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8714,16 +8736,16 @@
       </c>
       <c r="I89" s="42"/>
       <c r="J89" s="26" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
       <c r="N89" s="32"/>
       <c r="O89" s="26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P89" s="29">
         <v>172</v>
@@ -8732,7 +8754,7 @@
         <v>223</v>
       </c>
       <c r="R89" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="S89" s="2"/>
     </row>
@@ -8745,13 +8767,13 @@
         <v>83</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E90" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8761,25 +8783,25 @@
       </c>
       <c r="I90" s="42"/>
       <c r="J90" s="26" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K90" s="32" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
       <c r="N90" s="32"/>
       <c r="O90" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P90" s="26" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="Q90" s="9" t="s">
         <v>224</v>
       </c>
       <c r="R90" s="16" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="S90" s="2"/>
     </row>
@@ -8795,10 +8817,10 @@
         <v>60</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E91" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -8811,19 +8833,19 @@
         <v>B09</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K91" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
       <c r="N91" s="32"/>
       <c r="O91" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P91" s="26" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="Q91" s="9" t="s">
         <v>225</v>
@@ -8840,10 +8862,10 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="74" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E92" s="69">
         <v>10</v>
@@ -8863,7 +8885,7 @@
       <c r="O92" s="26"/>
       <c r="P92" s="26"/>
       <c r="Q92" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="R92" s="15"/>
       <c r="S92" s="2"/>
@@ -8880,10 +8902,10 @@
         <v>61</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E93" s="69" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -8893,19 +8915,19 @@
       </c>
       <c r="I93" s="42"/>
       <c r="J93" s="26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L93" s="32"/>
       <c r="M93" s="32"/>
       <c r="N93" s="32"/>
       <c r="O93" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P93" s="26" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Q93" s="9" t="s">
         <v>226</v>
@@ -8927,7 +8949,7 @@
         <v>62</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E94" s="69">
         <v>10</v>
@@ -8940,19 +8962,19 @@
       </c>
       <c r="I94" s="42"/>
       <c r="J94" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K94" s="32" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="L94" s="32"/>
       <c r="M94" s="32"/>
       <c r="N94" s="32"/>
       <c r="O94" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P94" s="26" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q94" s="9" t="s">
         <v>227</v>
@@ -8974,7 +8996,7 @@
         <v>63</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E95" s="69">
         <v>11</v>
@@ -8990,19 +9012,19 @@
         <v>B11</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K95" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L95" s="32"/>
       <c r="M95" s="32"/>
       <c r="N95" s="32"/>
       <c r="O95" s="26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P95" s="26" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Q95" s="9" t="s">
         <v>228</v>
@@ -9024,10 +9046,10 @@
         <v>64</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E96" s="69" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -9040,19 +9062,19 @@
         <v>B12</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K96" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L96" s="32"/>
       <c r="M96" s="32"/>
       <c r="N96" s="32"/>
       <c r="O96" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P96" s="26" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Q96" s="9" t="s">
         <v>229</v>
@@ -9071,10 +9093,10 @@
         <v>89</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E97" s="69">
         <v>99</v>
@@ -9087,25 +9109,25 @@
       </c>
       <c r="I97" s="42"/>
       <c r="J97" s="26" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K97" s="32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L97" s="32"/>
       <c r="M97" s="32"/>
       <c r="N97" s="32"/>
       <c r="O97" s="26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P97" s="26" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="Q97" s="9" t="s">
         <v>230</v>
       </c>
       <c r="R97" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S97" s="2"/>
     </row>
@@ -9118,10 +9140,10 @@
         <v>90</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E98" s="69">
         <v>13</v>
@@ -9137,25 +9159,25 @@
         <v>B13</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="K98" s="32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L98" s="32"/>
       <c r="M98" s="32"/>
       <c r="N98" s="32"/>
       <c r="O98" s="26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P98" s="26" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q98" s="9" t="s">
         <v>231</v>
       </c>
       <c r="R98" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="S98" s="2"/>
     </row>
@@ -9168,10 +9190,10 @@
         <v>91</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E99" s="69">
         <v>14</v>
@@ -9187,25 +9209,25 @@
         <v>B14</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L99" s="32"/>
       <c r="M99" s="32"/>
       <c r="N99" s="32"/>
       <c r="O99" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P99" s="26" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Q99" s="9" t="s">
         <v>232</v>
       </c>
       <c r="R99" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="S99" s="2"/>
     </row>
@@ -9218,10 +9240,10 @@
         <v>92</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E100" s="69">
         <v>15</v>
@@ -9237,25 +9259,25 @@
         <v>B15</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K100" s="32" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L100" s="32"/>
       <c r="M100" s="32"/>
       <c r="N100" s="32"/>
       <c r="O100" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P100" s="26" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="Q100" s="9" t="s">
         <v>233</v>
       </c>
       <c r="R100" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="S100" s="2"/>
     </row>
@@ -9268,10 +9290,10 @@
         <v>93</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E101" s="69">
         <v>99</v>
@@ -9284,25 +9306,25 @@
       </c>
       <c r="I101" s="42"/>
       <c r="J101" s="26" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="L101" s="32"/>
       <c r="M101" s="32"/>
       <c r="N101" s="32"/>
       <c r="O101" s="26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P101" s="26" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="S101" s="2"/>
     </row>
@@ -9315,10 +9337,10 @@
         <v>94</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E102" s="69">
         <v>99</v>
@@ -9331,25 +9353,25 @@
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K102" s="32" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L102" s="32"/>
       <c r="M102" s="32"/>
       <c r="N102" s="32"/>
       <c r="O102" s="26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P102" s="26" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="R102" s="15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="S102" s="2"/>
     </row>
@@ -9362,10 +9384,10 @@
         <v>95</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E103" s="69">
         <v>99</v>
@@ -9378,25 +9400,25 @@
       </c>
       <c r="I103" s="42"/>
       <c r="J103" s="26" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="K103" s="32" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="L103" s="32"/>
       <c r="M103" s="32"/>
       <c r="N103" s="32"/>
       <c r="O103" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P103" s="26" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="R103" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="S103" s="2"/>
     </row>
@@ -9409,10 +9431,10 @@
         <v>96</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E104" s="69">
         <v>99</v>
@@ -9425,25 +9447,25 @@
       </c>
       <c r="I104" s="42"/>
       <c r="J104" s="26" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K104" s="32" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L104" s="32"/>
       <c r="M104" s="32"/>
       <c r="N104" s="32"/>
       <c r="O104" s="26" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P104" s="26" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="S104" s="2"/>
     </row>
@@ -9456,10 +9478,10 @@
         <v>97</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E105" s="69">
         <v>16</v>
@@ -9472,25 +9494,25 @@
         <v>B16</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K105" s="32" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="L105" s="32"/>
       <c r="M105" s="32"/>
       <c r="N105" s="32"/>
       <c r="O105" s="26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P105" s="26" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="Q105" s="9" t="s">
         <v>234</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="S105" s="2"/>
     </row>
@@ -9503,16 +9525,16 @@
         <v>98</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E106" s="69">
         <v>16</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="42" t="str">
@@ -9521,25 +9543,25 @@
       </c>
       <c r="I106" s="42"/>
       <c r="J106" s="26" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K106" s="32" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="L106" s="32"/>
       <c r="M106" s="32"/>
       <c r="N106" s="32"/>
       <c r="O106" s="26" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="P106" s="29">
         <v>201</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="R106" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="S106" s="2"/>
     </row>
@@ -9552,16 +9574,16 @@
         <v>99</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E107" s="69">
         <v>16</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="42" t="str">
@@ -9573,25 +9595,25 @@
         <v>B16b</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L107" s="32"/>
       <c r="M107" s="32"/>
       <c r="N107" s="32"/>
       <c r="O107" s="26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="P107" s="26" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="R107" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S107" s="2"/>
     </row>
@@ -9604,16 +9626,16 @@
         <v>100</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E108" s="69">
         <v>16</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="42" t="str">
@@ -9625,25 +9647,25 @@
         <v>B16c</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K108" s="32" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L108" s="32"/>
       <c r="M108" s="32"/>
       <c r="N108" s="32"/>
       <c r="O108" s="26" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="P108" s="29">
         <v>203</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="R108" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="S108" s="2"/>
     </row>
@@ -9656,10 +9678,10 @@
         <v>101</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E109" s="69">
         <v>17</v>
@@ -9675,25 +9697,25 @@
         <v>B17</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K109" s="32" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L109" s="32"/>
       <c r="M109" s="32"/>
       <c r="N109" s="32"/>
       <c r="O109" s="26" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P109" s="26" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="Q109" s="9" t="s">
         <v>235</v>
       </c>
       <c r="R109" s="15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="S109" s="2"/>
     </row>
@@ -9706,10 +9728,10 @@
         <v>102</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E110" s="69">
         <v>99</v>
@@ -9725,10 +9747,10 @@
         <v>B99</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="K110" s="32" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L110" s="32"/>
       <c r="M110" s="32"/>
@@ -9739,7 +9761,7 @@
         <v>236</v>
       </c>
       <c r="R110" s="15" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="S110" s="2"/>
     </row>
@@ -9755,7 +9777,7 @@
         <v>65</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E111" s="69">
         <v>99</v>
@@ -9768,19 +9790,19 @@
       </c>
       <c r="I111" s="42"/>
       <c r="J111" s="26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K111" s="32" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L111" s="32"/>
       <c r="M111" s="32"/>
       <c r="N111" s="32"/>
       <c r="O111" s="26" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P111" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q111" s="9" t="s">
         <v>237</v>
@@ -9802,10 +9824,10 @@
         <v>66</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E112" s="69" t="s">
         <v>1155</v>
-      </c>
-      <c r="E112" s="69" t="s">
-        <v>1157</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -9818,19 +9840,19 @@
         <v>D01</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="K112" s="32" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L112" s="32"/>
       <c r="M112" s="32"/>
       <c r="N112" s="32"/>
       <c r="O112" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="P112" s="38" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Q112" s="9" t="s">
         <v>238</v>
@@ -9852,34 +9874,34 @@
         <v>67</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E113" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I113" s="42" t="str">
         <f>CONCATENATE(D113,E113,F113)</f>
         <v>D02</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="K113" s="32" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="L113" s="32"/>
       <c r="M113" s="32"/>
       <c r="N113" s="32"/>
       <c r="O113" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="P113" s="38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Q113" s="9" t="s">
         <v>239</v>
@@ -9898,13 +9920,13 @@
         <v>106</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E114" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -9914,16 +9936,16 @@
       </c>
       <c r="I114" s="42"/>
       <c r="J114" s="26" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K114" s="32" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="L114" s="32"/>
       <c r="M114" s="32"/>
       <c r="N114" s="32"/>
       <c r="O114" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P114" s="29">
         <v>2824</v>
@@ -9932,7 +9954,7 @@
         <v>240</v>
       </c>
       <c r="R114" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="S114" s="2"/>
     </row>
@@ -9945,13 +9967,13 @@
         <v>107</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E115" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -9961,16 +9983,16 @@
       </c>
       <c r="I115" s="42"/>
       <c r="J115" s="26" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="K115" s="32" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="L115" s="32"/>
       <c r="M115" s="32"/>
       <c r="N115" s="32"/>
       <c r="O115" s="26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="P115" s="29">
         <v>2826</v>
@@ -9979,7 +10001,7 @@
         <v>241</v>
       </c>
       <c r="R115" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="S115" s="2"/>
     </row>
@@ -9992,13 +10014,13 @@
         <v>108</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E116" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -10008,25 +10030,25 @@
       </c>
       <c r="I116" s="42"/>
       <c r="J116" s="26" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="K116" s="32" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L116" s="32"/>
       <c r="M116" s="32"/>
       <c r="N116" s="32"/>
       <c r="O116" s="26" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P116" s="26" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q116" s="9" t="s">
         <v>242</v>
       </c>
       <c r="R116" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="S116" s="2"/>
     </row>
@@ -10039,13 +10061,13 @@
         <v>109</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E117" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -10055,25 +10077,25 @@
       </c>
       <c r="I117" s="42"/>
       <c r="J117" s="26" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K117" s="32" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L117" s="32"/>
       <c r="M117" s="32"/>
       <c r="N117" s="32"/>
       <c r="O117" s="26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P117" s="38" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Q117" s="9" t="s">
         <v>243</v>
       </c>
       <c r="R117" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="S117" s="2"/>
     </row>
@@ -10086,37 +10108,37 @@
         <v>110</v>
       </c>
       <c r="C118" s="65" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E118" s="69" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I118" s="42"/>
       <c r="J118" s="26" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="K118" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L118" s="31"/>
       <c r="M118" s="31"/>
       <c r="N118" s="31"/>
       <c r="O118" s="26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P118" s="26" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="R118" s="15" t="s">
         <v>68</v>
@@ -10130,18 +10152,18 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="64" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E119" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I119" s="42" t="str">
         <f>CONCATENATE(D119,E119,F119)</f>
@@ -10155,7 +10177,7 @@
       <c r="O119" s="26"/>
       <c r="P119" s="26"/>
       <c r="Q119" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="R119" s="15"/>
       <c r="S119" s="2"/>
@@ -10167,13 +10189,13 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="64" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E120" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -10190,7 +10212,7 @@
       <c r="O120" s="26"/>
       <c r="P120" s="26"/>
       <c r="Q120" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="R120" s="15"/>
       <c r="S120" s="2"/>
@@ -10202,7 +10224,7 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="69"/>
@@ -10230,7 +10252,7 @@
         <v>111</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="69"/>
@@ -10239,10 +10261,10 @@
       <c r="H122" s="42"/>
       <c r="I122" s="42"/>
       <c r="J122" s="26" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="K122" s="32" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L122" s="32"/>
       <c r="M122" s="32"/>
@@ -10266,13 +10288,13 @@
         <v>112</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E123" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -10282,10 +10304,10 @@
       </c>
       <c r="I123" s="42"/>
       <c r="J123" s="26" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="K123" s="33" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L123" s="33"/>
       <c r="M123" s="33"/>
@@ -10309,13 +10331,13 @@
         <v>113</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E124" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -10325,10 +10347,10 @@
       </c>
       <c r="I124" s="42"/>
       <c r="J124" s="26" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="K124" s="31" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
@@ -10339,7 +10361,7 @@
         <v>246</v>
       </c>
       <c r="R124" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="S124" s="2"/>
     </row>
@@ -10352,13 +10374,13 @@
         <v>114</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E125" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -10368,10 +10390,10 @@
       </c>
       <c r="I125" s="42"/>
       <c r="J125" s="26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K125" s="32" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L125" s="32"/>
       <c r="M125" s="32"/>
@@ -10379,10 +10401,10 @@
       <c r="O125" s="26"/>
       <c r="P125" s="26"/>
       <c r="Q125" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="R125" s="16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="S125" s="2"/>
     </row>
@@ -10398,10 +10420,10 @@
         <v>69</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E126" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -10411,16 +10433,16 @@
       </c>
       <c r="I126" s="42"/>
       <c r="J126" s="26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K126" s="32" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="L126" s="32"/>
       <c r="M126" s="32"/>
       <c r="N126" s="32"/>
       <c r="O126" s="26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P126" s="29">
         <v>295</v>
@@ -10445,13 +10467,13 @@
         <v>70</v>
       </c>
       <c r="D127" s="61" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E127" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="42" t="str">
@@ -10463,19 +10485,19 @@
         <v>D04a</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K127" s="32" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L127" s="32"/>
       <c r="M127" s="32"/>
       <c r="N127" s="32"/>
       <c r="O127" s="26" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P127" s="26" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="Q127" s="9" t="s">
         <v>248</v>
@@ -10503,19 +10525,19 @@
       <c r="H128" s="42"/>
       <c r="I128" s="42"/>
       <c r="J128" s="26" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K128" s="32" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="L128" s="32"/>
       <c r="M128" s="32"/>
       <c r="N128" s="32"/>
       <c r="O128" s="26" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P128" s="26" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Q128" s="9" t="s">
         <v>249</v>
@@ -10534,16 +10556,16 @@
         <v>118</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E129" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="42" t="str">
@@ -10555,25 +10577,25 @@
         <v>D04b</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K129" s="32" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L129" s="32"/>
       <c r="M129" s="32"/>
       <c r="N129" s="32"/>
       <c r="O129" s="26" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P129" s="26" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="Q129" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="R129" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="S129" s="2"/>
     </row>
@@ -10586,16 +10608,16 @@
         <v>119</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E130" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F130" s="62" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="42" t="str">
@@ -10607,25 +10629,25 @@
         <v>D04c</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K130" s="32" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="L130" s="32"/>
       <c r="M130" s="32"/>
       <c r="N130" s="32"/>
       <c r="O130" s="26" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P130" s="26" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="Q130" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="R130" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="S130" s="2"/>
     </row>
@@ -10638,16 +10660,16 @@
         <v>120</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E131" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F131" s="62" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="42" t="str">
@@ -10659,25 +10681,25 @@
         <v>D04d</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="K131" s="32" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="L131" s="32"/>
       <c r="M131" s="32"/>
       <c r="N131" s="32"/>
       <c r="O131" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="P131" s="26" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q131" s="9" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="R131" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="S131" s="2"/>
     </row>
@@ -10690,13 +10712,13 @@
         <v>121</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E132" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -10706,10 +10728,10 @@
       </c>
       <c r="I132" s="42"/>
       <c r="J132" s="26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K132" s="32" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L132" s="32"/>
       <c r="M132" s="32"/>
@@ -10717,10 +10739,10 @@
       <c r="O132" s="26"/>
       <c r="P132" s="26"/>
       <c r="Q132" s="9" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="R132" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="S132" s="2"/>
     </row>
@@ -10733,13 +10755,13 @@
         <v>122</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E133" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -10749,25 +10771,25 @@
       </c>
       <c r="I133" s="42"/>
       <c r="J133" s="26" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="K133" s="32" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="L133" s="32"/>
       <c r="M133" s="32"/>
       <c r="N133" s="32"/>
       <c r="O133" s="26" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P133" s="26" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="Q133" s="9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="R133" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="S133" s="2"/>
     </row>
@@ -10783,10 +10805,10 @@
         <v>72</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E134" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -10796,10 +10818,10 @@
       </c>
       <c r="I134" s="42"/>
       <c r="J134" s="26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K134" s="32" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="L134" s="32"/>
       <c r="M134" s="32"/>
@@ -10826,10 +10848,10 @@
         <v>73</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E135" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -10839,19 +10861,19 @@
       </c>
       <c r="I135" s="42"/>
       <c r="J135" s="26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K135" s="32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L135" s="32"/>
       <c r="M135" s="32"/>
       <c r="N135" s="32"/>
       <c r="O135" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P135" s="26" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="Q135" s="9" t="s">
         <v>251</v>
@@ -10870,13 +10892,13 @@
         <v>125</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E136" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -10886,10 +10908,10 @@
       </c>
       <c r="I136" s="42"/>
       <c r="J136" s="26" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K136" s="32" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="L136" s="32"/>
       <c r="M136" s="32"/>
@@ -10897,10 +10919,10 @@
       <c r="O136" s="26"/>
       <c r="P136" s="26"/>
       <c r="Q136" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="R136" s="9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="S136" s="2"/>
     </row>
@@ -10922,10 +10944,10 @@
       <c r="H137" s="42"/>
       <c r="I137" s="42"/>
       <c r="J137" s="26" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K137" s="32" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L137" s="32"/>
       <c r="M137" s="32"/>
@@ -10933,7 +10955,7 @@
       <c r="O137" s="26"/>
       <c r="P137" s="26"/>
       <c r="Q137" s="9" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="R137" s="9" t="s">
         <v>74</v>
@@ -10949,13 +10971,13 @@
         <v>127</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E138" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -10965,10 +10987,10 @@
       </c>
       <c r="I138" s="42"/>
       <c r="J138" s="26" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="K138" s="32" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L138" s="32"/>
       <c r="M138" s="32"/>
@@ -10976,10 +10998,10 @@
       <c r="O138" s="26"/>
       <c r="P138" s="26"/>
       <c r="Q138" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="S138" s="2"/>
     </row>
@@ -10992,13 +11014,13 @@
         <v>128</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E139" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -11008,10 +11030,10 @@
       </c>
       <c r="I139" s="42"/>
       <c r="J139" s="26" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="K139" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L139" s="32"/>
       <c r="M139" s="32"/>
@@ -11019,10 +11041,10 @@
       <c r="O139" s="26"/>
       <c r="P139" s="26"/>
       <c r="Q139" s="9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="S139" s="2"/>
     </row>
@@ -11038,10 +11060,10 @@
         <v>75</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E140" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -11051,10 +11073,10 @@
       </c>
       <c r="I140" s="42"/>
       <c r="J140" s="26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K140" s="32" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="L140" s="32"/>
       <c r="M140" s="32"/>
@@ -11081,10 +11103,10 @@
         <v>76</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E141" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -11094,10 +11116,10 @@
       </c>
       <c r="I141" s="42"/>
       <c r="J141" s="26" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K141" s="32" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L141" s="32"/>
       <c r="M141" s="32"/>
@@ -11124,29 +11146,29 @@
         <v>77</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E142" s="69" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="42"/>
       <c r="I142" s="42"/>
       <c r="J142" s="26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K142" s="31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L142" s="31"/>
       <c r="M142" s="31"/>
       <c r="N142" s="31"/>
       <c r="O142" s="26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P142" s="26" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>254</v>
@@ -11155,7 +11177,7 @@
         <v>77</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -11167,13 +11189,13 @@
         <v>132</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E143" s="69" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -11186,19 +11208,19 @@
         <v>D05</v>
       </c>
       <c r="J143" s="26" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K143" s="32" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L143" s="32"/>
       <c r="M143" s="32"/>
       <c r="N143" s="32"/>
       <c r="O143" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P143" s="26" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="Q143" s="9" t="s">
         <v>255</v>
@@ -11220,10 +11242,10 @@
         <v>79</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E144" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -11233,16 +11255,16 @@
       </c>
       <c r="I144" s="42"/>
       <c r="J144" s="26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K144" s="32" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="L144" s="32"/>
       <c r="M144" s="32"/>
       <c r="N144" s="32"/>
       <c r="O144" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P144" s="29">
         <v>332</v>
@@ -11267,10 +11289,10 @@
         <v>80</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E145" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -11280,16 +11302,16 @@
       </c>
       <c r="I145" s="42"/>
       <c r="J145" s="26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K145" s="32" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L145" s="32"/>
       <c r="M145" s="32"/>
       <c r="N145" s="32"/>
       <c r="O145" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P145" s="29">
         <v>345</v>
@@ -11314,10 +11336,10 @@
         <v>81</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E146" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -11327,16 +11349,16 @@
       </c>
       <c r="I146" s="42"/>
       <c r="J146" s="26" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K146" s="32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L146" s="32"/>
       <c r="M146" s="32"/>
       <c r="N146" s="32"/>
       <c r="O146" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P146" s="29">
         <v>340</v>
@@ -11361,10 +11383,10 @@
         <v>82</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E147" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -11374,10 +11396,10 @@
       </c>
       <c r="I147" s="42"/>
       <c r="J147" s="26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K147" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L147" s="32"/>
       <c r="M147" s="32"/>
@@ -11404,10 +11426,10 @@
         <v>83</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E148" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -11417,10 +11439,10 @@
       </c>
       <c r="I148" s="42"/>
       <c r="J148" s="26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K148" s="32" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L148" s="32"/>
       <c r="M148" s="32"/>
@@ -11447,10 +11469,10 @@
         <v>84</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E149" s="69" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -11463,19 +11485,19 @@
         <v>D06</v>
       </c>
       <c r="J149" s="26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K149" s="32" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="L149" s="32"/>
       <c r="M149" s="32"/>
       <c r="N149" s="32"/>
       <c r="O149" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="P149" s="26" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="Q149" s="9" t="s">
         <v>261</v>
@@ -11497,20 +11519,20 @@
         <v>85</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E150" s="69" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="42"/>
       <c r="I150" s="42"/>
       <c r="J150" s="26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K150" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="L150" s="31"/>
       <c r="M150" s="31"/>
@@ -11524,7 +11546,7 @@
         <v>85</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -11539,7 +11561,7 @@
         <v>86</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E151" s="69">
         <v>99</v>
@@ -11552,10 +11574,10 @@
       </c>
       <c r="I151" s="42"/>
       <c r="J151" s="26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K151" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L151" s="32"/>
       <c r="M151" s="32"/>
@@ -11582,7 +11604,7 @@
         <v>87</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E152" s="69">
         <v>99</v>
@@ -11595,10 +11617,10 @@
       </c>
       <c r="I152" s="42"/>
       <c r="J152" s="26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K152" s="32" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="L152" s="32"/>
       <c r="M152" s="32"/>
@@ -11622,10 +11644,10 @@
         <v>142</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E153" s="69">
         <v>99</v>
@@ -11638,10 +11660,10 @@
       </c>
       <c r="I153" s="42"/>
       <c r="J153" s="26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K153" s="32" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="L153" s="32"/>
       <c r="M153" s="32"/>
@@ -11668,7 +11690,7 @@
         <v>89</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E154" s="69">
         <v>99</v>
@@ -11681,10 +11703,10 @@
       </c>
       <c r="I154" s="42"/>
       <c r="J154" s="26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K154" s="32" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="L154" s="32"/>
       <c r="M154" s="32"/>
@@ -11711,7 +11733,7 @@
         <v>90</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E155" s="69">
         <v>99</v>
@@ -11724,10 +11746,10 @@
       </c>
       <c r="I155" s="42"/>
       <c r="J155" s="26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K155" s="32" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="L155" s="32"/>
       <c r="M155" s="32"/>
@@ -11754,7 +11776,7 @@
         <v>91</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E156" s="69">
         <v>99</v>
@@ -11767,10 +11789,10 @@
       </c>
       <c r="I156" s="42"/>
       <c r="J156" s="26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K156" s="32" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="L156" s="32"/>
       <c r="M156" s="32"/>
@@ -11797,7 +11819,7 @@
         <v>92</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E157" s="69">
         <v>99</v>
@@ -11810,10 +11832,10 @@
       </c>
       <c r="I157" s="42"/>
       <c r="J157" s="26" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K157" s="32" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="L157" s="32"/>
       <c r="M157" s="32"/>
@@ -11827,7 +11849,7 @@
         <v>92</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
@@ -11842,7 +11864,7 @@
         <v>93</v>
       </c>
       <c r="D158" s="67" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E158" s="69"/>
       <c r="F158" s="1"/>
@@ -11853,19 +11875,19 @@
         <v>C</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K158" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="L158" s="31"/>
       <c r="M158" s="31"/>
       <c r="N158" s="31"/>
       <c r="O158" s="26" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P158" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>270</v>
@@ -11887,7 +11909,7 @@
         <v>94</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E159" s="69">
         <v>99</v>
@@ -11900,19 +11922,19 @@
       </c>
       <c r="I159" s="42"/>
       <c r="J159" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K159" s="32" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="L159" s="32"/>
       <c r="M159" s="32"/>
       <c r="N159" s="32"/>
       <c r="O159" s="26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P159" s="26" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="Q159" s="9" t="s">
         <v>271</v>
@@ -11934,10 +11956,10 @@
         <v>95</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E160" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -11950,16 +11972,16 @@
         <v>C01</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K160" s="32" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="L160" s="32"/>
       <c r="M160" s="32"/>
       <c r="N160" s="32"/>
       <c r="O160" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="P160" s="29">
         <v>402</v>
@@ -11984,10 +12006,10 @@
         <v>96</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E161" s="69" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -12000,19 +12022,19 @@
         <v>C02</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K161" s="32" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="L161" s="32"/>
       <c r="M161" s="32"/>
       <c r="N161" s="32"/>
       <c r="O161" s="26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="P161" s="26" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="Q161" s="9" t="s">
         <v>273</v>
@@ -12034,10 +12056,10 @@
         <v>97</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E162" s="69" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -12050,19 +12072,19 @@
         <v>C03</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K162" s="32" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L162" s="32"/>
       <c r="M162" s="32"/>
       <c r="N162" s="32"/>
       <c r="O162" s="26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P162" s="26" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="Q162" s="9" t="s">
         <v>274</v>
@@ -12084,10 +12106,10 @@
         <v>98</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E163" s="69" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -12100,19 +12122,19 @@
         <v>C04</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K163" s="32" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="L163" s="32"/>
       <c r="M163" s="32"/>
       <c r="N163" s="32"/>
       <c r="O163" s="26" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P163" s="26" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q163" s="9" t="s">
         <v>275</v>
@@ -12134,7 +12156,7 @@
         <v>99</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E164" s="69">
         <v>99</v>
@@ -12150,19 +12172,19 @@
         <v>C99</v>
       </c>
       <c r="J164" s="26" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K164" s="32" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="L164" s="32"/>
       <c r="M164" s="32"/>
       <c r="N164" s="32"/>
       <c r="O164" s="26" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P164" s="26" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q164" s="9" t="s">
         <v>276</v>
@@ -12184,29 +12206,29 @@
         <v>100</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E165" s="69" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="42"/>
       <c r="I165" s="42"/>
       <c r="J165" s="26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K165" s="31" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="L165" s="31"/>
       <c r="M165" s="31"/>
       <c r="N165" s="31"/>
       <c r="O165" s="26" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="P165" s="26" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>277</v>
@@ -12228,10 +12250,10 @@
         <v>101</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E166" s="69" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -12244,19 +12266,19 @@
         <v>D07</v>
       </c>
       <c r="J166" s="26" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K166" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="L166" s="32"/>
       <c r="M166" s="32"/>
       <c r="N166" s="32"/>
       <c r="O166" s="26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P166" s="26" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="Q166" s="9" t="s">
         <v>278</v>
@@ -12278,10 +12300,10 @@
         <v>102</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E167" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -12291,16 +12313,16 @@
       </c>
       <c r="I167" s="42"/>
       <c r="J167" s="26" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K167" s="32" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L167" s="32"/>
       <c r="M167" s="32"/>
       <c r="N167" s="32"/>
       <c r="O167" s="26" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P167" s="29">
         <v>493</v>
@@ -12322,13 +12344,13 @@
         <v>157</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E168" s="69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -12341,19 +12363,19 @@
         <v>D08</v>
       </c>
       <c r="J168" s="26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K168" s="32" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="L168" s="32"/>
       <c r="M168" s="32"/>
       <c r="N168" s="32"/>
       <c r="O168" s="26" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P168" s="26" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="Q168" s="9" t="s">
         <v>280</v>
@@ -12375,34 +12397,34 @@
         <v>104</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E169" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I169" s="42" t="str">
         <f>CONCATENATE(D169,E169,F169)</f>
         <v>D09</v>
       </c>
       <c r="J169" s="26" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K169" s="31" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="L169" s="31"/>
       <c r="M169" s="31"/>
       <c r="N169" s="31"/>
       <c r="O169" s="26" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="P169" s="26" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q169" s="2" t="s">
         <v>281</v>
@@ -12424,10 +12446,10 @@
         <v>105</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E170" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -12437,19 +12459,19 @@
       </c>
       <c r="I170" s="42"/>
       <c r="J170" s="26" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K170" s="32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L170" s="32"/>
       <c r="M170" s="32"/>
       <c r="N170" s="32"/>
       <c r="O170" s="26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P170" s="26" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="Q170" s="9" t="s">
         <v>282</v>
@@ -12471,10 +12493,10 @@
         <v>106</v>
       </c>
       <c r="D171" s="61" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E171" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -12484,19 +12506,19 @@
       </c>
       <c r="I171" s="42"/>
       <c r="J171" s="26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K171" s="32" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="L171" s="32"/>
       <c r="M171" s="32"/>
       <c r="N171" s="32"/>
       <c r="O171" s="26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P171" s="26" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Q171" s="9" t="s">
         <v>283</v>
@@ -12518,10 +12540,10 @@
         <v>107</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E172" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -12531,19 +12553,19 @@
       </c>
       <c r="I172" s="42"/>
       <c r="J172" s="26" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K172" s="32" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="L172" s="32"/>
       <c r="M172" s="32"/>
       <c r="N172" s="32"/>
       <c r="O172" s="26" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P172" s="26" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="Q172" s="9" t="s">
         <v>284</v>
@@ -12562,13 +12584,13 @@
         <v>162</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E173" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -12578,25 +12600,25 @@
       </c>
       <c r="I173" s="42"/>
       <c r="J173" s="26" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K173" s="32" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L173" s="32"/>
       <c r="M173" s="32"/>
       <c r="N173" s="32"/>
       <c r="O173" s="26" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P173" s="29">
         <v>535</v>
       </c>
       <c r="Q173" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="R173" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="S173" s="2"/>
     </row>
@@ -12609,13 +12631,13 @@
         <v>163</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E174" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -12625,25 +12647,25 @@
       </c>
       <c r="I174" s="42"/>
       <c r="J174" s="26" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K174" s="32" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L174" s="32"/>
       <c r="M174" s="32"/>
       <c r="N174" s="32"/>
       <c r="O174" s="26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="P174" s="26" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="Q174" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="R174" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="S174" s="2"/>
     </row>
@@ -12656,13 +12678,13 @@
         <v>164</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E175" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -12672,25 +12694,25 @@
       </c>
       <c r="I175" s="42"/>
       <c r="J175" s="26" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="K175" s="32" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="L175" s="32"/>
       <c r="M175" s="32"/>
       <c r="N175" s="32"/>
       <c r="O175" s="26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="P175" s="26" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Q175" s="9" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="R175" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="S175" s="2"/>
     </row>
@@ -12703,13 +12725,13 @@
         <v>165</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E176" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -12719,25 +12741,25 @@
       </c>
       <c r="I176" s="42"/>
       <c r="J176" s="26" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K176" s="32" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="L176" s="32"/>
       <c r="M176" s="32"/>
       <c r="N176" s="32"/>
       <c r="O176" s="26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P176" s="26" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="Q176" s="9" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="R176" s="9" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="S176" s="2"/>
     </row>
@@ -12750,13 +12772,13 @@
         <v>166</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E177" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -12766,25 +12788,25 @@
       </c>
       <c r="I177" s="42"/>
       <c r="J177" s="26" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="K177" s="32" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L177" s="32"/>
       <c r="M177" s="32"/>
       <c r="N177" s="32"/>
       <c r="O177" s="26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P177" s="26" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="Q177" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="R177" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="S177" s="2"/>
     </row>
@@ -12797,13 +12819,13 @@
         <v>167</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E178" s="69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -12813,25 +12835,25 @@
       </c>
       <c r="I178" s="42"/>
       <c r="J178" s="26" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K178" s="32" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="L178" s="32"/>
       <c r="M178" s="32"/>
       <c r="N178" s="32"/>
       <c r="O178" s="26" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="P178" s="26" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="Q178" s="9" t="s">
         <v>285</v>
       </c>
       <c r="R178" s="16" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="S178" s="2"/>
     </row>
@@ -12847,7 +12869,7 @@
         <v>108</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E179" s="69"/>
       <c r="F179" s="1"/>
@@ -12855,19 +12877,19 @@
       <c r="H179" s="42"/>
       <c r="I179" s="63"/>
       <c r="J179" s="26" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K179" s="34" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L179" s="34"/>
       <c r="M179" s="34"/>
       <c r="N179" s="34"/>
       <c r="O179" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="P179" s="38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Q179" s="2" t="s">
         <v>286</v>
@@ -12889,34 +12911,34 @@
         <v>109</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E180" s="69" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I180" s="42" t="str">
         <f>CONCATENATE(D180,E180,F180)</f>
         <v>D10</v>
       </c>
       <c r="J180" s="26" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K180" s="35" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L180" s="35"/>
       <c r="M180" s="35"/>
       <c r="N180" s="35"/>
       <c r="O180" s="26" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="P180" s="26" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="Q180" s="9" t="s">
         <v>287</v>
@@ -12935,13 +12957,13 @@
         <v>170</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E181" s="69" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -12951,25 +12973,25 @@
       </c>
       <c r="I181" s="42"/>
       <c r="J181" s="26" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K181" s="32" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L181" s="32"/>
       <c r="M181" s="32"/>
       <c r="N181" s="32"/>
       <c r="O181" s="26" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="P181" s="29">
         <v>580</v>
       </c>
       <c r="Q181" s="9" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="R181" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="S181" s="2"/>
     </row>
@@ -12982,13 +13004,13 @@
         <v>171</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D182" s="61" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E182" s="69" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -12998,25 +13020,25 @@
       </c>
       <c r="I182" s="42"/>
       <c r="J182" s="26" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="K182" s="32" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="L182" s="32"/>
       <c r="M182" s="32"/>
       <c r="N182" s="32"/>
       <c r="O182" s="26" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P182" s="29">
         <v>2504</v>
       </c>
       <c r="Q182" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="R182" s="9" t="s">
         <v>930</v>
-      </c>
-      <c r="R182" s="9" t="s">
-        <v>932</v>
       </c>
       <c r="S182" s="2"/>
     </row>
@@ -13029,13 +13051,13 @@
         <v>172</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E183" s="69" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -13045,25 +13067,25 @@
       </c>
       <c r="I183" s="42"/>
       <c r="J183" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="K183" s="32" t="s">
         <v>962</v>
-      </c>
-      <c r="K183" s="32" t="s">
-        <v>964</v>
       </c>
       <c r="L183" s="32"/>
       <c r="M183" s="32"/>
       <c r="N183" s="32"/>
       <c r="O183" s="26" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P183" s="29">
         <v>589</v>
       </c>
       <c r="Q183" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="R183" s="9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="S183" s="2"/>
     </row>
@@ -13076,10 +13098,10 @@
         <v>173</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E184" s="69">
         <v>99</v>
@@ -13092,10 +13114,10 @@
       </c>
       <c r="I184" s="42"/>
       <c r="J184" s="26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K184" s="32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L184" s="32"/>
       <c r="M184" s="32"/>
@@ -13103,10 +13125,10 @@
       <c r="O184" s="26"/>
       <c r="P184" s="26"/>
       <c r="Q184" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="R184" s="16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="S184" s="2"/>
     </row>
@@ -13122,7 +13144,7 @@
         <v>110</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E185" s="69">
         <v>99</v>
@@ -13135,19 +13157,19 @@
       </c>
       <c r="I185" s="42"/>
       <c r="J185" s="26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K185" s="32" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="L185" s="32"/>
       <c r="M185" s="32"/>
       <c r="N185" s="32"/>
       <c r="O185" s="26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P185" s="26" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="Q185" s="9" t="s">
         <v>288</v>
@@ -13166,10 +13188,10 @@
         <v>175</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E186" s="69">
         <v>99</v>
@@ -13182,22 +13204,22 @@
       </c>
       <c r="I186" s="42"/>
       <c r="J186" s="26" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K186" s="32" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="L186" s="32"/>
       <c r="M186" s="32"/>
       <c r="N186" s="32"/>
       <c r="O186" s="26" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="P186" s="26" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="Q186" s="9" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="R186" s="16" t="s">
         <v>111</v>
@@ -13216,7 +13238,7 @@
         <v>112</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E187" s="69">
         <v>99</v>
@@ -13229,19 +13251,19 @@
       </c>
       <c r="I187" s="42"/>
       <c r="J187" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K187" s="32" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="L187" s="32"/>
       <c r="M187" s="32"/>
       <c r="N187" s="32"/>
       <c r="O187" s="26" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="P187" s="26" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="Q187" s="9" t="s">
         <v>289</v>
@@ -13263,7 +13285,7 @@
         <v>113</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E188" s="69">
         <v>99</v>
@@ -13276,19 +13298,19 @@
       </c>
       <c r="I188" s="42"/>
       <c r="J188" s="26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K188" s="32" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="L188" s="32"/>
       <c r="M188" s="32"/>
       <c r="N188" s="32"/>
       <c r="O188" s="26" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P188" s="26" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="Q188" s="9" t="s">
         <v>290</v>
@@ -13310,7 +13332,7 @@
         <v>114</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E189" s="69">
         <v>99</v>
@@ -13323,19 +13345,19 @@
       </c>
       <c r="I189" s="42"/>
       <c r="J189" s="26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K189" s="32" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="L189" s="32"/>
       <c r="M189" s="32"/>
       <c r="N189" s="32"/>
       <c r="O189" s="26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P189" s="26" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q189" s="9" t="s">
         <v>291</v>
@@ -13357,31 +13379,31 @@
         <v>115</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E190" s="69" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I190" s="42"/>
       <c r="J190" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K190" s="31" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L190" s="31"/>
       <c r="M190" s="31"/>
       <c r="N190" s="31"/>
       <c r="O190" s="26" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="P190" s="26" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q190" s="2" t="s">
         <v>292</v>
@@ -13403,7 +13425,7 @@
         <v>116</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E191" s="69">
         <v>99</v>
@@ -13416,19 +13438,19 @@
       </c>
       <c r="I191" s="42"/>
       <c r="J191" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K191" s="32" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L191" s="32"/>
       <c r="M191" s="32"/>
       <c r="N191" s="32"/>
       <c r="O191" s="26" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P191" s="26" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="Q191" s="9" t="s">
         <v>293</v>
@@ -13450,7 +13472,7 @@
         <v>117</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E192" s="69">
         <v>99</v>
@@ -13463,10 +13485,10 @@
       </c>
       <c r="I192" s="42"/>
       <c r="J192" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K192" s="32" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="L192" s="32"/>
       <c r="M192" s="32"/>
@@ -13493,7 +13515,7 @@
         <v>118</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E193" s="69">
         <v>99</v>
@@ -13506,10 +13528,10 @@
       </c>
       <c r="I193" s="42"/>
       <c r="J193" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K193" s="32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L193" s="32"/>
       <c r="M193" s="32"/>
@@ -13536,7 +13558,7 @@
         <v>119</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E194" s="69">
         <v>99</v>
@@ -13549,10 +13571,10 @@
       </c>
       <c r="I194" s="42"/>
       <c r="J194" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K194" s="32" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L194" s="32"/>
       <c r="M194" s="32"/>
@@ -13579,7 +13601,7 @@
         <v>120</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E195" s="69">
         <v>99</v>
@@ -13592,19 +13614,19 @@
       </c>
       <c r="I195" s="42"/>
       <c r="J195" s="26" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K195" s="32" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="L195" s="32"/>
       <c r="M195" s="32"/>
       <c r="N195" s="32"/>
       <c r="O195" s="26" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="P195" s="26" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="Q195" s="9" t="s">
         <v>297</v>
@@ -13626,34 +13648,34 @@
         <v>121</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E196" s="69" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I196" s="42" t="str">
         <f>CONCATENATE(D196,E196,F196)</f>
         <v>D11</v>
       </c>
       <c r="J196" s="26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K196" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="L196" s="31"/>
       <c r="M196" s="31"/>
       <c r="N196" s="31"/>
       <c r="O196" s="26" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="P196" s="26" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q196" s="2" t="s">
         <v>298</v>
@@ -13675,10 +13697,10 @@
         <v>122</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E197" s="69" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -13688,19 +13710,19 @@
       </c>
       <c r="I197" s="42"/>
       <c r="J197" s="26" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K197" s="32" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L197" s="32"/>
       <c r="M197" s="32"/>
       <c r="N197" s="32"/>
       <c r="O197" s="26" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P197" s="26" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="Q197" s="9" t="s">
         <v>299</v>
@@ -13722,10 +13744,10 @@
         <v>123</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E198" s="69" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -13735,19 +13757,19 @@
       </c>
       <c r="I198" s="42"/>
       <c r="J198" s="26" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K198" s="32" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L198" s="32"/>
       <c r="M198" s="32"/>
       <c r="N198" s="32"/>
       <c r="O198" s="26" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P198" s="26" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="Q198" s="9" t="s">
         <v>300</v>
@@ -13769,10 +13791,10 @@
         <v>124</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E199" s="69" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -13782,10 +13804,10 @@
       </c>
       <c r="I199" s="42"/>
       <c r="J199" s="26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K199" s="32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L199" s="32"/>
       <c r="M199" s="32"/>
@@ -13816,10 +13838,10 @@
         <v>125</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E200" s="69" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -13829,19 +13851,19 @@
       </c>
       <c r="I200" s="42"/>
       <c r="J200" s="26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K200" s="32" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="L200" s="32"/>
       <c r="M200" s="32"/>
       <c r="N200" s="32"/>
       <c r="O200" s="26" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="P200" s="26" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="Q200" s="9" t="s">
         <v>302</v>
@@ -13863,10 +13885,10 @@
         <v>126</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E201" s="69" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -13876,19 +13898,19 @@
       </c>
       <c r="I201" s="42"/>
       <c r="J201" s="26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K201" s="32" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="L201" s="32"/>
       <c r="M201" s="32"/>
       <c r="N201" s="32"/>
       <c r="O201" s="26" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="P201" s="26" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="Q201" s="9" t="s">
         <v>303</v>
@@ -13910,10 +13932,10 @@
         <v>127</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E202" s="69" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -13923,19 +13945,19 @@
       </c>
       <c r="I202" s="42"/>
       <c r="J202" s="26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K202" s="32" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L202" s="32"/>
       <c r="M202" s="32"/>
       <c r="N202" s="32"/>
       <c r="O202" s="26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P202" s="26" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="Q202" s="9" t="s">
         <v>304</v>
@@ -13957,20 +13979,20 @@
         <v>128</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E203" s="69"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I203" s="42"/>
       <c r="J203" s="26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K203" s="31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="L203" s="31"/>
       <c r="M203" s="31"/>
@@ -13997,7 +14019,7 @@
         <v>129</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E204" s="69">
         <v>99</v>
@@ -14010,10 +14032,10 @@
       </c>
       <c r="I204" s="42"/>
       <c r="J204" s="26" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K204" s="33" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L204" s="33"/>
       <c r="M204" s="33"/>
@@ -14040,7 +14062,7 @@
         <v>130</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E205" s="69">
         <v>99</v>
@@ -14053,10 +14075,10 @@
       </c>
       <c r="I205" s="42"/>
       <c r="J205" s="26" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K205" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L205" s="32"/>
       <c r="M205" s="32"/>
@@ -14083,7 +14105,7 @@
         <v>131</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E206" s="69">
         <v>99</v>
@@ -14096,10 +14118,10 @@
       </c>
       <c r="I206" s="42"/>
       <c r="J206" s="26" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K206" s="32" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L206" s="32"/>
       <c r="M206" s="32"/>
@@ -14123,10 +14145,10 @@
         <v>196</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E207" s="69">
         <v>99</v>
@@ -14139,10 +14161,10 @@
       </c>
       <c r="I207" s="42"/>
       <c r="J207" s="26" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K207" s="32" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="L207" s="32"/>
       <c r="M207" s="32"/>
@@ -14150,10 +14172,10 @@
       <c r="O207" s="26"/>
       <c r="P207" s="26"/>
       <c r="Q207" s="9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="R207" s="16" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="S207" s="2"/>
     </row>
@@ -14169,7 +14191,7 @@
         <v>132</v>
       </c>
       <c r="D208" s="67" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E208" s="69"/>
       <c r="F208" s="1"/>
@@ -14180,22 +14202,22 @@
         <v>E</v>
       </c>
       <c r="J208" s="26" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K208" s="34" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="L208" s="34"/>
       <c r="M208" s="34"/>
       <c r="N208" s="34"/>
       <c r="O208" s="30" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="P208" s="26" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="R208" s="15" t="s">
         <v>132</v>
@@ -14214,10 +14236,10 @@
         <v>133</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E209" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -14226,20 +14248,20 @@
         <f>CONCATENATE(D209,E209,F209)</f>
         <v>E01</v>
       </c>
-      <c r="J209" s="26" t="s">
-        <v>999</v>
-      </c>
-      <c r="K209" s="34" t="s">
-        <v>1119</v>
+      <c r="J209" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="K209" s="76" t="s">
+        <v>1117</v>
       </c>
       <c r="L209" s="34"/>
       <c r="M209" s="34"/>
       <c r="N209" s="34"/>
       <c r="O209" s="26" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P209" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Q209" s="2" t="s">
         <v>309</v>
@@ -14261,13 +14283,13 @@
         <v>134</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E210" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="42" t="str">
@@ -14278,20 +14300,20 @@
         <f>CONCATENATE(D210,E210,F210)</f>
         <v>E01a</v>
       </c>
-      <c r="J210" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="K210" s="32" t="s">
-        <v>873</v>
+      <c r="J210" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K210" s="77" t="s">
+        <v>871</v>
       </c>
       <c r="L210" s="32"/>
       <c r="M210" s="32"/>
       <c r="N210" s="32"/>
       <c r="O210" s="26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P210" s="26" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="Q210" s="9" t="s">
         <v>310</v>
@@ -14313,13 +14335,13 @@
         <v>135</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E211" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="42" t="str">
@@ -14327,20 +14349,20 @@
         <v>cE01x</v>
       </c>
       <c r="I211" s="42"/>
-      <c r="J211" s="26" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K211" s="32" t="s">
-        <v>1122</v>
+      <c r="J211" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K211" s="77" t="s">
+        <v>1120</v>
       </c>
       <c r="L211" s="32"/>
       <c r="M211" s="32"/>
       <c r="N211" s="32"/>
       <c r="O211" s="26" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="P211" s="26" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="Q211" s="9" t="s">
         <v>311</v>
@@ -14362,13 +14384,13 @@
         <v>136</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E212" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="42" t="str">
@@ -14379,20 +14401,20 @@
         <f>CONCATENATE(D212,E212,F212)</f>
         <v>E01b</v>
       </c>
-      <c r="J212" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="K212" s="32" t="s">
-        <v>874</v>
+      <c r="J212" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="K212" s="77" t="s">
+        <v>872</v>
       </c>
       <c r="L212" s="32"/>
       <c r="M212" s="32"/>
       <c r="N212" s="32"/>
       <c r="O212" s="26" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P212" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="Q212" s="9" t="s">
         <v>312</v>
@@ -14414,13 +14436,13 @@
         <v>137</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E213" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="42" t="str">
@@ -14428,20 +14450,20 @@
         <v>cE01x</v>
       </c>
       <c r="I213" s="42"/>
-      <c r="J213" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="K213" s="32" t="s">
-        <v>875</v>
+      <c r="J213" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="K213" s="77" t="s">
+        <v>873</v>
       </c>
       <c r="L213" s="32"/>
       <c r="M213" s="32"/>
       <c r="N213" s="32"/>
       <c r="O213" s="26" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="P213" s="26" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="Q213" s="9" t="s">
         <v>313</v>
@@ -14460,16 +14482,16 @@
         <v>203</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E214" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="42" t="str">
@@ -14477,20 +14499,20 @@
         <v>cE01x</v>
       </c>
       <c r="I214" s="42"/>
-      <c r="J214" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="K214" s="32" t="s">
-        <v>876</v>
+      <c r="J214" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="K214" s="77" t="s">
+        <v>874</v>
       </c>
       <c r="L214" s="32"/>
       <c r="M214" s="32"/>
       <c r="N214" s="32"/>
       <c r="O214" s="26" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P214" s="26" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="Q214" s="9" t="s">
         <v>314</v>
@@ -14500,7 +14522,7 @@
       </c>
       <c r="S214" s="2"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -14509,16 +14531,16 @@
         <v>204</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E215" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="42" t="str">
@@ -14526,26 +14548,26 @@
         <v>cE01x</v>
       </c>
       <c r="I215" s="42"/>
-      <c r="J215" s="26" t="s">
+      <c r="J215" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="K215" s="78" t="s">
         <v>1000</v>
-      </c>
-      <c r="K215" s="35" t="s">
-        <v>1002</v>
       </c>
       <c r="L215" s="35"/>
       <c r="M215" s="35"/>
       <c r="N215" s="35"/>
       <c r="O215" s="26" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P215" s="26" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="Q215" s="9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="R215" s="15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="S215" s="2"/>
     </row>
@@ -14558,16 +14580,16 @@
         <v>205</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E216" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="42" t="str">
@@ -14575,11 +14597,11 @@
         <v>cE01x</v>
       </c>
       <c r="I216" s="42"/>
-      <c r="J216" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="K216" s="32" t="s">
-        <v>877</v>
+      <c r="J216" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="K216" s="77" t="s">
+        <v>875</v>
       </c>
       <c r="L216" s="32"/>
       <c r="M216" s="32"/>
@@ -14587,14 +14609,14 @@
       <c r="O216" s="26"/>
       <c r="P216" s="26"/>
       <c r="Q216" s="9" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="R216" s="15" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="S216" s="2"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="18"/>
         <v>……...E.01.x. Other unintentional injuries</v>
@@ -14603,16 +14625,16 @@
         <v>206</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E217" s="69" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="42" t="str">
@@ -14623,33 +14645,33 @@
         <f>CONCATENATE(D217,E217,F217)</f>
         <v>E01x</v>
       </c>
-      <c r="J217" s="26" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K217" s="35" t="s">
-        <v>1118</v>
+      <c r="J217" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="K217" s="78" t="s">
+        <v>1116</v>
       </c>
       <c r="L217" s="35"/>
       <c r="M217" s="35"/>
       <c r="N217" s="35"/>
       <c r="O217" s="26" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="P217" s="26" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="Q217" s="9" t="s">
         <v>315</v>
       </c>
       <c r="R217" s="15" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="S217" s="2"/>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="18"/>
-        <v>…...E.02. Intentional injuries</v>
+        <v>…... . . Intentional injuries</v>
       </c>
       <c r="B218" s="2">
         <v>207</v>
@@ -14658,32 +14680,31 @@
         <v>139</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1156</v>
+        <v>954</v>
       </c>
       <c r="E218" s="69" t="s">
-        <v>1158</v>
+        <v>954</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="42"/>
-      <c r="I218" s="42" t="str">
-        <f>CONCATENATE(D218,E218,F218)</f>
-        <v>E02</v>
-      </c>
-      <c r="J218" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="K218" s="31" t="s">
-        <v>878</v>
+      <c r="I218" s="42" t="s">
+        <v>954</v>
+      </c>
+      <c r="J218" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="K218" s="79" t="s">
+        <v>876</v>
       </c>
       <c r="L218" s="31"/>
       <c r="M218" s="31"/>
       <c r="N218" s="31"/>
       <c r="O218" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P218" s="26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Q218" s="2" t="s">
         <v>316</v>
@@ -14696,7 +14717,7 @@
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="18"/>
-        <v>……...E.02.a. Self-harm</v>
+        <v>……...E.02. . Suicide/Self-harm</v>
       </c>
       <c r="B219" s="2">
         <v>208</v>
@@ -14705,40 +14726,40 @@
         <v>140</v>
       </c>
       <c r="D219" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E219" s="69" t="s">
         <v>1156</v>
       </c>
-      <c r="E219" s="69" t="s">
-        <v>1158</v>
-      </c>
       <c r="F219" s="1" t="s">
-        <v>1131</v>
+        <v>954</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="42" t="str">
         <f>CONCATENATE("c",D219,E219,F219)</f>
-        <v>cE02a</v>
+        <v xml:space="preserve">cE02 </v>
       </c>
       <c r="I219" s="42" t="str">
         <f>CONCATENATE(D219,E219,F219)</f>
-        <v>E02a</v>
-      </c>
-      <c r="J219" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K219" s="32" t="s">
-        <v>879</v>
+        <v xml:space="preserve">E02 </v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="K219" s="77" t="s">
+        <v>877</v>
       </c>
       <c r="L219" s="32"/>
       <c r="M219" s="32"/>
       <c r="N219" s="32"/>
       <c r="O219" s="26" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P219" s="26" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="Q219" s="9" t="s">
-        <v>317</v>
+        <v>1179</v>
       </c>
       <c r="R219" s="15" t="s">
         <v>140</v>
@@ -14748,7 +14769,7 @@
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="18"/>
-        <v>……...E.02.b. Interpersonal violence</v>
+        <v>……...E.03. . Homicide/Interpersonal violence</v>
       </c>
       <c r="B220" s="2">
         <v>209</v>
@@ -14757,40 +14778,40 @@
         <v>141</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E220" s="69" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1132</v>
+        <v>954</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="42" t="str">
         <f>CONCATENATE("c",D220,E220,F220)</f>
-        <v>cE02b</v>
+        <v xml:space="preserve">cE03 </v>
       </c>
       <c r="I220" s="42" t="str">
         <f>CONCATENATE(D220,E220,F220)</f>
-        <v>E02b</v>
-      </c>
-      <c r="J220" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="K220" s="32" t="s">
-        <v>880</v>
+        <v xml:space="preserve">E03 </v>
+      </c>
+      <c r="J220" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="K220" s="77" t="s">
+        <v>878</v>
       </c>
       <c r="L220" s="32"/>
       <c r="M220" s="32"/>
       <c r="N220" s="32"/>
       <c r="O220" s="26" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P220" s="26" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="Q220" s="9" t="s">
-        <v>318</v>
+        <v>1178</v>
       </c>
       <c r="R220" s="15" t="s">
         <v>141</v>
@@ -14809,23 +14830,23 @@
         <v>142</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E221" s="69" t="s">
-        <v>1158</v>
+        <v>1177</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="42" t="str">
         <f>CONCATENATE("c",D221,E221,F221)</f>
-        <v>cE02</v>
+        <v>cE99</v>
       </c>
       <c r="I221" s="42"/>
-      <c r="J221" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K221" s="32" t="s">
-        <v>881</v>
+      <c r="J221" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="K221" s="77" t="s">
+        <v>879</v>
       </c>
       <c r="L221" s="32"/>
       <c r="M221" s="32"/>
@@ -14833,7 +14854,7 @@
       <c r="O221" s="26"/>
       <c r="P221" s="26"/>
       <c r="Q221" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R221" s="15" t="s">
         <v>142</v>
@@ -14871,178 +14892,178 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>939</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>940</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>941</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>947</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>949</v>
       </c>
       <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>948</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>950</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15072,12 +15093,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/NEWgbd.ICD.Map.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1180">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4673,7 +4673,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C220" sqref="C220"/>
+      <selection pane="bottomRight" activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14671,7 +14671,7 @@
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="18"/>
-        <v>…... . . Intentional injuries</v>
+        <v/>
       </c>
       <c r="B218" s="2">
         <v>207</v>
@@ -14688,9 +14688,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="42"/>
-      <c r="I218" s="42" t="s">
-        <v>954</v>
-      </c>
+      <c r="I218" s="42"/>
       <c r="J218" s="9" t="s">
         <v>504</v>
       </c>
@@ -14717,7 +14715,7 @@
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="18"/>
-        <v>……...E.02. . Suicide/Self-harm</v>
+        <v>…...E.02. Suicide/Self-harm</v>
       </c>
       <c r="B219" s="2">
         <v>208</v>
@@ -14731,17 +14729,15 @@
       <c r="E219" s="69" t="s">
         <v>1156</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>954</v>
-      </c>
+      <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="42" t="str">
         <f>CONCATENATE("c",D219,E219,F219)</f>
-        <v xml:space="preserve">cE02 </v>
+        <v>cE02</v>
       </c>
       <c r="I219" s="42" t="str">
         <f>CONCATENATE(D219,E219,F219)</f>
-        <v xml:space="preserve">E02 </v>
+        <v>E02</v>
       </c>
       <c r="J219" s="9" t="s">
         <v>505</v>
@@ -14769,7 +14765,7 @@
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="18"/>
-        <v>……...E.03. . Homicide/Interpersonal violence</v>
+        <v>…...E.03. Homicide/Interpersonal violence</v>
       </c>
       <c r="B220" s="2">
         <v>209</v>
@@ -14783,17 +14779,15 @@
       <c r="E220" s="69" t="s">
         <v>1157</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>954</v>
-      </c>
+      <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="42" t="str">
         <f>CONCATENATE("c",D220,E220,F220)</f>
-        <v xml:space="preserve">cE03 </v>
+        <v>cE03</v>
       </c>
       <c r="I220" s="42" t="str">
         <f>CONCATENATE(D220,E220,F220)</f>
-        <v xml:space="preserve">E03 </v>
+        <v>E03</v>
       </c>
       <c r="J220" s="9" t="s">
         <v>506</v>
